--- a/Excel/UnionKeJiConfig.xlsx
+++ b/Excel/UnionKeJiConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBE12C8-812F-4414-9574-63467875101B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC29326B-0FD0-4A76-96CE-653878E08531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -583,7 +583,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="121">
   <si>
     <t>Id</t>
   </si>
@@ -968,6 +968,10 @@
   </si>
   <si>
     <t>升级消耗家族金币</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedTime</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2341,7 +2345,7 @@
   <dimension ref="C1:IA57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2401,7 +2405,7 @@
         <v>116</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>117</v>

--- a/Excel/UnionKeJiConfig.xlsx
+++ b/Excel/UnionKeJiConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC29326B-0FD0-4A76-96CE-653878E08531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FEB947-0BF8-496A-9C61-DB308BFFAA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -583,7 +583,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="127">
   <si>
     <t>Id</t>
   </si>
@@ -972,6 +972,29 @@
   </si>
   <si>
     <t>NeedTime</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习消耗道具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>LearnCost</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;100</t>
+  </si>
+  <si>
+    <t>1;100</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;100@1;100</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2342,10 +2365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:IA57"/>
+  <dimension ref="C1:IB57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2353,16 +2376,16 @@
     <col min="3" max="3" width="8.5" style="3" customWidth="1"/>
     <col min="4" max="7" width="14.125" style="3" customWidth="1"/>
     <col min="8" max="8" width="19.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="3" customWidth="1"/>
-    <col min="10" max="10" width="24.875" style="3" customWidth="1"/>
-    <col min="11" max="235" width="8.875" style="3" customWidth="1"/>
+    <col min="9" max="10" width="16.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="24.875" style="3" customWidth="1"/>
+    <col min="12" max="236" width="8.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:235" s="1" customFormat="1" ht="14.25"/>
-    <row r="2" spans="3:235" ht="13.5" customHeight="1">
+    <row r="1" spans="3:236" s="1" customFormat="1" ht="14.25"/>
+    <row r="2" spans="3:236" ht="13.5" customHeight="1">
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="3:235" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
@@ -2385,10 +2408,13 @@
         <v>119</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="3:235" ht="20.100000000000001" customHeight="1">
+        <v>121</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
@@ -2411,10 +2437,13 @@
         <v>117</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="3:235" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
@@ -2437,10 +2466,13 @@
         <v>10</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="3:235" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="8">
         <v>10100</v>
       </c>
@@ -2462,9 +2494,12 @@
       <c r="I6" s="11">
         <v>100</v>
       </c>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="3:235" ht="20.100000000000001" customHeight="1">
+      <c r="J6" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="8">
         <v>10101</v>
       </c>
@@ -2486,11 +2521,14 @@
       <c r="I7" s="11">
         <v>220.00000000000003</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="3:235" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="8">
         <v>10102</v>
       </c>
@@ -2512,12 +2550,15 @@
       <c r="I8" s="11">
         <v>375</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="IA8"/>
-    </row>
-    <row r="9" spans="3:235" ht="19.5" customHeight="1">
+      <c r="IB8"/>
+    </row>
+    <row r="9" spans="3:236" ht="19.5" customHeight="1">
       <c r="C9" s="8">
         <v>10103</v>
       </c>
@@ -2539,12 +2580,15 @@
       <c r="I9" s="11">
         <v>560</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="IA9"/>
-    </row>
-    <row r="10" spans="3:235" ht="19.5" customHeight="1">
+      <c r="IB9"/>
+    </row>
+    <row r="10" spans="3:236" ht="19.5" customHeight="1">
       <c r="C10" s="8">
         <v>10104</v>
       </c>
@@ -2566,12 +2610,15 @@
       <c r="I10" s="11">
         <v>775</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="IA10"/>
-    </row>
-    <row r="11" spans="3:235" ht="20.100000000000001" customHeight="1">
+      <c r="IB10"/>
+    </row>
+    <row r="11" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="8">
         <v>10105</v>
       </c>
@@ -2593,11 +2640,14 @@
       <c r="I11" s="11">
         <v>1020</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="3:235" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C12" s="8">
         <v>10106</v>
       </c>
@@ -2619,12 +2669,15 @@
       <c r="I12" s="11">
         <v>1330</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="IA12"/>
-    </row>
-    <row r="13" spans="3:235" ht="19.5" customHeight="1">
+      <c r="IB12"/>
+    </row>
+    <row r="13" spans="3:236" ht="19.5" customHeight="1">
       <c r="C13" s="8">
         <v>10107</v>
       </c>
@@ -2646,12 +2699,15 @@
       <c r="I13" s="11">
         <v>1680</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="IA13"/>
-    </row>
-    <row r="14" spans="3:235" ht="19.5" customHeight="1">
+      <c r="IB13"/>
+    </row>
+    <row r="14" spans="3:236" ht="19.5" customHeight="1">
       <c r="C14" s="8">
         <v>10108</v>
       </c>
@@ -2673,12 +2729,15 @@
       <c r="I14" s="11">
         <v>2070</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="IA14"/>
-    </row>
-    <row r="15" spans="3:235" ht="19.5" customHeight="1">
+      <c r="IB14"/>
+    </row>
+    <row r="15" spans="3:236" ht="19.5" customHeight="1">
       <c r="C15" s="8">
         <v>10109</v>
       </c>
@@ -2700,12 +2759,15 @@
       <c r="I15" s="11">
         <v>2500</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="IA15"/>
-    </row>
-    <row r="16" spans="3:235" ht="19.5" customHeight="1">
+      <c r="IB15"/>
+    </row>
+    <row r="16" spans="3:236" ht="19.5" customHeight="1">
       <c r="C16" s="8">
         <v>10110</v>
       </c>
@@ -2727,12 +2789,15 @@
       <c r="I16" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="IA16"/>
-    </row>
-    <row r="17" spans="3:235" ht="19.5" customHeight="1">
+      <c r="IB16"/>
+    </row>
+    <row r="17" spans="3:236" ht="19.5" customHeight="1">
       <c r="C17" s="8">
         <v>10111</v>
       </c>
@@ -2754,12 +2819,15 @@
       <c r="I17" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K17" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="IA17"/>
-    </row>
-    <row r="18" spans="3:235" ht="19.5" customHeight="1">
+      <c r="IB17"/>
+    </row>
+    <row r="18" spans="3:236" ht="19.5" customHeight="1">
       <c r="C18" s="8">
         <v>10112</v>
       </c>
@@ -2781,12 +2849,13 @@
       <c r="I18" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="11"/>
+      <c r="K18" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="IA18"/>
-    </row>
-    <row r="19" spans="3:235" ht="22.5" customHeight="1">
+      <c r="IB18"/>
+    </row>
+    <row r="19" spans="3:236" ht="22.5" customHeight="1">
       <c r="C19" s="8">
         <v>10200</v>
       </c>
@@ -2808,9 +2877,12 @@
       <c r="I19" s="11">
         <v>100</v>
       </c>
-      <c r="J19" s="10"/>
-    </row>
-    <row r="20" spans="3:235" ht="20.100000000000001" customHeight="1">
+      <c r="J19" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="8">
         <v>10201</v>
       </c>
@@ -2832,11 +2904,14 @@
       <c r="I20" s="11">
         <v>220.00000000000003</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="3:235" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C21" s="8">
         <v>10202</v>
       </c>
@@ -2858,12 +2933,15 @@
       <c r="I21" s="11">
         <v>375</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="IA21"/>
-    </row>
-    <row r="22" spans="3:235" ht="19.5" customHeight="1">
+      <c r="IB21"/>
+    </row>
+    <row r="22" spans="3:236" ht="19.5" customHeight="1">
       <c r="C22" s="8">
         <v>10203</v>
       </c>
@@ -2885,12 +2963,15 @@
       <c r="I22" s="11">
         <v>560</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="IA22"/>
-    </row>
-    <row r="23" spans="3:235" ht="19.5" customHeight="1">
+      <c r="IB22"/>
+    </row>
+    <row r="23" spans="3:236" ht="19.5" customHeight="1">
       <c r="C23" s="8">
         <v>10204</v>
       </c>
@@ -2912,12 +2993,15 @@
       <c r="I23" s="11">
         <v>775</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="IA23"/>
-    </row>
-    <row r="24" spans="3:235" ht="22.5" customHeight="1">
+      <c r="IB23"/>
+    </row>
+    <row r="24" spans="3:236" ht="22.5" customHeight="1">
       <c r="C24" s="8">
         <v>10205</v>
       </c>
@@ -2939,11 +3023,14 @@
       <c r="I24" s="11">
         <v>1020</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K24" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="3:235" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C25" s="8">
         <v>10206</v>
       </c>
@@ -2965,11 +3052,14 @@
       <c r="I25" s="11">
         <v>1330</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K25" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="3:235" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C26" s="8">
         <v>10207</v>
       </c>
@@ -2991,12 +3081,15 @@
       <c r="I26" s="11">
         <v>1680</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="IA26"/>
-    </row>
-    <row r="27" spans="3:235" ht="19.5" customHeight="1">
+      <c r="IB26"/>
+    </row>
+    <row r="27" spans="3:236" ht="19.5" customHeight="1">
       <c r="C27" s="8">
         <v>10208</v>
       </c>
@@ -3018,12 +3111,15 @@
       <c r="I27" s="11">
         <v>2070</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="IA27"/>
-    </row>
-    <row r="28" spans="3:235" ht="19.5" customHeight="1">
+      <c r="IB27"/>
+    </row>
+    <row r="28" spans="3:236" ht="19.5" customHeight="1">
       <c r="C28" s="8">
         <v>10209</v>
       </c>
@@ -3045,12 +3141,15 @@
       <c r="I28" s="11">
         <v>2500</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K28" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="IA28"/>
-    </row>
-    <row r="29" spans="3:235" ht="19.5" customHeight="1">
+      <c r="IB28"/>
+    </row>
+    <row r="29" spans="3:236" ht="19.5" customHeight="1">
       <c r="C29" s="8">
         <v>10210</v>
       </c>
@@ -3072,12 +3171,15 @@
       <c r="I29" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K29" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="IA29"/>
-    </row>
-    <row r="30" spans="3:235" ht="19.5" customHeight="1">
+      <c r="IB29"/>
+    </row>
+    <row r="30" spans="3:236" ht="19.5" customHeight="1">
       <c r="C30" s="8">
         <v>10211</v>
       </c>
@@ -3099,12 +3201,15 @@
       <c r="I30" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K30" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="IA30"/>
-    </row>
-    <row r="31" spans="3:235" ht="19.5" customHeight="1">
+      <c r="IB30"/>
+    </row>
+    <row r="31" spans="3:236" ht="19.5" customHeight="1">
       <c r="C31" s="8">
         <v>10212</v>
       </c>
@@ -3126,12 +3231,13 @@
       <c r="I31" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="11"/>
+      <c r="K31" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="IA31"/>
-    </row>
-    <row r="32" spans="3:235" ht="22.5" customHeight="1">
+      <c r="IB31"/>
+    </row>
+    <row r="32" spans="3:236" ht="22.5" customHeight="1">
       <c r="C32" s="8">
         <v>10300</v>
       </c>
@@ -3153,9 +3259,12 @@
       <c r="I32" s="11">
         <v>100</v>
       </c>
-      <c r="J32" s="10"/>
-    </row>
-    <row r="33" spans="3:235" ht="20.100000000000001" customHeight="1">
+      <c r="J32" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K32" s="10"/>
+    </row>
+    <row r="33" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C33" s="8">
         <v>10301</v>
       </c>
@@ -3177,11 +3286,14 @@
       <c r="I33" s="11">
         <v>220.00000000000003</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J33" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K33" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="3:235" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C34" s="8">
         <v>10302</v>
       </c>
@@ -3203,12 +3315,15 @@
       <c r="I34" s="11">
         <v>375</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="J34" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K34" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="IA34"/>
-    </row>
-    <row r="35" spans="3:235" ht="19.5" customHeight="1">
+      <c r="IB34"/>
+    </row>
+    <row r="35" spans="3:236" ht="19.5" customHeight="1">
       <c r="C35" s="8">
         <v>10303</v>
       </c>
@@ -3230,12 +3345,15 @@
       <c r="I35" s="11">
         <v>560</v>
       </c>
-      <c r="J35" s="10" t="s">
+      <c r="J35" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K35" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="IA35"/>
-    </row>
-    <row r="36" spans="3:235" ht="19.5" customHeight="1">
+      <c r="IB35"/>
+    </row>
+    <row r="36" spans="3:236" ht="19.5" customHeight="1">
       <c r="C36" s="8">
         <v>10304</v>
       </c>
@@ -3257,12 +3375,15 @@
       <c r="I36" s="11">
         <v>775</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J36" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K36" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="IA36"/>
-    </row>
-    <row r="37" spans="3:235" ht="20.100000000000001" customHeight="1">
+      <c r="IB36"/>
+    </row>
+    <row r="37" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C37" s="8">
         <v>10305</v>
       </c>
@@ -3284,11 +3405,14 @@
       <c r="I37" s="11">
         <v>1020</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K37" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="3:235" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C38" s="8">
         <v>10306</v>
       </c>
@@ -3310,12 +3434,15 @@
       <c r="I38" s="11">
         <v>1330</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K38" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="IA38"/>
-    </row>
-    <row r="39" spans="3:235" ht="19.5" customHeight="1">
+      <c r="IB38"/>
+    </row>
+    <row r="39" spans="3:236" ht="19.5" customHeight="1">
       <c r="C39" s="8">
         <v>10307</v>
       </c>
@@ -3337,12 +3464,15 @@
       <c r="I39" s="11">
         <v>1680</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="J39" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K39" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="IA39"/>
-    </row>
-    <row r="40" spans="3:235" ht="19.5" customHeight="1">
+      <c r="IB39"/>
+    </row>
+    <row r="40" spans="3:236" ht="19.5" customHeight="1">
       <c r="C40" s="8">
         <v>10308</v>
       </c>
@@ -3364,12 +3494,15 @@
       <c r="I40" s="11">
         <v>2070</v>
       </c>
-      <c r="J40" s="10" t="s">
+      <c r="J40" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K40" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="IA40"/>
-    </row>
-    <row r="41" spans="3:235" ht="19.5" customHeight="1">
+      <c r="IB40"/>
+    </row>
+    <row r="41" spans="3:236" ht="19.5" customHeight="1">
       <c r="C41" s="8">
         <v>10309</v>
       </c>
@@ -3391,12 +3524,15 @@
       <c r="I41" s="11">
         <v>2500</v>
       </c>
-      <c r="J41" s="10" t="s">
+      <c r="J41" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K41" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="IA41"/>
-    </row>
-    <row r="42" spans="3:235" ht="19.5" customHeight="1">
+      <c r="IB41"/>
+    </row>
+    <row r="42" spans="3:236" ht="19.5" customHeight="1">
       <c r="C42" s="8">
         <v>10310</v>
       </c>
@@ -3418,12 +3554,15 @@
       <c r="I42" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J42" s="10" t="s">
+      <c r="J42" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K42" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="IA42"/>
-    </row>
-    <row r="43" spans="3:235" ht="19.5" customHeight="1">
+      <c r="IB42"/>
+    </row>
+    <row r="43" spans="3:236" ht="19.5" customHeight="1">
       <c r="C43" s="8">
         <v>10311</v>
       </c>
@@ -3445,12 +3584,15 @@
       <c r="I43" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J43" s="10" t="s">
+      <c r="J43" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K43" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="IA43"/>
-    </row>
-    <row r="44" spans="3:235" ht="19.5" customHeight="1">
+      <c r="IB43"/>
+    </row>
+    <row r="44" spans="3:236" ht="19.5" customHeight="1">
       <c r="C44" s="8">
         <v>10312</v>
       </c>
@@ -3472,12 +3614,13 @@
       <c r="I44" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="J44" s="11"/>
+      <c r="K44" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="IA44"/>
-    </row>
-    <row r="45" spans="3:235" ht="22.5" customHeight="1">
+      <c r="IB44"/>
+    </row>
+    <row r="45" spans="3:236" ht="22.5" customHeight="1">
       <c r="C45" s="8">
         <v>10400</v>
       </c>
@@ -3499,9 +3642,12 @@
       <c r="I45" s="11">
         <v>100</v>
       </c>
-      <c r="J45" s="10"/>
-    </row>
-    <row r="46" spans="3:235" ht="20.100000000000001" customHeight="1">
+      <c r="J45" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C46" s="8">
         <v>10401</v>
       </c>
@@ -3523,11 +3669,14 @@
       <c r="I46" s="11">
         <v>220.00000000000003</v>
       </c>
-      <c r="J46" s="10" t="s">
+      <c r="J46" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K46" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="3:235" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C47" s="8">
         <v>10402</v>
       </c>
@@ -3549,12 +3698,15 @@
       <c r="I47" s="11">
         <v>375</v>
       </c>
-      <c r="J47" s="10" t="s">
+      <c r="J47" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K47" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="IA47"/>
-    </row>
-    <row r="48" spans="3:235" ht="19.5" customHeight="1">
+      <c r="IB47"/>
+    </row>
+    <row r="48" spans="3:236" ht="19.5" customHeight="1">
       <c r="C48" s="8">
         <v>10403</v>
       </c>
@@ -3576,12 +3728,15 @@
       <c r="I48" s="11">
         <v>560</v>
       </c>
-      <c r="J48" s="10" t="s">
+      <c r="J48" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K48" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="IA48"/>
-    </row>
-    <row r="49" spans="3:235" ht="19.5" customHeight="1">
+      <c r="IB48"/>
+    </row>
+    <row r="49" spans="3:236" ht="19.5" customHeight="1">
       <c r="C49" s="8">
         <v>10404</v>
       </c>
@@ -3603,12 +3758,15 @@
       <c r="I49" s="11">
         <v>775</v>
       </c>
-      <c r="J49" s="10" t="s">
+      <c r="J49" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K49" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="IA49"/>
-    </row>
-    <row r="50" spans="3:235" ht="22.5" customHeight="1">
+      <c r="IB49"/>
+    </row>
+    <row r="50" spans="3:236" ht="22.5" customHeight="1">
       <c r="C50" s="8">
         <v>10405</v>
       </c>
@@ -3630,11 +3788,14 @@
       <c r="I50" s="11">
         <v>1020</v>
       </c>
-      <c r="J50" s="10" t="s">
+      <c r="J50" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K50" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="3:235" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C51" s="8">
         <v>10406</v>
       </c>
@@ -3656,11 +3817,14 @@
       <c r="I51" s="11">
         <v>1330</v>
       </c>
-      <c r="J51" s="10" t="s">
+      <c r="J51" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K51" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="3:235" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C52" s="8">
         <v>10407</v>
       </c>
@@ -3682,12 +3846,15 @@
       <c r="I52" s="11">
         <v>1680</v>
       </c>
-      <c r="J52" s="10" t="s">
+      <c r="J52" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K52" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="IA52"/>
-    </row>
-    <row r="53" spans="3:235" ht="19.5" customHeight="1">
+      <c r="IB52"/>
+    </row>
+    <row r="53" spans="3:236" ht="19.5" customHeight="1">
       <c r="C53" s="8">
         <v>10408</v>
       </c>
@@ -3709,12 +3876,15 @@
       <c r="I53" s="11">
         <v>2070</v>
       </c>
-      <c r="J53" s="10" t="s">
+      <c r="J53" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K53" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="IA53"/>
-    </row>
-    <row r="54" spans="3:235" ht="19.5" customHeight="1">
+      <c r="IB53"/>
+    </row>
+    <row r="54" spans="3:236" ht="19.5" customHeight="1">
       <c r="C54" s="8">
         <v>10409</v>
       </c>
@@ -3736,12 +3906,15 @@
       <c r="I54" s="11">
         <v>2500</v>
       </c>
-      <c r="J54" s="10" t="s">
+      <c r="J54" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K54" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="IA54"/>
-    </row>
-    <row r="55" spans="3:235" ht="19.5" customHeight="1">
+      <c r="IB54"/>
+    </row>
+    <row r="55" spans="3:236" ht="19.5" customHeight="1">
       <c r="C55" s="8">
         <v>10410</v>
       </c>
@@ -3763,12 +3936,15 @@
       <c r="I55" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J55" s="10" t="s">
+      <c r="J55" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K55" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="IA55"/>
-    </row>
-    <row r="56" spans="3:235" ht="19.5" customHeight="1">
+      <c r="IB55"/>
+    </row>
+    <row r="56" spans="3:236" ht="19.5" customHeight="1">
       <c r="C56" s="8">
         <v>10411</v>
       </c>
@@ -3790,12 +3966,15 @@
       <c r="I56" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J56" s="10" t="s">
+      <c r="J56" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K56" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="IA56"/>
-    </row>
-    <row r="57" spans="3:235" ht="19.5" customHeight="1">
+      <c r="IB56"/>
+    </row>
+    <row r="57" spans="3:236" ht="19.5" customHeight="1">
       <c r="C57" s="8">
         <v>10412</v>
       </c>
@@ -3817,10 +3996,11 @@
       <c r="I57" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J57" s="10" t="s">
+      <c r="J57" s="11"/>
+      <c r="K57" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="IA57"/>
+      <c r="IB57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/Excel/UnionKeJiConfig.xlsx
+++ b/Excel/UnionKeJiConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FEB947-0BF8-496A-9C61-DB308BFFAA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B42E084-6BE1-4F74-9870-012B7FE385E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2367,8 +2367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:IB57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2489,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="10">
-        <v>28800</v>
+        <v>120</v>
       </c>
       <c r="I6" s="11">
         <v>100</v>
@@ -2516,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="10">
-        <v>28800</v>
+        <v>300</v>
       </c>
       <c r="I7" s="11">
         <v>220.00000000000003</v>
@@ -2872,7 +2872,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="10">
-        <v>28800</v>
+        <v>120</v>
       </c>
       <c r="I19" s="11">
         <v>100</v>
@@ -2899,7 +2899,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="10">
-        <v>28800</v>
+        <v>300</v>
       </c>
       <c r="I20" s="11">
         <v>220.00000000000003</v>

--- a/Excel/UnionKeJiConfig.xlsx
+++ b/Excel/UnionKeJiConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B42E084-6BE1-4F74-9870-012B7FE385E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5094E6F0-5B7C-4633-8C58-F875E0500996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1590" windowWidth="22965" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnionKeJiProto" sheetId="1" r:id="rId1"/>
@@ -2367,8 +2367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:IB57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:H20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3012,7 +3012,7 @@
         <v>10206</v>
       </c>
       <c r="F24" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G24" s="10">
         <v>2</v>
@@ -3041,7 +3041,7 @@
         <v>10207</v>
       </c>
       <c r="F25" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G25" s="10">
         <v>3</v>
@@ -3070,7 +3070,7 @@
         <v>10208</v>
       </c>
       <c r="F26" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G26" s="10">
         <v>3</v>
@@ -3100,7 +3100,7 @@
         <v>10209</v>
       </c>
       <c r="F27" s="10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G27" s="10">
         <v>3</v>
@@ -3130,7 +3130,7 @@
         <v>10210</v>
       </c>
       <c r="F28" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G28" s="10">
         <v>3</v>
@@ -3160,7 +3160,7 @@
         <v>10211</v>
       </c>
       <c r="F29" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G29" s="10">
         <v>3</v>
@@ -3190,7 +3190,7 @@
         <v>10212</v>
       </c>
       <c r="F30" s="10">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G30" s="10">
         <v>3</v>
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="10">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G31" s="10">
         <v>3</v>
@@ -3394,7 +3394,7 @@
         <v>10306</v>
       </c>
       <c r="F37" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G37" s="10">
         <v>2</v>
@@ -3423,7 +3423,7 @@
         <v>10307</v>
       </c>
       <c r="F38" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G38" s="10">
         <v>3</v>
@@ -3453,7 +3453,7 @@
         <v>10308</v>
       </c>
       <c r="F39" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G39" s="10">
         <v>3</v>
@@ -3483,7 +3483,7 @@
         <v>10309</v>
       </c>
       <c r="F40" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G40" s="10">
         <v>3</v>
@@ -3513,7 +3513,7 @@
         <v>10310</v>
       </c>
       <c r="F41" s="10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G41" s="10">
         <v>3</v>
@@ -3543,7 +3543,7 @@
         <v>10311</v>
       </c>
       <c r="F42" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G42" s="10">
         <v>3</v>
@@ -3573,7 +3573,7 @@
         <v>10312</v>
       </c>
       <c r="F43" s="10">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G43" s="10">
         <v>3</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G44" s="10">
         <v>3</v>
@@ -3777,7 +3777,7 @@
         <v>10406</v>
       </c>
       <c r="F50" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G50" s="10">
         <v>2</v>
@@ -3806,7 +3806,7 @@
         <v>10407</v>
       </c>
       <c r="F51" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G51" s="10">
         <v>3</v>
@@ -3835,7 +3835,7 @@
         <v>10408</v>
       </c>
       <c r="F52" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G52" s="10">
         <v>3</v>
@@ -3865,7 +3865,7 @@
         <v>10409</v>
       </c>
       <c r="F53" s="10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G53" s="10">
         <v>3</v>
@@ -3895,7 +3895,7 @@
         <v>10410</v>
       </c>
       <c r="F54" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G54" s="10">
         <v>3</v>
@@ -3925,7 +3925,7 @@
         <v>10411</v>
       </c>
       <c r="F55" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G55" s="10">
         <v>3</v>
@@ -3955,7 +3955,7 @@
         <v>10412</v>
       </c>
       <c r="F56" s="10">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G56" s="10">
         <v>3</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="10">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G57" s="10">
         <v>3</v>

--- a/Excel/UnionKeJiConfig.xlsx
+++ b/Excel/UnionKeJiConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5094E6F0-5B7C-4633-8C58-F875E0500996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933BDE21-9B20-4145-A038-AF5790C5ACE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1590" windowWidth="22965" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnionKeJiProto" sheetId="1" r:id="rId1"/>
@@ -583,7 +583,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="193">
   <si>
     <t>Id</t>
   </si>
@@ -619,334 +619,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>100403;50</t>
-  </si>
-  <si>
-    <t>100403;100</t>
-  </si>
-  <si>
-    <t>100403;200</t>
-  </si>
-  <si>
-    <t>100403;350</t>
-  </si>
-  <si>
-    <t>100403;500</t>
-  </si>
-  <si>
-    <t>100403;700</t>
-  </si>
-  <si>
-    <t>100403;900</t>
-  </si>
-  <si>
-    <t>100403;1200</t>
-  </si>
-  <si>
-    <t>100403;1500</t>
-  </si>
-  <si>
-    <t>100403;1800</t>
-  </si>
-  <si>
-    <t>100203;300</t>
-  </si>
-  <si>
-    <t>100203;600</t>
-  </si>
-  <si>
-    <t>100203;1200</t>
-  </si>
-  <si>
-    <t>100203;2100</t>
-  </si>
-  <si>
-    <t>100203;3000</t>
-  </si>
-  <si>
-    <t>100203;4200</t>
-  </si>
-  <si>
-    <t>100203;5400</t>
-  </si>
-  <si>
-    <t>100203;7200</t>
-  </si>
-  <si>
-    <t>100203;9000</t>
-  </si>
-  <si>
-    <t>100203;10800</t>
-  </si>
-  <si>
-    <t>100603;50</t>
-  </si>
-  <si>
-    <t>100603;100</t>
-  </si>
-  <si>
-    <t>100603;200</t>
-  </si>
-  <si>
-    <t>100603;350</t>
-  </si>
-  <si>
-    <t>100603;500</t>
-  </si>
-  <si>
-    <t>100603;700</t>
-  </si>
-  <si>
-    <t>100603;900</t>
-  </si>
-  <si>
-    <t>100603;1200</t>
-  </si>
-  <si>
-    <t>100603;1500</t>
-  </si>
-  <si>
-    <t>100603;1800</t>
-  </si>
-  <si>
-    <t>100803;50</t>
-  </si>
-  <si>
-    <t>100803;100</t>
-  </si>
-  <si>
-    <t>100803;200</t>
-  </si>
-  <si>
-    <t>100803;350</t>
-  </si>
-  <si>
-    <t>100803;500</t>
-  </si>
-  <si>
-    <t>100803;700</t>
-  </si>
-  <si>
-    <t>100803;900</t>
-  </si>
-  <si>
-    <t>100803;1200</t>
-  </si>
-  <si>
-    <t>100803;1500</t>
-  </si>
-  <si>
-    <t>100803;1800</t>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>100403;2100</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>100403;2400</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>3000</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>3500</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>100803;2100</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>100803;2400</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>100603;2100</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>100603;2400</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>100203;12600</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>100203;14400</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币能力0级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币能力1级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币能力2级</t>
-  </si>
-  <si>
-    <t>金币能力3级</t>
-  </si>
-  <si>
-    <t>金币能力4级</t>
-  </si>
-  <si>
-    <t>金币能力5级</t>
-  </si>
-  <si>
-    <t>金币能力6级</t>
-  </si>
-  <si>
-    <t>金币能力7级</t>
-  </si>
-  <si>
-    <t>金币能力8级</t>
-  </si>
-  <si>
-    <t>金币能力9级</t>
-  </si>
-  <si>
-    <t>金币能力10级</t>
-  </si>
-  <si>
-    <t>金币能力11级</t>
-  </si>
-  <si>
-    <t>金币能力12级</t>
-  </si>
-  <si>
-    <t>生命能力0级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命能力1级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命能力2级</t>
-  </si>
-  <si>
-    <t>生命能力3级</t>
-  </si>
-  <si>
-    <t>生命能力4级</t>
-  </si>
-  <si>
-    <t>生命能力5级</t>
-  </si>
-  <si>
-    <t>生命能力6级</t>
-  </si>
-  <si>
-    <t>生命能力7级</t>
-  </si>
-  <si>
-    <t>生命能力8级</t>
-  </si>
-  <si>
-    <t>生命能力9级</t>
-  </si>
-  <si>
-    <t>生命能力10级</t>
-  </si>
-  <si>
-    <t>生命能力11级</t>
-  </si>
-  <si>
-    <t>生命能力12级</t>
-  </si>
-  <si>
-    <t>攻击能力0级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击能力1级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击能力2级</t>
-  </si>
-  <si>
-    <t>攻击能力3级</t>
-  </si>
-  <si>
-    <t>攻击能力4级</t>
-  </si>
-  <si>
-    <t>攻击能力5级</t>
-  </si>
-  <si>
-    <t>攻击能力6级</t>
-  </si>
-  <si>
-    <t>攻击能力7级</t>
-  </si>
-  <si>
-    <t>攻击能力8级</t>
-  </si>
-  <si>
-    <t>攻击能力9级</t>
-  </si>
-  <si>
-    <t>攻击能力10级</t>
-  </si>
-  <si>
-    <t>攻击能力11级</t>
-  </si>
-  <si>
-    <t>攻击能力12级</t>
-  </si>
-  <si>
-    <t>防御能力0级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御能力1级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御能力2级</t>
-  </si>
-  <si>
-    <t>防御能力3级</t>
-  </si>
-  <si>
-    <t>防御能力4级</t>
-  </si>
-  <si>
-    <t>防御能力5级</t>
-  </si>
-  <si>
-    <t>防御能力6级</t>
-  </si>
-  <si>
-    <t>防御能力7级</t>
-  </si>
-  <si>
-    <t>防御能力8级</t>
-  </si>
-  <si>
-    <t>防御能力9级</t>
-  </si>
-  <si>
-    <t>防御能力10级</t>
-  </si>
-  <si>
-    <t>防御能力11级</t>
-  </si>
-  <si>
-    <t>防御能力12级</t>
-  </si>
-  <si>
     <t>等级</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -996,6 +672,519 @@
   <si>
     <t>1;100@1;100</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验能力0级</t>
+  </si>
+  <si>
+    <t>经验能力1级</t>
+  </si>
+  <si>
+    <t>经验能力2级</t>
+  </si>
+  <si>
+    <t>经验能力3级</t>
+  </si>
+  <si>
+    <t>经验能力4级</t>
+  </si>
+  <si>
+    <t>经验能力5级</t>
+  </si>
+  <si>
+    <t>经验能力6级</t>
+  </si>
+  <si>
+    <t>经验能力7级</t>
+  </si>
+  <si>
+    <t>经验能力8级</t>
+  </si>
+  <si>
+    <t>经验能力9级</t>
+  </si>
+  <si>
+    <t>经验能力10级</t>
+  </si>
+  <si>
+    <t>220103;0.01</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>220203;0.01</t>
+  </si>
+  <si>
+    <t>223003;0.01</t>
+  </si>
+  <si>
+    <t>223103;0.01</t>
+  </si>
+  <si>
+    <t>223203;0.01</t>
+  </si>
+  <si>
+    <t>223203;0.02</t>
+  </si>
+  <si>
+    <t>223203;0.03</t>
+  </si>
+  <si>
+    <t>223203;0.04</t>
+  </si>
+  <si>
+    <t>223203;0.05</t>
+  </si>
+  <si>
+    <t>223203;0.06</t>
+  </si>
+  <si>
+    <t>223203;0.07</t>
+  </si>
+  <si>
+    <t>223203;0.08</t>
+  </si>
+  <si>
+    <t>223203;0.09</t>
+  </si>
+  <si>
+    <t>223203;0.10</t>
+  </si>
+  <si>
+    <t>223303;0.01</t>
+  </si>
+  <si>
+    <t>223303;0.02</t>
+  </si>
+  <si>
+    <t>223303;0.03</t>
+  </si>
+  <si>
+    <t>223303;0.04</t>
+  </si>
+  <si>
+    <t>223303;0.05</t>
+  </si>
+  <si>
+    <t>223303;0.06</t>
+  </si>
+  <si>
+    <t>223303;0.07</t>
+  </si>
+  <si>
+    <t>223303;0.08</t>
+  </si>
+  <si>
+    <t>223303;0.09</t>
+  </si>
+  <si>
+    <t>223303;0.10</t>
+  </si>
+  <si>
+    <t>205703;0.01</t>
+  </si>
+  <si>
+    <t>205703;0.02</t>
+  </si>
+  <si>
+    <t>205703;0.03</t>
+  </si>
+  <si>
+    <t>205703;0.04</t>
+  </si>
+  <si>
+    <t>205703;0.05</t>
+  </si>
+  <si>
+    <t>205703;0.06</t>
+  </si>
+  <si>
+    <t>205703;0.07</t>
+  </si>
+  <si>
+    <t>205703;0.08</t>
+  </si>
+  <si>
+    <t>205703;0.09</t>
+  </si>
+  <si>
+    <t>205703;0.10</t>
+  </si>
+  <si>
+    <t>205803;0.01</t>
+  </si>
+  <si>
+    <t>205803;0.02</t>
+  </si>
+  <si>
+    <t>205803;0.03</t>
+  </si>
+  <si>
+    <t>205803;0.04</t>
+  </si>
+  <si>
+    <t>205803;0.05</t>
+  </si>
+  <si>
+    <t>205803;0.06</t>
+  </si>
+  <si>
+    <t>205803;0.07</t>
+  </si>
+  <si>
+    <t>205803;0.08</t>
+  </si>
+  <si>
+    <t>205803;0.09</t>
+  </si>
+  <si>
+    <t>205803;0.10</t>
+  </si>
+  <si>
+    <t>220103;0.02</t>
+  </si>
+  <si>
+    <t>220103;0.03</t>
+  </si>
+  <si>
+    <t>220103;0.04</t>
+  </si>
+  <si>
+    <t>220103;0.05</t>
+  </si>
+  <si>
+    <t>220103;0.06</t>
+  </si>
+  <si>
+    <t>220103;0.07</t>
+  </si>
+  <si>
+    <t>220103;0.08</t>
+  </si>
+  <si>
+    <t>220103;0.09</t>
+  </si>
+  <si>
+    <t>220103;0.10</t>
+  </si>
+  <si>
+    <t>220203;0.02</t>
+  </si>
+  <si>
+    <t>220203;0.03</t>
+  </si>
+  <si>
+    <t>220203;0.04</t>
+  </si>
+  <si>
+    <t>220203;0.05</t>
+  </si>
+  <si>
+    <t>220203;0.06</t>
+  </si>
+  <si>
+    <t>220203;0.07</t>
+  </si>
+  <si>
+    <t>220203;0.08</t>
+  </si>
+  <si>
+    <t>220203;0.09</t>
+  </si>
+  <si>
+    <t>220203;0.10</t>
+  </si>
+  <si>
+    <t>223003;0.02</t>
+  </si>
+  <si>
+    <t>223003;0.03</t>
+  </si>
+  <si>
+    <t>223003;0.04</t>
+  </si>
+  <si>
+    <t>223003;0.05</t>
+  </si>
+  <si>
+    <t>223003;0.06</t>
+  </si>
+  <si>
+    <t>223003;0.07</t>
+  </si>
+  <si>
+    <t>223003;0.08</t>
+  </si>
+  <si>
+    <t>223003;0.09</t>
+  </si>
+  <si>
+    <t>223003;0.10</t>
+  </si>
+  <si>
+    <t>223103;0.02</t>
+  </si>
+  <si>
+    <t>223103;0.03</t>
+  </si>
+  <si>
+    <t>223103;0.04</t>
+  </si>
+  <si>
+    <t>223103;0.05</t>
+  </si>
+  <si>
+    <t>223103;0.06</t>
+  </si>
+  <si>
+    <t>223103;0.07</t>
+  </si>
+  <si>
+    <t>223103;0.08</t>
+  </si>
+  <si>
+    <t>223103;0.09</t>
+  </si>
+  <si>
+    <t>223103;0.10</t>
+  </si>
+  <si>
+    <t>金币科技0级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币科技1级</t>
+  </si>
+  <si>
+    <t>金币科技2级</t>
+  </si>
+  <si>
+    <t>金币科技3级</t>
+  </si>
+  <si>
+    <t>金币科技4级</t>
+  </si>
+  <si>
+    <t>金币科技5级</t>
+  </si>
+  <si>
+    <t>金币科技6级</t>
+  </si>
+  <si>
+    <t>金币科技7级</t>
+  </si>
+  <si>
+    <t>金币科技8级</t>
+  </si>
+  <si>
+    <t>金币科技9级</t>
+  </si>
+  <si>
+    <t>金币科技10级</t>
+  </si>
+  <si>
+    <t>怪攻增伤科技1级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪攻增伤科技2级</t>
+  </si>
+  <si>
+    <t>怪攻增伤科技3级</t>
+  </si>
+  <si>
+    <t>怪攻增伤科技4级</t>
+  </si>
+  <si>
+    <t>怪攻增伤科技5级</t>
+  </si>
+  <si>
+    <t>怪攻增伤科技6级</t>
+  </si>
+  <si>
+    <t>怪攻增伤科技7级</t>
+  </si>
+  <si>
+    <t>怪攻增伤科技8级</t>
+  </si>
+  <si>
+    <t>怪攻增伤科技9级</t>
+  </si>
+  <si>
+    <t>怪攻增伤科技10级</t>
+  </si>
+  <si>
+    <t>怪技增伤科技0级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪技增伤科技1级</t>
+  </si>
+  <si>
+    <t>怪技增伤科技2级</t>
+  </si>
+  <si>
+    <t>怪技增伤科技3级</t>
+  </si>
+  <si>
+    <t>怪技增伤科技4级</t>
+  </si>
+  <si>
+    <t>怪技增伤科技5级</t>
+  </si>
+  <si>
+    <t>怪技增伤科技6级</t>
+  </si>
+  <si>
+    <t>怪技增伤科技7级</t>
+  </si>
+  <si>
+    <t>怪技增伤科技8级</t>
+  </si>
+  <si>
+    <t>怪技增伤科技9级</t>
+  </si>
+  <si>
+    <t>怪技增伤科技10级</t>
+  </si>
+  <si>
+    <t>怪攻增伤科技0级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪攻减伤科技0级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪攻减伤科技1级</t>
+  </si>
+  <si>
+    <t>怪攻减伤科技2级</t>
+  </si>
+  <si>
+    <t>怪攻减伤科技3级</t>
+  </si>
+  <si>
+    <t>怪攻减伤科技4级</t>
+  </si>
+  <si>
+    <t>怪攻减伤科技5级</t>
+  </si>
+  <si>
+    <t>怪攻减伤科技6级</t>
+  </si>
+  <si>
+    <t>怪攻减伤科技7级</t>
+  </si>
+  <si>
+    <t>怪攻减伤科技8级</t>
+  </si>
+  <si>
+    <t>怪攻减伤科技9级</t>
+  </si>
+  <si>
+    <t>怪攻减伤科技10级</t>
+  </si>
+  <si>
+    <t>怪技减伤科技0级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪技减伤科技1级</t>
+  </si>
+  <si>
+    <t>怪技减伤科技2级</t>
+  </si>
+  <si>
+    <t>怪技减伤科技3级</t>
+  </si>
+  <si>
+    <t>怪技减伤科技4级</t>
+  </si>
+  <si>
+    <t>怪技减伤科技5级</t>
+  </si>
+  <si>
+    <t>怪技减伤科技6级</t>
+  </si>
+  <si>
+    <t>怪技减伤科技7级</t>
+  </si>
+  <si>
+    <t>怪技减伤科技8级</t>
+  </si>
+  <si>
+    <t>怪技减伤科技9级</t>
+  </si>
+  <si>
+    <t>怪技减伤科技10级</t>
+  </si>
+  <si>
+    <t>玩家普攻减伤能力0级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家普攻减伤能力1级</t>
+  </si>
+  <si>
+    <t>玩家普攻减伤能力2级</t>
+  </si>
+  <si>
+    <t>玩家普攻减伤能力3级</t>
+  </si>
+  <si>
+    <t>玩家普攻减伤能力4级</t>
+  </si>
+  <si>
+    <t>玩家普攻减伤能力5级</t>
+  </si>
+  <si>
+    <t>玩家普攻减伤能力6级</t>
+  </si>
+  <si>
+    <t>玩家普攻减伤能力7级</t>
+  </si>
+  <si>
+    <t>玩家普攻减伤能力8级</t>
+  </si>
+  <si>
+    <t>玩家普攻减伤能力9级</t>
+  </si>
+  <si>
+    <t>玩家普攻减伤能力10级</t>
+  </si>
+  <si>
+    <t>玩家技能减伤能力0级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家技能减伤能力1级</t>
+  </si>
+  <si>
+    <t>玩家技能减伤能力2级</t>
+  </si>
+  <si>
+    <t>玩家技能减伤能力3级</t>
+  </si>
+  <si>
+    <t>玩家技能减伤能力4级</t>
+  </si>
+  <si>
+    <t>玩家技能减伤能力5级</t>
+  </si>
+  <si>
+    <t>玩家技能减伤能力6级</t>
+  </si>
+  <si>
+    <t>玩家技能减伤能力7级</t>
+  </si>
+  <si>
+    <t>玩家技能减伤能力8级</t>
+  </si>
+  <si>
+    <t>玩家技能减伤能力9级</t>
+  </si>
+  <si>
+    <t>玩家技能减伤能力10级</t>
   </si>
 </sst>
 </file>
@@ -2365,16 +2554,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:IB57"/>
+  <dimension ref="C1:IB93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="8.5" style="3" customWidth="1"/>
-    <col min="4" max="7" width="14.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.125" style="3" customWidth="1"/>
     <col min="8" max="8" width="19.75" style="3" customWidth="1"/>
     <col min="9" max="10" width="16.5" style="3" customWidth="1"/>
     <col min="11" max="11" width="24.875" style="3" customWidth="1"/>
@@ -2396,19 +2586,19 @@
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>3</v>
@@ -2428,16 +2618,16 @@
         <v>6</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>7</v>
@@ -2466,7 +2656,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>9</v>
@@ -2477,7 +2667,7 @@
         <v>10100</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="E6" s="8">
         <v>10101</v>
@@ -2489,13 +2679,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="10">
-        <v>120</v>
+        <v>86400</v>
       </c>
       <c r="I6" s="11">
         <v>100</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="K6" s="10"/>
     </row>
@@ -2504,7 +2694,7 @@
         <v>10101</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E7" s="8">
         <v>10102</v>
@@ -2516,16 +2706,16 @@
         <v>1</v>
       </c>
       <c r="H7" s="10">
-        <v>300</v>
+        <v>86400</v>
       </c>
       <c r="I7" s="11">
         <v>220.00000000000003</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="3:236" ht="20.100000000000001" customHeight="1">
@@ -2533,7 +2723,7 @@
         <v>10102</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="E8" s="8">
         <v>10103</v>
@@ -2545,16 +2735,16 @@
         <v>1</v>
       </c>
       <c r="H8" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I8" s="11">
         <v>375</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="IB8"/>
     </row>
@@ -2563,7 +2753,7 @@
         <v>10103</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E9" s="8">
         <v>10104</v>
@@ -2575,16 +2765,16 @@
         <v>2</v>
       </c>
       <c r="H9" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I9" s="11">
         <v>560</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="IB9"/>
     </row>
@@ -2593,7 +2783,7 @@
         <v>10104</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E10" s="8">
         <v>10105</v>
@@ -2605,16 +2795,16 @@
         <v>2</v>
       </c>
       <c r="H10" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I10" s="11">
         <v>775</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="IB10"/>
     </row>
@@ -2623,7 +2813,7 @@
         <v>10105</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="E11" s="8">
         <v>10106</v>
@@ -2635,16 +2825,16 @@
         <v>2</v>
       </c>
       <c r="H11" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I11" s="11">
         <v>1020</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="3:236" ht="20.100000000000001" customHeight="1">
@@ -2652,7 +2842,7 @@
         <v>10106</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="E12" s="8">
         <v>10107</v>
@@ -2664,16 +2854,16 @@
         <v>3</v>
       </c>
       <c r="H12" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I12" s="11">
         <v>1330</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="IB12"/>
     </row>
@@ -2682,7 +2872,7 @@
         <v>10107</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="E13" s="8">
         <v>10108</v>
@@ -2694,16 +2884,16 @@
         <v>3</v>
       </c>
       <c r="H13" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I13" s="11">
         <v>1680</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="IB13"/>
     </row>
@@ -2712,7 +2902,7 @@
         <v>10108</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="E14" s="8">
         <v>10109</v>
@@ -2724,16 +2914,16 @@
         <v>3</v>
       </c>
       <c r="H14" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I14" s="11">
         <v>2070</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="IB14"/>
     </row>
@@ -2742,7 +2932,7 @@
         <v>10109</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="E15" s="8">
         <v>10110</v>
@@ -2754,16 +2944,16 @@
         <v>3</v>
       </c>
       <c r="H15" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I15" s="11">
         <v>2500</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="IB15"/>
     </row>
@@ -2772,10 +2962,10 @@
         <v>10110</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="E16" s="8">
-        <v>10111</v>
+        <v>0</v>
       </c>
       <c r="F16" s="10">
         <v>10</v>
@@ -2784,1223 +2974,2287 @@
         <v>3</v>
       </c>
       <c r="H16" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="IB16"/>
     </row>
-    <row r="17" spans="3:236" ht="19.5" customHeight="1">
+    <row r="17" spans="3:236" ht="22.5" customHeight="1">
       <c r="C17" s="8">
-        <v>10111</v>
+        <v>10200</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="E17" s="8">
-        <v>10112</v>
+        <v>10201</v>
       </c>
       <c r="F17" s="10">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G17" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" s="10">
-        <v>28800</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>55</v>
+        <v>86400</v>
+      </c>
+      <c r="I17" s="11">
+        <v>100</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="IB17"/>
-    </row>
-    <row r="18" spans="3:236" ht="19.5" customHeight="1">
+        <v>24</v>
+      </c>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C18" s="8">
-        <v>10112</v>
+        <v>10201</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="E18" s="8">
-        <v>0</v>
+        <v>10202</v>
       </c>
       <c r="F18" s="10">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G18" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18" s="10">
-        <v>0</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" s="11"/>
+        <v>86400</v>
+      </c>
+      <c r="I18" s="11">
+        <v>220.00000000000003</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="K18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="IB18"/>
-    </row>
-    <row r="19" spans="3:236" ht="22.5" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C19" s="8">
-        <v>10200</v>
+        <v>10202</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="E19" s="8">
-        <v>10201</v>
+        <v>10203</v>
       </c>
       <c r="F19" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="10">
         <v>1</v>
       </c>
       <c r="H19" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I19" s="11">
+        <v>375</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="IB19"/>
+    </row>
+    <row r="20" spans="3:236" ht="19.5" customHeight="1">
+      <c r="C20" s="8">
+        <v>10203</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="8">
+        <v>10204</v>
+      </c>
+      <c r="F20" s="10">
+        <v>3</v>
+      </c>
+      <c r="G20" s="10">
+        <v>2</v>
+      </c>
+      <c r="H20" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I20" s="11">
+        <v>560</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="IB20"/>
+    </row>
+    <row r="21" spans="3:236" ht="19.5" customHeight="1">
+      <c r="C21" s="8">
+        <v>10204</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="I19" s="11">
-        <v>100</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="3:236" ht="20.100000000000001" customHeight="1">
-      <c r="C20" s="8">
-        <v>10201</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="8">
-        <v>10202</v>
-      </c>
-      <c r="F20" s="10">
-        <v>1</v>
-      </c>
-      <c r="G20" s="10">
-        <v>1</v>
-      </c>
-      <c r="H20" s="10">
-        <v>300</v>
-      </c>
-      <c r="I20" s="11">
-        <v>220.00000000000003</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="3:236" ht="20.100000000000001" customHeight="1">
-      <c r="C21" s="8">
-        <v>10202</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="E21" s="8">
-        <v>10203</v>
+        <v>10205</v>
       </c>
       <c r="F21" s="10">
+        <v>4</v>
+      </c>
+      <c r="G21" s="10">
         <v>2</v>
       </c>
-      <c r="G21" s="10">
-        <v>1</v>
-      </c>
       <c r="H21" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I21" s="11">
-        <v>375</v>
+        <v>775</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="IB21"/>
     </row>
-    <row r="22" spans="3:236" ht="19.5" customHeight="1">
+    <row r="22" spans="3:236" ht="22.5" customHeight="1">
       <c r="C22" s="8">
-        <v>10203</v>
+        <v>10205</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="E22" s="8">
-        <v>10204</v>
+        <v>10206</v>
       </c>
       <c r="F22" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G22" s="10">
         <v>2</v>
       </c>
       <c r="H22" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I22" s="11">
-        <v>560</v>
+        <v>1020</v>
       </c>
       <c r="J22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="3:236" ht="20.100000000000001" customHeight="1">
+      <c r="C23" s="8">
+        <v>10206</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="8">
+        <v>10207</v>
+      </c>
+      <c r="F23" s="10">
+        <v>6</v>
+      </c>
+      <c r="G23" s="10">
+        <v>3</v>
+      </c>
+      <c r="H23" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I23" s="11">
+        <v>1330</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="3:236" ht="20.100000000000001" customHeight="1">
+      <c r="C24" s="8">
+        <v>10207</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="8">
+        <v>10208</v>
+      </c>
+      <c r="F24" s="10">
+        <v>7</v>
+      </c>
+      <c r="G24" s="10">
+        <v>3</v>
+      </c>
+      <c r="H24" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I24" s="11">
+        <v>1680</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="IB24"/>
+    </row>
+    <row r="25" spans="3:236" ht="19.5" customHeight="1">
+      <c r="C25" s="8">
+        <v>10208</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="K22" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="IB22"/>
-    </row>
-    <row r="23" spans="3:236" ht="19.5" customHeight="1">
-      <c r="C23" s="8">
-        <v>10204</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="8">
-        <v>10205</v>
-      </c>
-      <c r="F23" s="10">
-        <v>4</v>
-      </c>
-      <c r="G23" s="10">
-        <v>2</v>
-      </c>
-      <c r="H23" s="10">
-        <v>28800</v>
-      </c>
-      <c r="I23" s="11">
-        <v>775</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="IB23"/>
-    </row>
-    <row r="24" spans="3:236" ht="22.5" customHeight="1">
-      <c r="C24" s="8">
-        <v>10205</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="8">
-        <v>10206</v>
-      </c>
-      <c r="F24" s="10">
-        <v>5</v>
-      </c>
-      <c r="G24" s="10">
-        <v>2</v>
-      </c>
-      <c r="H24" s="10">
-        <v>28800</v>
-      </c>
-      <c r="I24" s="11">
-        <v>1020</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="3:236" ht="20.100000000000001" customHeight="1">
-      <c r="C25" s="8">
-        <v>10206</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>81</v>
-      </c>
       <c r="E25" s="8">
-        <v>10207</v>
+        <v>10209</v>
       </c>
       <c r="F25" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G25" s="10">
         <v>3</v>
       </c>
       <c r="H25" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I25" s="11">
-        <v>1330</v>
+        <v>2070</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="3:236" ht="20.100000000000001" customHeight="1">
+        <v>95</v>
+      </c>
+      <c r="IB25"/>
+    </row>
+    <row r="26" spans="3:236" ht="19.5" customHeight="1">
       <c r="C26" s="8">
-        <v>10207</v>
+        <v>10209</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="E26" s="8">
-        <v>10208</v>
+        <v>10210</v>
       </c>
       <c r="F26" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G26" s="10">
         <v>3</v>
       </c>
       <c r="H26" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I26" s="11">
-        <v>1680</v>
+        <v>2500</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="IB26"/>
     </row>
     <row r="27" spans="3:236" ht="19.5" customHeight="1">
       <c r="C27" s="8">
-        <v>10208</v>
+        <v>10210</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="E27" s="8">
-        <v>10209</v>
+        <v>0</v>
       </c>
       <c r="F27" s="10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G27" s="10">
         <v>3</v>
       </c>
       <c r="H27" s="10">
-        <v>28800</v>
-      </c>
-      <c r="I27" s="11">
-        <v>2070</v>
+        <v>86400</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="IB27"/>
     </row>
-    <row r="28" spans="3:236" ht="19.5" customHeight="1">
+    <row r="28" spans="3:236" ht="22.5" customHeight="1">
       <c r="C28" s="8">
-        <v>10209</v>
+        <v>10300</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="E28" s="8">
-        <v>10210</v>
+        <v>10301</v>
       </c>
       <c r="F28" s="10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G28" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H28" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I28" s="11">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="IB28"/>
-    </row>
-    <row r="29" spans="3:236" ht="19.5" customHeight="1">
+        <v>24</v>
+      </c>
+      <c r="K28" s="10"/>
+    </row>
+    <row r="29" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C29" s="8">
-        <v>10210</v>
+        <v>10301</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="E29" s="8">
-        <v>10211</v>
+        <v>10302</v>
       </c>
       <c r="F29" s="10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G29" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29" s="10">
-        <v>28800</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>54</v>
+        <v>86400</v>
+      </c>
+      <c r="I29" s="11">
+        <v>220.00000000000003</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="IB29"/>
-    </row>
-    <row r="30" spans="3:236" ht="19.5" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C30" s="8">
-        <v>10211</v>
+        <v>10302</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="E30" s="8">
-        <v>10212</v>
+        <v>10303</v>
       </c>
       <c r="F30" s="10">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G30" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30" s="10">
-        <v>28800</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>55</v>
+        <v>86400</v>
+      </c>
+      <c r="I30" s="11">
+        <v>375</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="IB30"/>
     </row>
     <row r="31" spans="3:236" ht="19.5" customHeight="1">
       <c r="C31" s="8">
-        <v>10212</v>
+        <v>10303</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="E31" s="8">
-        <v>0</v>
+        <v>10304</v>
       </c>
       <c r="F31" s="10">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G31" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31" s="10">
-        <v>0</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J31" s="11"/>
+        <v>86400</v>
+      </c>
+      <c r="I31" s="11">
+        <v>560</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="K31" s="10" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="IB31"/>
     </row>
-    <row r="32" spans="3:236" ht="22.5" customHeight="1">
+    <row r="32" spans="3:236" ht="19.5" customHeight="1">
       <c r="C32" s="8">
-        <v>10300</v>
+        <v>10304</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="E32" s="8">
-        <v>10301</v>
+        <v>10305</v>
       </c>
       <c r="F32" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G32" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I32" s="11">
+        <v>775</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="J32" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="K32" s="10"/>
+      <c r="IB32"/>
     </row>
     <row r="33" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C33" s="8">
-        <v>10301</v>
+        <v>10305</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="E33" s="8">
-        <v>10302</v>
+        <v>10306</v>
       </c>
       <c r="F33" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G33" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I33" s="11">
-        <v>220.00000000000003</v>
+        <v>1020</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C34" s="8">
-        <v>10302</v>
+        <v>10306</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="E34" s="8">
-        <v>10303</v>
+        <v>10307</v>
       </c>
       <c r="F34" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G34" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H34" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I34" s="11">
-        <v>375</v>
+        <v>1330</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="IB34"/>
     </row>
     <row r="35" spans="3:236" ht="19.5" customHeight="1">
       <c r="C35" s="8">
-        <v>10303</v>
+        <v>10307</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="E35" s="8">
-        <v>10304</v>
+        <v>10308</v>
       </c>
       <c r="F35" s="10">
+        <v>7</v>
+      </c>
+      <c r="G35" s="10">
         <v>3</v>
       </c>
-      <c r="G35" s="10">
-        <v>2</v>
-      </c>
       <c r="H35" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I35" s="11">
-        <v>560</v>
+        <v>1680</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="IB35"/>
     </row>
     <row r="36" spans="3:236" ht="19.5" customHeight="1">
       <c r="C36" s="8">
-        <v>10304</v>
+        <v>10308</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="E36" s="8">
-        <v>10305</v>
+        <v>10309</v>
       </c>
       <c r="F36" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G36" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I36" s="11">
-        <v>775</v>
+        <v>2070</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="IB36"/>
     </row>
-    <row r="37" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="3:236" ht="19.5" customHeight="1">
       <c r="C37" s="8">
-        <v>10305</v>
+        <v>10309</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="E37" s="8">
-        <v>10306</v>
+        <v>10310</v>
       </c>
       <c r="F37" s="10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G37" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I37" s="11">
-        <v>1020</v>
+        <v>2500</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="3:236" ht="20.100000000000001" customHeight="1">
+        <v>105</v>
+      </c>
+      <c r="IB37"/>
+    </row>
+    <row r="38" spans="3:236" ht="19.5" customHeight="1">
       <c r="C38" s="8">
-        <v>10306</v>
+        <v>10310</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="E38" s="8">
-        <v>10307</v>
+        <v>0</v>
       </c>
       <c r="F38" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G38" s="10">
         <v>3</v>
       </c>
       <c r="H38" s="10">
-        <v>28800</v>
-      </c>
-      <c r="I38" s="11">
-        <v>1330</v>
+        <v>86400</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="IB38"/>
     </row>
-    <row r="39" spans="3:236" ht="19.5" customHeight="1">
+    <row r="39" spans="3:236" ht="22.5" customHeight="1">
       <c r="C39" s="8">
-        <v>10307</v>
+        <v>10400</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="E39" s="8">
-        <v>10308</v>
+        <v>10401</v>
       </c>
       <c r="F39" s="10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G39" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H39" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I39" s="11">
-        <v>1680</v>
+        <v>100</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="IB39"/>
-    </row>
-    <row r="40" spans="3:236" ht="19.5" customHeight="1">
+        <v>24</v>
+      </c>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C40" s="8">
-        <v>10308</v>
+        <v>10401</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="E40" s="8">
-        <v>10309</v>
+        <v>10402</v>
       </c>
       <c r="F40" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G40" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H40" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I40" s="11">
-        <v>2070</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="IB40"/>
-    </row>
-    <row r="41" spans="3:236" ht="19.5" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C41" s="8">
-        <v>10309</v>
+        <v>10402</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="E41" s="8">
-        <v>10310</v>
+        <v>10403</v>
       </c>
       <c r="F41" s="10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G41" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H41" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I41" s="11">
-        <v>2500</v>
+        <v>375</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="IB41"/>
     </row>
     <row r="42" spans="3:236" ht="19.5" customHeight="1">
       <c r="C42" s="8">
-        <v>10310</v>
+        <v>10403</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="E42" s="8">
-        <v>10311</v>
+        <v>10404</v>
       </c>
       <c r="F42" s="10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G42" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H42" s="10">
-        <v>28800</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>54</v>
+        <v>86400</v>
+      </c>
+      <c r="I42" s="11">
+        <v>560</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="IB42"/>
     </row>
     <row r="43" spans="3:236" ht="19.5" customHeight="1">
       <c r="C43" s="8">
-        <v>10311</v>
+        <v>10404</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="E43" s="8">
-        <v>10312</v>
+        <v>10405</v>
       </c>
       <c r="F43" s="10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G43" s="10">
+        <v>2</v>
+      </c>
+      <c r="H43" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I43" s="11">
+        <v>775</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="IB43"/>
+    </row>
+    <row r="44" spans="3:236" ht="22.5" customHeight="1">
+      <c r="C44" s="8">
+        <v>10405</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44" s="8">
+        <v>10406</v>
+      </c>
+      <c r="F44" s="10">
+        <v>5</v>
+      </c>
+      <c r="G44" s="10">
+        <v>2</v>
+      </c>
+      <c r="H44" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I44" s="11">
+        <v>1020</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="3:236" ht="20.100000000000001" customHeight="1">
+      <c r="C45" s="8">
+        <v>10406</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="8">
+        <v>10407</v>
+      </c>
+      <c r="F45" s="10">
+        <v>6</v>
+      </c>
+      <c r="G45" s="10">
         <v>3</v>
       </c>
-      <c r="H43" s="10">
-        <v>28800</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J43" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="K43" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="IB43"/>
-    </row>
-    <row r="44" spans="3:236" ht="19.5" customHeight="1">
-      <c r="C44" s="8">
-        <v>10312</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E44" s="8">
-        <v>0</v>
-      </c>
-      <c r="F44" s="10">
-        <v>12</v>
-      </c>
-      <c r="G44" s="10">
-        <v>3</v>
-      </c>
-      <c r="H44" s="10">
-        <v>0</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J44" s="11"/>
-      <c r="K44" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="IB44"/>
-    </row>
-    <row r="45" spans="3:236" ht="22.5" customHeight="1">
-      <c r="C45" s="8">
-        <v>10400</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" s="8">
-        <v>10401</v>
-      </c>
-      <c r="F45" s="10">
-        <v>0</v>
-      </c>
-      <c r="G45" s="10">
-        <v>1</v>
-      </c>
       <c r="H45" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I45" s="11">
-        <v>100</v>
+        <v>1330</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="K45" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="46" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C46" s="8">
-        <v>10401</v>
+        <v>10407</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="E46" s="8">
-        <v>10402</v>
+        <v>10408</v>
       </c>
       <c r="F46" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G46" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H46" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I46" s="11">
-        <v>220.00000000000003</v>
+        <v>1680</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="3:236" ht="20.100000000000001" customHeight="1">
+        <v>112</v>
+      </c>
+      <c r="IB46"/>
+    </row>
+    <row r="47" spans="3:236" ht="19.5" customHeight="1">
       <c r="C47" s="8">
-        <v>10402</v>
+        <v>10408</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="E47" s="8">
-        <v>10403</v>
+        <v>10409</v>
       </c>
       <c r="F47" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G47" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H47" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I47" s="11">
-        <v>375</v>
+        <v>2070</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="IB47"/>
     </row>
     <row r="48" spans="3:236" ht="19.5" customHeight="1">
       <c r="C48" s="8">
-        <v>10403</v>
+        <v>10409</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="E48" s="8">
-        <v>10404</v>
+        <v>10410</v>
       </c>
       <c r="F48" s="10">
+        <v>9</v>
+      </c>
+      <c r="G48" s="10">
         <v>3</v>
       </c>
-      <c r="G48" s="10">
-        <v>2</v>
-      </c>
       <c r="H48" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I48" s="11">
-        <v>560</v>
+        <v>2500</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="IB48"/>
     </row>
     <row r="49" spans="3:236" ht="19.5" customHeight="1">
       <c r="C49" s="8">
-        <v>10404</v>
+        <v>10410</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="E49" s="8">
-        <v>10405</v>
+        <v>0</v>
       </c>
       <c r="F49" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G49" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H49" s="10">
-        <v>28800</v>
-      </c>
-      <c r="I49" s="11">
-        <v>775</v>
+        <v>86400</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="IB49"/>
     </row>
     <row r="50" spans="3:236" ht="22.5" customHeight="1">
       <c r="C50" s="8">
-        <v>10405</v>
+        <v>10500</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="E50" s="8">
-        <v>10406</v>
+        <v>10501</v>
       </c>
       <c r="F50" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G50" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I50" s="11">
-        <v>1020</v>
+        <v>100</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="K50" s="10" t="s">
-        <v>45</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="K50" s="10"/>
     </row>
     <row r="51" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C51" s="8">
-        <v>10406</v>
+        <v>10501</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="E51" s="8">
-        <v>10407</v>
+        <v>10502</v>
       </c>
       <c r="F51" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G51" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H51" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I51" s="11">
-        <v>1330</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C52" s="8">
-        <v>10407</v>
+        <v>10502</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="E52" s="8">
-        <v>10408</v>
+        <v>10503</v>
       </c>
       <c r="F52" s="10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G52" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H52" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I52" s="11">
-        <v>1680</v>
+        <v>375</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="IB52"/>
     </row>
     <row r="53" spans="3:236" ht="19.5" customHeight="1">
       <c r="C53" s="8">
-        <v>10408</v>
+        <v>10503</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="E53" s="8">
-        <v>10409</v>
+        <v>10504</v>
       </c>
       <c r="F53" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G53" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H53" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I53" s="11">
-        <v>2070</v>
+        <v>560</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="IB53"/>
     </row>
     <row r="54" spans="3:236" ht="19.5" customHeight="1">
       <c r="C54" s="8">
-        <v>10409</v>
+        <v>10504</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="E54" s="8">
-        <v>10410</v>
+        <v>10505</v>
       </c>
       <c r="F54" s="10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G54" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H54" s="10">
-        <v>28800</v>
+        <v>86400</v>
       </c>
       <c r="I54" s="11">
-        <v>2500</v>
+        <v>775</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="IB54"/>
     </row>
-    <row r="55" spans="3:236" ht="19.5" customHeight="1">
+    <row r="55" spans="3:236" ht="22.5" customHeight="1">
       <c r="C55" s="8">
-        <v>10410</v>
+        <v>10505</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="E55" s="8">
-        <v>10411</v>
+        <v>10506</v>
       </c>
       <c r="F55" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G55" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H55" s="10">
-        <v>28800</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>54</v>
+        <v>86400</v>
+      </c>
+      <c r="I55" s="11">
+        <v>1020</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="IB55"/>
-    </row>
-    <row r="56" spans="3:236" ht="19.5" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C56" s="8">
-        <v>10411</v>
+        <v>10506</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="E56" s="8">
-        <v>10412</v>
+        <v>10507</v>
       </c>
       <c r="F56" s="10">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G56" s="10">
         <v>3</v>
       </c>
       <c r="H56" s="10">
-        <v>28800</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>55</v>
+        <v>86400</v>
+      </c>
+      <c r="I56" s="11">
+        <v>1330</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="IB56"/>
-    </row>
-    <row r="57" spans="3:236" ht="19.5" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C57" s="8">
-        <v>10412</v>
+        <v>10507</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="E57" s="8">
-        <v>0</v>
+        <v>10508</v>
       </c>
       <c r="F57" s="10">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G57" s="10">
         <v>3</v>
       </c>
       <c r="H57" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I57" s="11">
+        <v>1680</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="IB57"/>
+    </row>
+    <row r="58" spans="3:236" ht="19.5" customHeight="1">
+      <c r="C58" s="8">
+        <v>10508</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E58" s="8">
+        <v>10509</v>
+      </c>
+      <c r="F58" s="10">
+        <v>8</v>
+      </c>
+      <c r="G58" s="10">
+        <v>3</v>
+      </c>
+      <c r="H58" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I58" s="11">
+        <v>2070</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="IB58"/>
+    </row>
+    <row r="59" spans="3:236" ht="19.5" customHeight="1">
+      <c r="C59" s="8">
+        <v>10509</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59" s="8">
+        <v>10510</v>
+      </c>
+      <c r="F59" s="10">
+        <v>9</v>
+      </c>
+      <c r="G59" s="10">
+        <v>3</v>
+      </c>
+      <c r="H59" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I59" s="11">
+        <v>2500</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="IB59"/>
+    </row>
+    <row r="60" spans="3:236" ht="19.5" customHeight="1">
+      <c r="C60" s="8">
+        <v>10510</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E60" s="8">
         <v>0</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="F60" s="10">
+        <v>10</v>
+      </c>
+      <c r="G60" s="10">
+        <v>3</v>
+      </c>
+      <c r="H60" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="IB60"/>
+    </row>
+    <row r="61" spans="3:236" ht="22.5" customHeight="1">
+      <c r="C61" s="8">
+        <v>10600</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E61" s="8">
+        <v>10601</v>
+      </c>
+      <c r="F61" s="10">
+        <v>0</v>
+      </c>
+      <c r="G61" s="10">
+        <v>1</v>
+      </c>
+      <c r="H61" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I61" s="11">
+        <v>100</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K61" s="10"/>
+    </row>
+    <row r="62" spans="3:236" ht="20.100000000000001" customHeight="1">
+      <c r="C62" s="8">
+        <v>10601</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62" s="8">
+        <v>10602</v>
+      </c>
+      <c r="F62" s="10">
+        <v>1</v>
+      </c>
+      <c r="G62" s="10">
+        <v>1</v>
+      </c>
+      <c r="H62" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I62" s="11">
+        <v>220.00000000000003</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="3:236" ht="20.100000000000001" customHeight="1">
+      <c r="C63" s="8">
+        <v>10602</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E63" s="8">
+        <v>10603</v>
+      </c>
+      <c r="F63" s="10">
+        <v>2</v>
+      </c>
+      <c r="G63" s="10">
+        <v>1</v>
+      </c>
+      <c r="H63" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I63" s="11">
+        <v>375</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K63" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="J57" s="11"/>
-      <c r="K57" s="10" t="s">
+      <c r="IB63"/>
+    </row>
+    <row r="64" spans="3:236" ht="19.5" customHeight="1">
+      <c r="C64" s="8">
+        <v>10603</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E64" s="8">
+        <v>10604</v>
+      </c>
+      <c r="F64" s="10">
+        <v>3</v>
+      </c>
+      <c r="G64" s="10">
+        <v>2</v>
+      </c>
+      <c r="H64" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I64" s="11">
+        <v>560</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="IB64"/>
+    </row>
+    <row r="65" spans="3:236" ht="19.5" customHeight="1">
+      <c r="C65" s="8">
+        <v>10604</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E65" s="8">
+        <v>10605</v>
+      </c>
+      <c r="F65" s="10">
+        <v>4</v>
+      </c>
+      <c r="G65" s="10">
+        <v>2</v>
+      </c>
+      <c r="H65" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I65" s="11">
+        <v>775</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="IB65"/>
+    </row>
+    <row r="66" spans="3:236" ht="22.5" customHeight="1">
+      <c r="C66" s="8">
+        <v>10605</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E66" s="8">
+        <v>10606</v>
+      </c>
+      <c r="F66" s="10">
+        <v>5</v>
+      </c>
+      <c r="G66" s="10">
+        <v>2</v>
+      </c>
+      <c r="H66" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I66" s="11">
+        <v>1020</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="3:236" ht="20.100000000000001" customHeight="1">
+      <c r="C67" s="8">
+        <v>10606</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E67" s="8">
+        <v>10607</v>
+      </c>
+      <c r="F67" s="10">
+        <v>6</v>
+      </c>
+      <c r="G67" s="10">
+        <v>3</v>
+      </c>
+      <c r="H67" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I67" s="11">
+        <v>1330</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="3:236" ht="20.100000000000001" customHeight="1">
+      <c r="C68" s="8">
+        <v>10607</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E68" s="8">
+        <v>10608</v>
+      </c>
+      <c r="F68" s="10">
+        <v>7</v>
+      </c>
+      <c r="G68" s="10">
+        <v>3</v>
+      </c>
+      <c r="H68" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I68" s="11">
+        <v>1680</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K68" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="IB68"/>
+    </row>
+    <row r="69" spans="3:236" ht="19.5" customHeight="1">
+      <c r="C69" s="8">
+        <v>10608</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E69" s="8">
+        <v>10609</v>
+      </c>
+      <c r="F69" s="10">
+        <v>8</v>
+      </c>
+      <c r="G69" s="10">
+        <v>3</v>
+      </c>
+      <c r="H69" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I69" s="11">
+        <v>2070</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K69" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="IB57"/>
+      <c r="IB69"/>
+    </row>
+    <row r="70" spans="3:236" ht="19.5" customHeight="1">
+      <c r="C70" s="8">
+        <v>10609</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E70" s="8">
+        <v>10610</v>
+      </c>
+      <c r="F70" s="10">
+        <v>9</v>
+      </c>
+      <c r="G70" s="10">
+        <v>3</v>
+      </c>
+      <c r="H70" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I70" s="11">
+        <v>2500</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="IB70"/>
+    </row>
+    <row r="71" spans="3:236" ht="19.5" customHeight="1">
+      <c r="C71" s="8">
+        <v>10610</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E71" s="8">
+        <v>0</v>
+      </c>
+      <c r="F71" s="10">
+        <v>10</v>
+      </c>
+      <c r="G71" s="10">
+        <v>3</v>
+      </c>
+      <c r="H71" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="IB71"/>
+    </row>
+    <row r="72" spans="3:236" ht="22.5" customHeight="1">
+      <c r="C72" s="8">
+        <v>10700</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E72" s="8">
+        <v>10701</v>
+      </c>
+      <c r="F72" s="10">
+        <v>0</v>
+      </c>
+      <c r="G72" s="10">
+        <v>1</v>
+      </c>
+      <c r="H72" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I72" s="11">
+        <v>100</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K72" s="10"/>
+    </row>
+    <row r="73" spans="3:236" ht="20.100000000000001" customHeight="1">
+      <c r="C73" s="8">
+        <v>10701</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E73" s="8">
+        <v>10702</v>
+      </c>
+      <c r="F73" s="10">
+        <v>1</v>
+      </c>
+      <c r="G73" s="10">
+        <v>1</v>
+      </c>
+      <c r="H73" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I73" s="11">
+        <v>220.00000000000003</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K73" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="3:236" ht="20.100000000000001" customHeight="1">
+      <c r="C74" s="8">
+        <v>10702</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E74" s="8">
+        <v>10703</v>
+      </c>
+      <c r="F74" s="10">
+        <v>2</v>
+      </c>
+      <c r="G74" s="10">
+        <v>1</v>
+      </c>
+      <c r="H74" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I74" s="11">
+        <v>375</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="IB74"/>
+    </row>
+    <row r="75" spans="3:236" ht="19.5" customHeight="1">
+      <c r="C75" s="8">
+        <v>10703</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E75" s="8">
+        <v>10704</v>
+      </c>
+      <c r="F75" s="10">
+        <v>3</v>
+      </c>
+      <c r="G75" s="10">
+        <v>2</v>
+      </c>
+      <c r="H75" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I75" s="11">
+        <v>560</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K75" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="IB75"/>
+    </row>
+    <row r="76" spans="3:236" ht="19.5" customHeight="1">
+      <c r="C76" s="8">
+        <v>10704</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E76" s="8">
+        <v>10705</v>
+      </c>
+      <c r="F76" s="10">
+        <v>4</v>
+      </c>
+      <c r="G76" s="10">
+        <v>2</v>
+      </c>
+      <c r="H76" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I76" s="11">
+        <v>775</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K76" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="IB76"/>
+    </row>
+    <row r="77" spans="3:236" ht="22.5" customHeight="1">
+      <c r="C77" s="8">
+        <v>10705</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E77" s="8">
+        <v>10706</v>
+      </c>
+      <c r="F77" s="10">
+        <v>5</v>
+      </c>
+      <c r="G77" s="10">
+        <v>2</v>
+      </c>
+      <c r="H77" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I77" s="11">
+        <v>1020</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K77" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="3:236" ht="20.100000000000001" customHeight="1">
+      <c r="C78" s="8">
+        <v>10706</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E78" s="8">
+        <v>10707</v>
+      </c>
+      <c r="F78" s="10">
+        <v>6</v>
+      </c>
+      <c r="G78" s="10">
+        <v>3</v>
+      </c>
+      <c r="H78" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I78" s="11">
+        <v>1330</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K78" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="3:236" ht="20.100000000000001" customHeight="1">
+      <c r="C79" s="8">
+        <v>10707</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E79" s="8">
+        <v>10708</v>
+      </c>
+      <c r="F79" s="10">
+        <v>7</v>
+      </c>
+      <c r="G79" s="10">
+        <v>3</v>
+      </c>
+      <c r="H79" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I79" s="11">
+        <v>1680</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K79" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="IB79"/>
+    </row>
+    <row r="80" spans="3:236" ht="19.5" customHeight="1">
+      <c r="C80" s="8">
+        <v>10708</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E80" s="8">
+        <v>10709</v>
+      </c>
+      <c r="F80" s="10">
+        <v>8</v>
+      </c>
+      <c r="G80" s="10">
+        <v>3</v>
+      </c>
+      <c r="H80" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I80" s="11">
+        <v>2070</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K80" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="IB80"/>
+    </row>
+    <row r="81" spans="3:236" ht="19.5" customHeight="1">
+      <c r="C81" s="8">
+        <v>10709</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E81" s="8">
+        <v>10710</v>
+      </c>
+      <c r="F81" s="10">
+        <v>9</v>
+      </c>
+      <c r="G81" s="10">
+        <v>3</v>
+      </c>
+      <c r="H81" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I81" s="11">
+        <v>2500</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K81" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="IB81"/>
+    </row>
+    <row r="82" spans="3:236" ht="19.5" customHeight="1">
+      <c r="C82" s="8">
+        <v>10710</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E82" s="8">
+        <v>0</v>
+      </c>
+      <c r="F82" s="10">
+        <v>10</v>
+      </c>
+      <c r="G82" s="10">
+        <v>3</v>
+      </c>
+      <c r="H82" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K82" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="IB82"/>
+    </row>
+    <row r="83" spans="3:236" ht="22.5" customHeight="1">
+      <c r="C83" s="8">
+        <v>10800</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E83" s="8">
+        <v>10801</v>
+      </c>
+      <c r="F83" s="10">
+        <v>0</v>
+      </c>
+      <c r="G83" s="10">
+        <v>1</v>
+      </c>
+      <c r="H83" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I83" s="11">
+        <v>100</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K83" s="10"/>
+    </row>
+    <row r="84" spans="3:236" ht="20.100000000000001" customHeight="1">
+      <c r="C84" s="8">
+        <v>10801</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E84" s="8">
+        <v>10802</v>
+      </c>
+      <c r="F84" s="10">
+        <v>1</v>
+      </c>
+      <c r="G84" s="10">
+        <v>1</v>
+      </c>
+      <c r="H84" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I84" s="11">
+        <v>220.00000000000003</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K84" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="3:236" ht="20.100000000000001" customHeight="1">
+      <c r="C85" s="8">
+        <v>10802</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E85" s="8">
+        <v>10803</v>
+      </c>
+      <c r="F85" s="10">
+        <v>2</v>
+      </c>
+      <c r="G85" s="10">
+        <v>1</v>
+      </c>
+      <c r="H85" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I85" s="11">
+        <v>375</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K85" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="IB85"/>
+    </row>
+    <row r="86" spans="3:236" ht="19.5" customHeight="1">
+      <c r="C86" s="8">
+        <v>10803</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E86" s="8">
+        <v>10804</v>
+      </c>
+      <c r="F86" s="10">
+        <v>3</v>
+      </c>
+      <c r="G86" s="10">
+        <v>2</v>
+      </c>
+      <c r="H86" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I86" s="11">
+        <v>560</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K86" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="IB86"/>
+    </row>
+    <row r="87" spans="3:236" ht="19.5" customHeight="1">
+      <c r="C87" s="8">
+        <v>10804</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E87" s="8">
+        <v>10805</v>
+      </c>
+      <c r="F87" s="10">
+        <v>4</v>
+      </c>
+      <c r="G87" s="10">
+        <v>2</v>
+      </c>
+      <c r="H87" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I87" s="11">
+        <v>775</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K87" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="IB87"/>
+    </row>
+    <row r="88" spans="3:236" ht="22.5" customHeight="1">
+      <c r="C88" s="8">
+        <v>10805</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E88" s="8">
+        <v>10806</v>
+      </c>
+      <c r="F88" s="10">
+        <v>5</v>
+      </c>
+      <c r="G88" s="10">
+        <v>2</v>
+      </c>
+      <c r="H88" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I88" s="11">
+        <v>1020</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K88" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" spans="3:236" ht="20.100000000000001" customHeight="1">
+      <c r="C89" s="8">
+        <v>10806</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E89" s="8">
+        <v>10807</v>
+      </c>
+      <c r="F89" s="10">
+        <v>6</v>
+      </c>
+      <c r="G89" s="10">
+        <v>3</v>
+      </c>
+      <c r="H89" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I89" s="11">
+        <v>1330</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K89" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="3:236" ht="20.100000000000001" customHeight="1">
+      <c r="C90" s="8">
+        <v>10807</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E90" s="8">
+        <v>10808</v>
+      </c>
+      <c r="F90" s="10">
+        <v>7</v>
+      </c>
+      <c r="G90" s="10">
+        <v>3</v>
+      </c>
+      <c r="H90" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I90" s="11">
+        <v>1680</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K90" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="IB90"/>
+    </row>
+    <row r="91" spans="3:236" ht="19.5" customHeight="1">
+      <c r="C91" s="8">
+        <v>10808</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E91" s="8">
+        <v>10809</v>
+      </c>
+      <c r="F91" s="10">
+        <v>8</v>
+      </c>
+      <c r="G91" s="10">
+        <v>3</v>
+      </c>
+      <c r="H91" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I91" s="11">
+        <v>2070</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K91" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="IB91"/>
+    </row>
+    <row r="92" spans="3:236" ht="19.5" customHeight="1">
+      <c r="C92" s="8">
+        <v>10809</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E92" s="8">
+        <v>10810</v>
+      </c>
+      <c r="F92" s="10">
+        <v>9</v>
+      </c>
+      <c r="G92" s="10">
+        <v>3</v>
+      </c>
+      <c r="H92" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I92" s="11">
+        <v>2500</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K92" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="IB92"/>
+    </row>
+    <row r="93" spans="3:236" ht="19.5" customHeight="1">
+      <c r="C93" s="8">
+        <v>10810</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E93" s="8">
+        <v>0</v>
+      </c>
+      <c r="F93" s="10">
+        <v>10</v>
+      </c>
+      <c r="G93" s="10">
+        <v>3</v>
+      </c>
+      <c r="H93" s="10">
+        <v>86400</v>
+      </c>
+      <c r="I93" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J93" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K93" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="IB93"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/Excel/UnionKeJiConfig.xlsx
+++ b/Excel/UnionKeJiConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933BDE21-9B20-4145-A038-AF5790C5ACE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDFFBD1-04F6-446B-9BA7-DB15567F16D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnionKeJiProto" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -583,7 +583,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="197">
   <si>
     <t>Id</t>
   </si>
@@ -1185,6 +1185,22 @@
   </si>
   <si>
     <t>玩家技能减伤能力10级</t>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Img_464</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Img_474</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2554,28 +2570,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:IB93"/>
+  <dimension ref="C1:IC93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="8.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.75" style="3" customWidth="1"/>
-    <col min="9" max="10" width="16.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="24.875" style="3" customWidth="1"/>
-    <col min="12" max="236" width="8.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="3" customWidth="1"/>
+    <col min="6" max="8" width="14.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="19.75" style="3" customWidth="1"/>
+    <col min="10" max="11" width="16.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="24.875" style="3" customWidth="1"/>
+    <col min="13" max="237" width="8.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:236" s="1" customFormat="1" ht="14.25"/>
-    <row r="2" spans="3:236" ht="13.5" customHeight="1">
+    <row r="1" spans="3:237" s="1" customFormat="1" ht="14.25"/>
+    <row r="2" spans="3:237" ht="13.5" customHeight="1">
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
@@ -2583,28 +2600,31 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
@@ -2612,28 +2632,31 @@
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
@@ -2641,7 +2664,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>8</v>
@@ -2653,2608 +2676,2875 @@
         <v>8</v>
       </c>
       <c r="I5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="8">
         <v>10100</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="8">
         <v>10101</v>
       </c>
-      <c r="F6" s="10">
+      <c r="G6" s="10">
         <v>0</v>
       </c>
-      <c r="G6" s="10">
+      <c r="H6" s="10">
         <v>1</v>
       </c>
-      <c r="H6" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J6" s="11">
         <v>100</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="K6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="3:236" ht="20.100000000000001" customHeight="1">
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="8">
         <v>10101</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="8">
         <v>10102</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1</v>
       </c>
       <c r="G7" s="10">
         <v>1</v>
       </c>
       <c r="H7" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I7" s="11">
+        <v>1</v>
+      </c>
+      <c r="I7" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J7" s="11">
         <v>220.00000000000003</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="L7" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="8">
         <v>10102</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="8">
         <v>10103</v>
       </c>
-      <c r="F8" s="10">
+      <c r="G8" s="10">
         <v>2</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H8" s="10">
         <v>1</v>
       </c>
-      <c r="H8" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J8" s="11">
         <v>375</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="K8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="L8" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="IB8"/>
-    </row>
-    <row r="9" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC8"/>
+    </row>
+    <row r="9" spans="3:237" ht="19.5" customHeight="1">
       <c r="C9" s="8">
         <v>10103</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="8">
         <v>10104</v>
       </c>
-      <c r="F9" s="10">
+      <c r="G9" s="10">
         <v>3</v>
       </c>
-      <c r="G9" s="10">
+      <c r="H9" s="10">
         <v>2</v>
       </c>
-      <c r="H9" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J9" s="11">
         <v>560</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="IB9"/>
-    </row>
-    <row r="10" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC9"/>
+    </row>
+    <row r="10" spans="3:237" ht="19.5" customHeight="1">
       <c r="C10" s="8">
         <v>10104</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="8">
         <v>10105</v>
       </c>
-      <c r="F10" s="10">
+      <c r="G10" s="10">
         <v>4</v>
       </c>
-      <c r="G10" s="10">
+      <c r="H10" s="10">
         <v>2</v>
       </c>
-      <c r="H10" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J10" s="11">
         <v>775</v>
       </c>
-      <c r="J10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="IB10"/>
-    </row>
-    <row r="11" spans="3:236" ht="20.100000000000001" customHeight="1">
+      <c r="IC10"/>
+    </row>
+    <row r="11" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="8">
         <v>10105</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="8">
         <v>10106</v>
       </c>
-      <c r="F11" s="10">
+      <c r="G11" s="10">
         <v>5</v>
       </c>
-      <c r="G11" s="10">
+      <c r="H11" s="10">
         <v>2</v>
       </c>
-      <c r="H11" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J11" s="11">
         <v>1020</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C12" s="8">
         <v>10106</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" s="8">
         <v>10107</v>
       </c>
-      <c r="F12" s="10">
+      <c r="G12" s="10">
         <v>6</v>
       </c>
-      <c r="G12" s="10">
+      <c r="H12" s="10">
         <v>3</v>
       </c>
-      <c r="H12" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J12" s="11">
         <v>1330</v>
       </c>
-      <c r="J12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="IB12"/>
-    </row>
-    <row r="13" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC12"/>
+    </row>
+    <row r="13" spans="3:237" ht="19.5" customHeight="1">
       <c r="C13" s="8">
         <v>10107</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" s="8">
         <v>10108</v>
       </c>
-      <c r="F13" s="10">
+      <c r="G13" s="10">
         <v>7</v>
       </c>
-      <c r="G13" s="10">
+      <c r="H13" s="10">
         <v>3</v>
       </c>
-      <c r="H13" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J13" s="11">
         <v>1680</v>
       </c>
-      <c r="J13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="IB13"/>
-    </row>
-    <row r="14" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC13"/>
+    </row>
+    <row r="14" spans="3:237" ht="19.5" customHeight="1">
       <c r="C14" s="8">
         <v>10108</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="8">
         <v>10109</v>
       </c>
-      <c r="F14" s="10">
+      <c r="G14" s="10">
         <v>8</v>
       </c>
-      <c r="G14" s="10">
+      <c r="H14" s="10">
         <v>3</v>
       </c>
-      <c r="H14" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I14" s="11">
+      <c r="I14" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J14" s="11">
         <v>2070</v>
       </c>
-      <c r="J14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="IB14"/>
-    </row>
-    <row r="15" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC14"/>
+    </row>
+    <row r="15" spans="3:237" ht="19.5" customHeight="1">
       <c r="C15" s="8">
         <v>10109</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" s="8">
         <v>10110</v>
       </c>
-      <c r="F15" s="10">
+      <c r="G15" s="10">
         <v>9</v>
       </c>
-      <c r="G15" s="10">
+      <c r="H15" s="10">
         <v>3</v>
       </c>
-      <c r="H15" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J15" s="11">
         <v>2500</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="IB15"/>
-    </row>
-    <row r="16" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC15"/>
+    </row>
+    <row r="16" spans="3:237" ht="19.5" customHeight="1">
       <c r="C16" s="8">
         <v>10110</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="8">
         <v>0</v>
       </c>
-      <c r="F16" s="10">
+      <c r="G16" s="10">
         <v>10</v>
       </c>
-      <c r="G16" s="10">
+      <c r="H16" s="10">
         <v>3</v>
       </c>
-      <c r="H16" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="IB16"/>
-    </row>
-    <row r="17" spans="3:236" ht="22.5" customHeight="1">
+      <c r="IC16"/>
+    </row>
+    <row r="17" spans="3:237" ht="22.5" customHeight="1">
       <c r="C17" s="8">
         <v>10200</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="8">
         <v>10201</v>
       </c>
-      <c r="F17" s="10">
+      <c r="G17" s="10">
         <v>0</v>
       </c>
-      <c r="G17" s="10">
+      <c r="H17" s="10">
         <v>1</v>
       </c>
-      <c r="H17" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I17" s="11">
+      <c r="I17" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J17" s="11">
         <v>100</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="K17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="3:236" ht="20.100000000000001" customHeight="1">
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C18" s="8">
         <v>10201</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" s="8">
         <v>10202</v>
-      </c>
-      <c r="F18" s="10">
-        <v>1</v>
       </c>
       <c r="G18" s="10">
         <v>1</v>
       </c>
       <c r="H18" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I18" s="11">
+        <v>1</v>
+      </c>
+      <c r="I18" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J18" s="11">
         <v>220.00000000000003</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="K18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="L18" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C19" s="8">
         <v>10202</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="8">
         <v>10203</v>
       </c>
-      <c r="F19" s="10">
+      <c r="G19" s="10">
         <v>2</v>
       </c>
-      <c r="G19" s="10">
+      <c r="H19" s="10">
         <v>1</v>
       </c>
-      <c r="H19" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I19" s="11">
+      <c r="I19" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J19" s="11">
         <v>375</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="K19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="L19" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="IB19"/>
-    </row>
-    <row r="20" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC19"/>
+    </row>
+    <row r="20" spans="3:237" ht="19.5" customHeight="1">
       <c r="C20" s="8">
         <v>10203</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F20" s="8">
         <v>10204</v>
       </c>
-      <c r="F20" s="10">
+      <c r="G20" s="10">
         <v>3</v>
       </c>
-      <c r="G20" s="10">
+      <c r="H20" s="10">
         <v>2</v>
       </c>
-      <c r="H20" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I20" s="11">
+      <c r="I20" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J20" s="11">
         <v>560</v>
       </c>
-      <c r="J20" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="IB20"/>
-    </row>
-    <row r="21" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC20"/>
+    </row>
+    <row r="21" spans="3:237" ht="19.5" customHeight="1">
       <c r="C21" s="8">
         <v>10204</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="8">
         <v>10205</v>
       </c>
-      <c r="F21" s="10">
+      <c r="G21" s="10">
         <v>4</v>
       </c>
-      <c r="G21" s="10">
+      <c r="H21" s="10">
         <v>2</v>
       </c>
-      <c r="H21" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I21" s="11">
+      <c r="I21" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J21" s="11">
         <v>775</v>
       </c>
-      <c r="J21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="IB21"/>
-    </row>
-    <row r="22" spans="3:236" ht="22.5" customHeight="1">
+      <c r="IC21"/>
+    </row>
+    <row r="22" spans="3:237" ht="22.5" customHeight="1">
       <c r="C22" s="8">
         <v>10205</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F22" s="8">
         <v>10206</v>
       </c>
-      <c r="F22" s="10">
+      <c r="G22" s="10">
         <v>5</v>
       </c>
-      <c r="G22" s="10">
+      <c r="H22" s="10">
         <v>2</v>
       </c>
-      <c r="H22" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I22" s="11">
+      <c r="I22" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J22" s="11">
         <v>1020</v>
       </c>
-      <c r="J22" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C23" s="8">
         <v>10206</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" s="8">
         <v>10207</v>
       </c>
-      <c r="F23" s="10">
+      <c r="G23" s="10">
         <v>6</v>
       </c>
-      <c r="G23" s="10">
+      <c r="H23" s="10">
         <v>3</v>
       </c>
-      <c r="H23" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I23" s="11">
+      <c r="I23" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J23" s="11">
         <v>1330</v>
       </c>
-      <c r="J23" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C24" s="8">
         <v>10207</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="8">
         <v>10208</v>
       </c>
-      <c r="F24" s="10">
+      <c r="G24" s="10">
         <v>7</v>
       </c>
-      <c r="G24" s="10">
+      <c r="H24" s="10">
         <v>3</v>
       </c>
-      <c r="H24" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I24" s="11">
+      <c r="I24" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J24" s="11">
         <v>1680</v>
       </c>
-      <c r="J24" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="IB24"/>
-    </row>
-    <row r="25" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC24"/>
+    </row>
+    <row r="25" spans="3:237" ht="19.5" customHeight="1">
       <c r="C25" s="8">
         <v>10208</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F25" s="8">
         <v>10209</v>
       </c>
-      <c r="F25" s="10">
+      <c r="G25" s="10">
         <v>8</v>
       </c>
-      <c r="G25" s="10">
+      <c r="H25" s="10">
         <v>3</v>
       </c>
-      <c r="H25" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I25" s="11">
+      <c r="I25" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J25" s="11">
         <v>2070</v>
       </c>
-      <c r="J25" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="IB25"/>
-    </row>
-    <row r="26" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC25"/>
+    </row>
+    <row r="26" spans="3:237" ht="19.5" customHeight="1">
       <c r="C26" s="8">
         <v>10209</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F26" s="8">
         <v>10210</v>
       </c>
-      <c r="F26" s="10">
+      <c r="G26" s="10">
         <v>9</v>
       </c>
-      <c r="G26" s="10">
+      <c r="H26" s="10">
         <v>3</v>
       </c>
-      <c r="H26" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I26" s="11">
+      <c r="I26" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J26" s="11">
         <v>2500</v>
       </c>
-      <c r="J26" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="IB26"/>
-    </row>
-    <row r="27" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC26"/>
+    </row>
+    <row r="27" spans="3:237" ht="19.5" customHeight="1">
       <c r="C27" s="8">
         <v>10210</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" s="8">
         <v>0</v>
       </c>
-      <c r="F27" s="10">
+      <c r="G27" s="10">
         <v>10</v>
       </c>
-      <c r="G27" s="10">
+      <c r="H27" s="10">
         <v>3</v>
       </c>
-      <c r="H27" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J27" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K27" s="10" t="s">
+      <c r="K27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="IB27"/>
-    </row>
-    <row r="28" spans="3:236" ht="22.5" customHeight="1">
+      <c r="IC27"/>
+    </row>
+    <row r="28" spans="3:237" ht="22.5" customHeight="1">
       <c r="C28" s="8">
         <v>10300</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" s="8">
         <v>10301</v>
       </c>
-      <c r="F28" s="10">
+      <c r="G28" s="10">
         <v>0</v>
       </c>
-      <c r="G28" s="10">
+      <c r="H28" s="10">
         <v>1</v>
       </c>
-      <c r="H28" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I28" s="11">
+      <c r="I28" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J28" s="11">
         <v>100</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="K28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K28" s="10"/>
-    </row>
-    <row r="29" spans="3:236" ht="20.100000000000001" customHeight="1">
+      <c r="L28" s="10"/>
+    </row>
+    <row r="29" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C29" s="8">
         <v>10301</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="8">
         <v>10302</v>
-      </c>
-      <c r="F29" s="10">
-        <v>1</v>
       </c>
       <c r="G29" s="10">
         <v>1</v>
       </c>
       <c r="H29" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I29" s="11">
+        <v>1</v>
+      </c>
+      <c r="I29" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J29" s="11">
         <v>220.00000000000003</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="K29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="L29" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C30" s="8">
         <v>10302</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="8">
         <v>10303</v>
       </c>
-      <c r="F30" s="10">
+      <c r="G30" s="10">
         <v>2</v>
       </c>
-      <c r="G30" s="10">
+      <c r="H30" s="10">
         <v>1</v>
       </c>
-      <c r="H30" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I30" s="11">
+      <c r="I30" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J30" s="11">
         <v>375</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="K30" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="L30" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="IB30"/>
-    </row>
-    <row r="31" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC30"/>
+    </row>
+    <row r="31" spans="3:237" ht="19.5" customHeight="1">
       <c r="C31" s="8">
         <v>10303</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F31" s="8">
         <v>10304</v>
       </c>
-      <c r="F31" s="10">
+      <c r="G31" s="10">
         <v>3</v>
       </c>
-      <c r="G31" s="10">
+      <c r="H31" s="10">
         <v>2</v>
       </c>
-      <c r="H31" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I31" s="11">
+      <c r="I31" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J31" s="11">
         <v>560</v>
       </c>
-      <c r="J31" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="10" t="s">
+      <c r="K31" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="IB31"/>
-    </row>
-    <row r="32" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC31"/>
+    </row>
+    <row r="32" spans="3:237" ht="19.5" customHeight="1">
       <c r="C32" s="8">
         <v>10304</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F32" s="8">
         <v>10305</v>
       </c>
-      <c r="F32" s="10">
+      <c r="G32" s="10">
         <v>4</v>
       </c>
-      <c r="G32" s="10">
+      <c r="H32" s="10">
         <v>2</v>
       </c>
-      <c r="H32" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I32" s="11">
+      <c r="I32" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J32" s="11">
         <v>775</v>
       </c>
-      <c r="J32" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" s="10" t="s">
+      <c r="K32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="IB32"/>
-    </row>
-    <row r="33" spans="3:236" ht="20.100000000000001" customHeight="1">
+      <c r="IC32"/>
+    </row>
+    <row r="33" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C33" s="8">
         <v>10305</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F33" s="8">
         <v>10306</v>
       </c>
-      <c r="F33" s="10">
+      <c r="G33" s="10">
         <v>5</v>
       </c>
-      <c r="G33" s="10">
+      <c r="H33" s="10">
         <v>2</v>
       </c>
-      <c r="H33" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I33" s="11">
+      <c r="I33" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J33" s="11">
         <v>1020</v>
       </c>
-      <c r="J33" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K33" s="10" t="s">
+      <c r="K33" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C34" s="8">
         <v>10306</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F34" s="8">
         <v>10307</v>
       </c>
-      <c r="F34" s="10">
+      <c r="G34" s="10">
         <v>6</v>
       </c>
-      <c r="G34" s="10">
+      <c r="H34" s="10">
         <v>3</v>
       </c>
-      <c r="H34" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I34" s="11">
+      <c r="I34" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J34" s="11">
         <v>1330</v>
       </c>
-      <c r="J34" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K34" s="10" t="s">
+      <c r="K34" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="IB34"/>
-    </row>
-    <row r="35" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC34"/>
+    </row>
+    <row r="35" spans="3:237" ht="19.5" customHeight="1">
       <c r="C35" s="8">
         <v>10307</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F35" s="8">
         <v>10308</v>
       </c>
-      <c r="F35" s="10">
+      <c r="G35" s="10">
         <v>7</v>
       </c>
-      <c r="G35" s="10">
+      <c r="H35" s="10">
         <v>3</v>
       </c>
-      <c r="H35" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I35" s="11">
+      <c r="I35" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J35" s="11">
         <v>1680</v>
       </c>
-      <c r="J35" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K35" s="10" t="s">
+      <c r="K35" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="IB35"/>
-    </row>
-    <row r="36" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC35"/>
+    </row>
+    <row r="36" spans="3:237" ht="19.5" customHeight="1">
       <c r="C36" s="8">
         <v>10308</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F36" s="8">
         <v>10309</v>
       </c>
-      <c r="F36" s="10">
+      <c r="G36" s="10">
         <v>8</v>
       </c>
-      <c r="G36" s="10">
+      <c r="H36" s="10">
         <v>3</v>
       </c>
-      <c r="H36" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I36" s="11">
+      <c r="I36" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J36" s="11">
         <v>2070</v>
       </c>
-      <c r="J36" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K36" s="10" t="s">
+      <c r="K36" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="IB36"/>
-    </row>
-    <row r="37" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC36"/>
+    </row>
+    <row r="37" spans="3:237" ht="19.5" customHeight="1">
       <c r="C37" s="8">
         <v>10309</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F37" s="8">
         <v>10310</v>
       </c>
-      <c r="F37" s="10">
+      <c r="G37" s="10">
         <v>9</v>
       </c>
-      <c r="G37" s="10">
+      <c r="H37" s="10">
         <v>3</v>
       </c>
-      <c r="H37" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I37" s="11">
+      <c r="I37" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J37" s="11">
         <v>2500</v>
       </c>
-      <c r="J37" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K37" s="10" t="s">
+      <c r="K37" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="IB37"/>
-    </row>
-    <row r="38" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC37"/>
+    </row>
+    <row r="38" spans="3:237" ht="19.5" customHeight="1">
       <c r="C38" s="8">
         <v>10310</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F38" s="8">
         <v>0</v>
       </c>
-      <c r="F38" s="10">
+      <c r="G38" s="10">
         <v>10</v>
       </c>
-      <c r="G38" s="10">
+      <c r="H38" s="10">
         <v>3</v>
       </c>
-      <c r="H38" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J38" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J38" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K38" s="10" t="s">
+      <c r="K38" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="IB38"/>
-    </row>
-    <row r="39" spans="3:236" ht="22.5" customHeight="1">
+      <c r="IC38"/>
+    </row>
+    <row r="39" spans="3:237" ht="22.5" customHeight="1">
       <c r="C39" s="8">
         <v>10400</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F39" s="8">
         <v>10401</v>
       </c>
-      <c r="F39" s="10">
+      <c r="G39" s="10">
         <v>0</v>
       </c>
-      <c r="G39" s="10">
+      <c r="H39" s="10">
         <v>1</v>
       </c>
-      <c r="H39" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I39" s="11">
+      <c r="I39" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J39" s="11">
         <v>100</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="K39" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K39" s="10"/>
-    </row>
-    <row r="40" spans="3:236" ht="20.100000000000001" customHeight="1">
+      <c r="L39" s="10"/>
+    </row>
+    <row r="40" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C40" s="8">
         <v>10401</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F40" s="8">
         <v>10402</v>
-      </c>
-      <c r="F40" s="10">
-        <v>1</v>
       </c>
       <c r="G40" s="10">
         <v>1</v>
       </c>
       <c r="H40" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I40" s="11">
+        <v>1</v>
+      </c>
+      <c r="I40" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J40" s="11">
         <v>220.00000000000003</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="K40" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K40" s="10" t="s">
+      <c r="L40" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C41" s="8">
         <v>10402</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F41" s="8">
         <v>10403</v>
       </c>
-      <c r="F41" s="10">
+      <c r="G41" s="10">
         <v>2</v>
       </c>
-      <c r="G41" s="10">
+      <c r="H41" s="10">
         <v>1</v>
       </c>
-      <c r="H41" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I41" s="11">
+      <c r="I41" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J41" s="11">
         <v>375</v>
       </c>
-      <c r="J41" s="11" t="s">
+      <c r="K41" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K41" s="10" t="s">
+      <c r="L41" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="IB41"/>
-    </row>
-    <row r="42" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC41"/>
+    </row>
+    <row r="42" spans="3:237" ht="19.5" customHeight="1">
       <c r="C42" s="8">
         <v>10403</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F42" s="8">
         <v>10404</v>
       </c>
-      <c r="F42" s="10">
+      <c r="G42" s="10">
         <v>3</v>
       </c>
-      <c r="G42" s="10">
+      <c r="H42" s="10">
         <v>2</v>
       </c>
-      <c r="H42" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I42" s="11">
+      <c r="I42" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J42" s="11">
         <v>560</v>
       </c>
-      <c r="J42" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K42" s="10" t="s">
+      <c r="K42" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="IB42"/>
-    </row>
-    <row r="43" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC42"/>
+    </row>
+    <row r="43" spans="3:237" ht="19.5" customHeight="1">
       <c r="C43" s="8">
         <v>10404</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F43" s="8">
         <v>10405</v>
       </c>
-      <c r="F43" s="10">
+      <c r="G43" s="10">
         <v>4</v>
       </c>
-      <c r="G43" s="10">
+      <c r="H43" s="10">
         <v>2</v>
       </c>
-      <c r="H43" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I43" s="11">
+      <c r="I43" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J43" s="11">
         <v>775</v>
       </c>
-      <c r="J43" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K43" s="10" t="s">
+      <c r="K43" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="IB43"/>
-    </row>
-    <row r="44" spans="3:236" ht="22.5" customHeight="1">
+      <c r="IC43"/>
+    </row>
+    <row r="44" spans="3:237" ht="22.5" customHeight="1">
       <c r="C44" s="8">
         <v>10405</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F44" s="8">
         <v>10406</v>
       </c>
-      <c r="F44" s="10">
+      <c r="G44" s="10">
         <v>5</v>
       </c>
-      <c r="G44" s="10">
+      <c r="H44" s="10">
         <v>2</v>
       </c>
-      <c r="H44" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I44" s="11">
+      <c r="I44" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J44" s="11">
         <v>1020</v>
       </c>
-      <c r="J44" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K44" s="10" t="s">
+      <c r="K44" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L44" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C45" s="8">
         <v>10406</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F45" s="8">
         <v>10407</v>
       </c>
-      <c r="F45" s="10">
+      <c r="G45" s="10">
         <v>6</v>
       </c>
-      <c r="G45" s="10">
+      <c r="H45" s="10">
         <v>3</v>
       </c>
-      <c r="H45" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I45" s="11">
+      <c r="I45" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J45" s="11">
         <v>1330</v>
       </c>
-      <c r="J45" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K45" s="10" t="s">
+      <c r="K45" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C46" s="8">
         <v>10407</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F46" s="8">
         <v>10408</v>
       </c>
-      <c r="F46" s="10">
+      <c r="G46" s="10">
         <v>7</v>
       </c>
-      <c r="G46" s="10">
+      <c r="H46" s="10">
         <v>3</v>
       </c>
-      <c r="H46" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I46" s="11">
+      <c r="I46" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J46" s="11">
         <v>1680</v>
       </c>
-      <c r="J46" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K46" s="10" t="s">
+      <c r="K46" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L46" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="IB46"/>
-    </row>
-    <row r="47" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC46"/>
+    </row>
+    <row r="47" spans="3:237" ht="19.5" customHeight="1">
       <c r="C47" s="8">
         <v>10408</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F47" s="8">
         <v>10409</v>
       </c>
-      <c r="F47" s="10">
+      <c r="G47" s="10">
         <v>8</v>
       </c>
-      <c r="G47" s="10">
+      <c r="H47" s="10">
         <v>3</v>
       </c>
-      <c r="H47" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I47" s="11">
+      <c r="I47" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J47" s="11">
         <v>2070</v>
       </c>
-      <c r="J47" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K47" s="10" t="s">
+      <c r="K47" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L47" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="IB47"/>
-    </row>
-    <row r="48" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC47"/>
+    </row>
+    <row r="48" spans="3:237" ht="19.5" customHeight="1">
       <c r="C48" s="8">
         <v>10409</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F48" s="8">
         <v>10410</v>
       </c>
-      <c r="F48" s="10">
+      <c r="G48" s="10">
         <v>9</v>
       </c>
-      <c r="G48" s="10">
+      <c r="H48" s="10">
         <v>3</v>
       </c>
-      <c r="H48" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I48" s="11">
+      <c r="I48" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J48" s="11">
         <v>2500</v>
       </c>
-      <c r="J48" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K48" s="10" t="s">
+      <c r="K48" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="IB48"/>
-    </row>
-    <row r="49" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC48"/>
+    </row>
+    <row r="49" spans="3:237" ht="19.5" customHeight="1">
       <c r="C49" s="8">
         <v>10410</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F49" s="8">
         <v>0</v>
       </c>
-      <c r="F49" s="10">
+      <c r="G49" s="10">
         <v>10</v>
       </c>
-      <c r="G49" s="10">
+      <c r="H49" s="10">
         <v>3</v>
       </c>
-      <c r="H49" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I49" s="11" t="s">
+      <c r="I49" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J49" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J49" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K49" s="10" t="s">
+      <c r="K49" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L49" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="IB49"/>
-    </row>
-    <row r="50" spans="3:236" ht="22.5" customHeight="1">
+      <c r="IC49"/>
+    </row>
+    <row r="50" spans="3:237" ht="22.5" customHeight="1">
       <c r="C50" s="8">
         <v>10500</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F50" s="8">
         <v>10501</v>
       </c>
-      <c r="F50" s="10">
+      <c r="G50" s="10">
         <v>0</v>
       </c>
-      <c r="G50" s="10">
+      <c r="H50" s="10">
         <v>1</v>
       </c>
-      <c r="H50" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I50" s="11">
+      <c r="I50" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J50" s="11">
         <v>100</v>
       </c>
-      <c r="J50" s="11" t="s">
+      <c r="K50" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K50" s="10"/>
-    </row>
-    <row r="51" spans="3:236" ht="20.100000000000001" customHeight="1">
+      <c r="L50" s="10"/>
+    </row>
+    <row r="51" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C51" s="8">
         <v>10501</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F51" s="8">
         <v>10502</v>
-      </c>
-      <c r="F51" s="10">
-        <v>1</v>
       </c>
       <c r="G51" s="10">
         <v>1</v>
       </c>
       <c r="H51" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I51" s="11">
+        <v>1</v>
+      </c>
+      <c r="I51" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J51" s="11">
         <v>220.00000000000003</v>
       </c>
-      <c r="J51" s="11" t="s">
+      <c r="K51" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K51" s="10" t="s">
+      <c r="L51" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C52" s="8">
         <v>10502</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F52" s="8">
         <v>10503</v>
       </c>
-      <c r="F52" s="10">
+      <c r="G52" s="10">
         <v>2</v>
       </c>
-      <c r="G52" s="10">
+      <c r="H52" s="10">
         <v>1</v>
       </c>
-      <c r="H52" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I52" s="11">
+      <c r="I52" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J52" s="11">
         <v>375</v>
       </c>
-      <c r="J52" s="11" t="s">
+      <c r="K52" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K52" s="10" t="s">
+      <c r="L52" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="IB52"/>
-    </row>
-    <row r="53" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC52"/>
+    </row>
+    <row r="53" spans="3:237" ht="19.5" customHeight="1">
       <c r="C53" s="8">
         <v>10503</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F53" s="8">
         <v>10504</v>
       </c>
-      <c r="F53" s="10">
+      <c r="G53" s="10">
         <v>3</v>
       </c>
-      <c r="G53" s="10">
+      <c r="H53" s="10">
         <v>2</v>
       </c>
-      <c r="H53" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I53" s="11">
+      <c r="I53" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J53" s="11">
         <v>560</v>
       </c>
-      <c r="J53" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K53" s="10" t="s">
+      <c r="K53" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L53" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="IB53"/>
-    </row>
-    <row r="54" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC53"/>
+    </row>
+    <row r="54" spans="3:237" ht="19.5" customHeight="1">
       <c r="C54" s="8">
         <v>10504</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F54" s="8">
         <v>10505</v>
       </c>
-      <c r="F54" s="10">
+      <c r="G54" s="10">
         <v>4</v>
       </c>
-      <c r="G54" s="10">
+      <c r="H54" s="10">
         <v>2</v>
       </c>
-      <c r="H54" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I54" s="11">
+      <c r="I54" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J54" s="11">
         <v>775</v>
       </c>
-      <c r="J54" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K54" s="10" t="s">
+      <c r="K54" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="IB54"/>
-    </row>
-    <row r="55" spans="3:236" ht="22.5" customHeight="1">
+      <c r="IC54"/>
+    </row>
+    <row r="55" spans="3:237" ht="22.5" customHeight="1">
       <c r="C55" s="8">
         <v>10505</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F55" s="8">
         <v>10506</v>
       </c>
-      <c r="F55" s="10">
+      <c r="G55" s="10">
         <v>5</v>
       </c>
-      <c r="G55" s="10">
+      <c r="H55" s="10">
         <v>2</v>
       </c>
-      <c r="H55" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I55" s="11">
+      <c r="I55" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J55" s="11">
         <v>1020</v>
       </c>
-      <c r="J55" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K55" s="10" t="s">
+      <c r="K55" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L55" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C56" s="8">
         <v>10506</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E56" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F56" s="8">
         <v>10507</v>
       </c>
-      <c r="F56" s="10">
+      <c r="G56" s="10">
         <v>6</v>
       </c>
-      <c r="G56" s="10">
+      <c r="H56" s="10">
         <v>3</v>
       </c>
-      <c r="H56" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I56" s="11">
+      <c r="I56" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J56" s="11">
         <v>1330</v>
       </c>
-      <c r="J56" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K56" s="10" t="s">
+      <c r="K56" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L56" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C57" s="8">
         <v>10507</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E57" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F57" s="8">
         <v>10508</v>
       </c>
-      <c r="F57" s="10">
+      <c r="G57" s="10">
         <v>7</v>
       </c>
-      <c r="G57" s="10">
+      <c r="H57" s="10">
         <v>3</v>
       </c>
-      <c r="H57" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I57" s="11">
+      <c r="I57" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J57" s="11">
         <v>1680</v>
       </c>
-      <c r="J57" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K57" s="10" t="s">
+      <c r="K57" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="IB57"/>
-    </row>
-    <row r="58" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC57"/>
+    </row>
+    <row r="58" spans="3:237" ht="19.5" customHeight="1">
       <c r="C58" s="8">
         <v>10508</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E58" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F58" s="8">
         <v>10509</v>
       </c>
-      <c r="F58" s="10">
+      <c r="G58" s="10">
         <v>8</v>
       </c>
-      <c r="G58" s="10">
+      <c r="H58" s="10">
         <v>3</v>
       </c>
-      <c r="H58" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I58" s="11">
+      <c r="I58" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J58" s="11">
         <v>2070</v>
       </c>
-      <c r="J58" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K58" s="10" t="s">
+      <c r="K58" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L58" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="IB58"/>
-    </row>
-    <row r="59" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC58"/>
+    </row>
+    <row r="59" spans="3:237" ht="19.5" customHeight="1">
       <c r="C59" s="8">
         <v>10509</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E59" s="8">
+      <c r="E59" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F59" s="8">
         <v>10510</v>
       </c>
-      <c r="F59" s="10">
+      <c r="G59" s="10">
         <v>9</v>
       </c>
-      <c r="G59" s="10">
+      <c r="H59" s="10">
         <v>3</v>
       </c>
-      <c r="H59" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I59" s="11">
+      <c r="I59" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J59" s="11">
         <v>2500</v>
       </c>
-      <c r="J59" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K59" s="10" t="s">
+      <c r="K59" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L59" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="IB59"/>
-    </row>
-    <row r="60" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC59"/>
+    </row>
+    <row r="60" spans="3:237" ht="19.5" customHeight="1">
       <c r="C60" s="8">
         <v>10510</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E60" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F60" s="8">
         <v>0</v>
       </c>
-      <c r="F60" s="10">
+      <c r="G60" s="10">
         <v>10</v>
       </c>
-      <c r="G60" s="10">
+      <c r="H60" s="10">
         <v>3</v>
       </c>
-      <c r="H60" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I60" s="11" t="s">
+      <c r="I60" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J60" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J60" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K60" s="10" t="s">
+      <c r="K60" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L60" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="IB60"/>
-    </row>
-    <row r="61" spans="3:236" ht="22.5" customHeight="1">
+      <c r="IC60"/>
+    </row>
+    <row r="61" spans="3:237" ht="22.5" customHeight="1">
       <c r="C61" s="8">
         <v>10600</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E61" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F61" s="8">
         <v>10601</v>
       </c>
-      <c r="F61" s="10">
+      <c r="G61" s="10">
         <v>0</v>
       </c>
-      <c r="G61" s="10">
+      <c r="H61" s="10">
         <v>1</v>
       </c>
-      <c r="H61" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I61" s="11">
+      <c r="I61" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J61" s="11">
         <v>100</v>
       </c>
-      <c r="J61" s="11" t="s">
+      <c r="K61" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K61" s="10"/>
-    </row>
-    <row r="62" spans="3:236" ht="20.100000000000001" customHeight="1">
+      <c r="L61" s="10"/>
+    </row>
+    <row r="62" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C62" s="8">
         <v>10601</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E62" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F62" s="8">
         <v>10602</v>
-      </c>
-      <c r="F62" s="10">
-        <v>1</v>
       </c>
       <c r="G62" s="10">
         <v>1</v>
       </c>
       <c r="H62" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I62" s="11">
+        <v>1</v>
+      </c>
+      <c r="I62" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J62" s="11">
         <v>220.00000000000003</v>
       </c>
-      <c r="J62" s="11" t="s">
+      <c r="K62" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K62" s="10" t="s">
+      <c r="L62" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="63" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C63" s="8">
         <v>10602</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E63" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F63" s="8">
         <v>10603</v>
       </c>
-      <c r="F63" s="10">
+      <c r="G63" s="10">
         <v>2</v>
       </c>
-      <c r="G63" s="10">
+      <c r="H63" s="10">
         <v>1</v>
       </c>
-      <c r="H63" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I63" s="11">
+      <c r="I63" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J63" s="11">
         <v>375</v>
       </c>
-      <c r="J63" s="11" t="s">
+      <c r="K63" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K63" s="10" t="s">
+      <c r="L63" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="IB63"/>
-    </row>
-    <row r="64" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC63"/>
+    </row>
+    <row r="64" spans="3:237" ht="19.5" customHeight="1">
       <c r="C64" s="8">
         <v>10603</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E64" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F64" s="8">
         <v>10604</v>
       </c>
-      <c r="F64" s="10">
+      <c r="G64" s="10">
         <v>3</v>
       </c>
-      <c r="G64" s="10">
+      <c r="H64" s="10">
         <v>2</v>
       </c>
-      <c r="H64" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I64" s="11">
+      <c r="I64" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J64" s="11">
         <v>560</v>
       </c>
-      <c r="J64" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K64" s="10" t="s">
+      <c r="K64" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L64" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="IB64"/>
-    </row>
-    <row r="65" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC64"/>
+    </row>
+    <row r="65" spans="3:237" ht="19.5" customHeight="1">
       <c r="C65" s="8">
         <v>10604</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E65" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F65" s="8">
         <v>10605</v>
       </c>
-      <c r="F65" s="10">
+      <c r="G65" s="10">
         <v>4</v>
       </c>
-      <c r="G65" s="10">
+      <c r="H65" s="10">
         <v>2</v>
       </c>
-      <c r="H65" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I65" s="11">
+      <c r="I65" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J65" s="11">
         <v>775</v>
       </c>
-      <c r="J65" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K65" s="10" t="s">
+      <c r="K65" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L65" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="IB65"/>
-    </row>
-    <row r="66" spans="3:236" ht="22.5" customHeight="1">
+      <c r="IC65"/>
+    </row>
+    <row r="66" spans="3:237" ht="22.5" customHeight="1">
       <c r="C66" s="8">
         <v>10605</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E66" s="8">
+      <c r="E66" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F66" s="8">
         <v>10606</v>
       </c>
-      <c r="F66" s="10">
+      <c r="G66" s="10">
         <v>5</v>
       </c>
-      <c r="G66" s="10">
+      <c r="H66" s="10">
         <v>2</v>
       </c>
-      <c r="H66" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I66" s="11">
+      <c r="I66" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J66" s="11">
         <v>1020</v>
       </c>
-      <c r="J66" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K66" s="10" t="s">
+      <c r="K66" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L66" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="67" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C67" s="8">
         <v>10606</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="E67" s="8">
+      <c r="E67" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F67" s="8">
         <v>10607</v>
       </c>
-      <c r="F67" s="10">
+      <c r="G67" s="10">
         <v>6</v>
       </c>
-      <c r="G67" s="10">
+      <c r="H67" s="10">
         <v>3</v>
       </c>
-      <c r="H67" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I67" s="11">
+      <c r="I67" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J67" s="11">
         <v>1330</v>
       </c>
-      <c r="J67" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K67" s="10" t="s">
+      <c r="K67" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L67" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="68" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C68" s="8">
         <v>10607</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E68" s="8">
+      <c r="E68" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F68" s="8">
         <v>10608</v>
       </c>
-      <c r="F68" s="10">
+      <c r="G68" s="10">
         <v>7</v>
       </c>
-      <c r="G68" s="10">
+      <c r="H68" s="10">
         <v>3</v>
       </c>
-      <c r="H68" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I68" s="11">
+      <c r="I68" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J68" s="11">
         <v>1680</v>
       </c>
-      <c r="J68" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K68" s="10" t="s">
+      <c r="K68" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L68" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="IB68"/>
-    </row>
-    <row r="69" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC68"/>
+    </row>
+    <row r="69" spans="3:237" ht="19.5" customHeight="1">
       <c r="C69" s="8">
         <v>10608</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E69" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F69" s="8">
         <v>10609</v>
       </c>
-      <c r="F69" s="10">
+      <c r="G69" s="10">
         <v>8</v>
       </c>
-      <c r="G69" s="10">
+      <c r="H69" s="10">
         <v>3</v>
       </c>
-      <c r="H69" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I69" s="11">
+      <c r="I69" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J69" s="11">
         <v>2070</v>
       </c>
-      <c r="J69" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K69" s="10" t="s">
+      <c r="K69" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L69" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="IB69"/>
-    </row>
-    <row r="70" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC69"/>
+    </row>
+    <row r="70" spans="3:237" ht="19.5" customHeight="1">
       <c r="C70" s="8">
         <v>10609</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E70" s="8">
+      <c r="E70" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F70" s="8">
         <v>10610</v>
       </c>
-      <c r="F70" s="10">
+      <c r="G70" s="10">
         <v>9</v>
       </c>
-      <c r="G70" s="10">
+      <c r="H70" s="10">
         <v>3</v>
       </c>
-      <c r="H70" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I70" s="11">
+      <c r="I70" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J70" s="11">
         <v>2500</v>
       </c>
-      <c r="J70" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K70" s="10" t="s">
+      <c r="K70" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L70" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="IB70"/>
-    </row>
-    <row r="71" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC70"/>
+    </row>
+    <row r="71" spans="3:237" ht="19.5" customHeight="1">
       <c r="C71" s="8">
         <v>10610</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E71" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F71" s="8">
         <v>0</v>
       </c>
-      <c r="F71" s="10">
+      <c r="G71" s="10">
         <v>10</v>
       </c>
-      <c r="G71" s="10">
+      <c r="H71" s="10">
         <v>3</v>
       </c>
-      <c r="H71" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I71" s="11" t="s">
+      <c r="I71" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J71" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J71" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K71" s="10" t="s">
+      <c r="K71" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L71" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="IB71"/>
-    </row>
-    <row r="72" spans="3:236" ht="22.5" customHeight="1">
+      <c r="IC71"/>
+    </row>
+    <row r="72" spans="3:237" ht="22.5" customHeight="1">
       <c r="C72" s="8">
         <v>10700</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E72" s="8">
+      <c r="E72" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F72" s="8">
         <v>10701</v>
       </c>
-      <c r="F72" s="10">
+      <c r="G72" s="10">
         <v>0</v>
       </c>
-      <c r="G72" s="10">
+      <c r="H72" s="10">
         <v>1</v>
       </c>
-      <c r="H72" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I72" s="11">
+      <c r="I72" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J72" s="11">
         <v>100</v>
       </c>
-      <c r="J72" s="11" t="s">
+      <c r="K72" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K72" s="10"/>
-    </row>
-    <row r="73" spans="3:236" ht="20.100000000000001" customHeight="1">
+      <c r="L72" s="10"/>
+    </row>
+    <row r="73" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C73" s="8">
         <v>10701</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E73" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F73" s="8">
         <v>10702</v>
-      </c>
-      <c r="F73" s="10">
-        <v>1</v>
       </c>
       <c r="G73" s="10">
         <v>1</v>
       </c>
       <c r="H73" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I73" s="11">
+        <v>1</v>
+      </c>
+      <c r="I73" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J73" s="11">
         <v>220.00000000000003</v>
       </c>
-      <c r="J73" s="11" t="s">
+      <c r="K73" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K73" s="10" t="s">
+      <c r="L73" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="74" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C74" s="8">
         <v>10702</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E74" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F74" s="8">
         <v>10703</v>
       </c>
-      <c r="F74" s="10">
+      <c r="G74" s="10">
         <v>2</v>
       </c>
-      <c r="G74" s="10">
+      <c r="H74" s="10">
         <v>1</v>
       </c>
-      <c r="H74" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I74" s="11">
+      <c r="I74" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J74" s="11">
         <v>375</v>
       </c>
-      <c r="J74" s="11" t="s">
+      <c r="K74" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K74" s="10" t="s">
+      <c r="L74" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="IB74"/>
-    </row>
-    <row r="75" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC74"/>
+    </row>
+    <row r="75" spans="3:237" ht="19.5" customHeight="1">
       <c r="C75" s="8">
         <v>10703</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E75" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F75" s="8">
         <v>10704</v>
       </c>
-      <c r="F75" s="10">
+      <c r="G75" s="10">
         <v>3</v>
       </c>
-      <c r="G75" s="10">
+      <c r="H75" s="10">
         <v>2</v>
       </c>
-      <c r="H75" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I75" s="11">
+      <c r="I75" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J75" s="11">
         <v>560</v>
       </c>
-      <c r="J75" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K75" s="10" t="s">
+      <c r="K75" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L75" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="IB75"/>
-    </row>
-    <row r="76" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC75"/>
+    </row>
+    <row r="76" spans="3:237" ht="19.5" customHeight="1">
       <c r="C76" s="8">
         <v>10704</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E76" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F76" s="8">
         <v>10705</v>
       </c>
-      <c r="F76" s="10">
+      <c r="G76" s="10">
         <v>4</v>
       </c>
-      <c r="G76" s="10">
+      <c r="H76" s="10">
         <v>2</v>
       </c>
-      <c r="H76" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I76" s="11">
+      <c r="I76" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J76" s="11">
         <v>775</v>
       </c>
-      <c r="J76" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K76" s="10" t="s">
+      <c r="K76" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L76" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="IB76"/>
-    </row>
-    <row r="77" spans="3:236" ht="22.5" customHeight="1">
+      <c r="IC76"/>
+    </row>
+    <row r="77" spans="3:237" ht="22.5" customHeight="1">
       <c r="C77" s="8">
         <v>10705</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E77" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F77" s="8">
         <v>10706</v>
       </c>
-      <c r="F77" s="10">
+      <c r="G77" s="10">
         <v>5</v>
       </c>
-      <c r="G77" s="10">
+      <c r="H77" s="10">
         <v>2</v>
       </c>
-      <c r="H77" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I77" s="11">
+      <c r="I77" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J77" s="11">
         <v>1020</v>
       </c>
-      <c r="J77" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K77" s="10" t="s">
+      <c r="K77" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L77" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="78" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="78" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C78" s="8">
         <v>10706</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E78" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F78" s="8">
         <v>10707</v>
       </c>
-      <c r="F78" s="10">
+      <c r="G78" s="10">
         <v>6</v>
       </c>
-      <c r="G78" s="10">
+      <c r="H78" s="10">
         <v>3</v>
       </c>
-      <c r="H78" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I78" s="11">
+      <c r="I78" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J78" s="11">
         <v>1330</v>
       </c>
-      <c r="J78" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K78" s="10" t="s">
+      <c r="K78" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L78" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="79" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C79" s="8">
         <v>10707</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E79" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F79" s="8">
         <v>10708</v>
       </c>
-      <c r="F79" s="10">
+      <c r="G79" s="10">
         <v>7</v>
       </c>
-      <c r="G79" s="10">
+      <c r="H79" s="10">
         <v>3</v>
       </c>
-      <c r="H79" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I79" s="11">
+      <c r="I79" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J79" s="11">
         <v>1680</v>
       </c>
-      <c r="J79" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K79" s="10" t="s">
+      <c r="K79" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L79" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="IB79"/>
-    </row>
-    <row r="80" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC79"/>
+    </row>
+    <row r="80" spans="3:237" ht="19.5" customHeight="1">
       <c r="C80" s="8">
         <v>10708</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E80" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F80" s="8">
         <v>10709</v>
       </c>
-      <c r="F80" s="10">
+      <c r="G80" s="10">
         <v>8</v>
       </c>
-      <c r="G80" s="10">
+      <c r="H80" s="10">
         <v>3</v>
       </c>
-      <c r="H80" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I80" s="11">
+      <c r="I80" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J80" s="11">
         <v>2070</v>
       </c>
-      <c r="J80" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K80" s="10" t="s">
+      <c r="K80" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L80" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="IB80"/>
-    </row>
-    <row r="81" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC80"/>
+    </row>
+    <row r="81" spans="3:237" ht="19.5" customHeight="1">
       <c r="C81" s="8">
         <v>10709</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E81" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F81" s="8">
         <v>10710</v>
       </c>
-      <c r="F81" s="10">
+      <c r="G81" s="10">
         <v>9</v>
       </c>
-      <c r="G81" s="10">
+      <c r="H81" s="10">
         <v>3</v>
       </c>
-      <c r="H81" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I81" s="11">
+      <c r="I81" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J81" s="11">
         <v>2500</v>
       </c>
-      <c r="J81" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K81" s="10" t="s">
+      <c r="K81" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L81" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="IB81"/>
-    </row>
-    <row r="82" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC81"/>
+    </row>
+    <row r="82" spans="3:237" ht="19.5" customHeight="1">
       <c r="C82" s="8">
         <v>10710</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="E82" s="8">
+      <c r="E82" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F82" s="8">
         <v>0</v>
       </c>
-      <c r="F82" s="10">
+      <c r="G82" s="10">
         <v>10</v>
       </c>
-      <c r="G82" s="10">
+      <c r="H82" s="10">
         <v>3</v>
       </c>
-      <c r="H82" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I82" s="11" t="s">
+      <c r="I82" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J82" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J82" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K82" s="10" t="s">
+      <c r="K82" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L82" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="IB82"/>
-    </row>
-    <row r="83" spans="3:236" ht="22.5" customHeight="1">
+      <c r="IC82"/>
+    </row>
+    <row r="83" spans="3:237" ht="22.5" customHeight="1">
       <c r="C83" s="8">
         <v>10800</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="E83" s="8">
+      <c r="E83" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F83" s="8">
         <v>10801</v>
       </c>
-      <c r="F83" s="10">
+      <c r="G83" s="10">
         <v>0</v>
       </c>
-      <c r="G83" s="10">
+      <c r="H83" s="10">
         <v>1</v>
       </c>
-      <c r="H83" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I83" s="11">
+      <c r="I83" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J83" s="11">
         <v>100</v>
       </c>
-      <c r="J83" s="11" t="s">
+      <c r="K83" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K83" s="10"/>
-    </row>
-    <row r="84" spans="3:236" ht="20.100000000000001" customHeight="1">
+      <c r="L83" s="10"/>
+    </row>
+    <row r="84" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C84" s="8">
         <v>10801</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E84" s="8">
+      <c r="E84" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F84" s="8">
         <v>10802</v>
-      </c>
-      <c r="F84" s="10">
-        <v>1</v>
       </c>
       <c r="G84" s="10">
         <v>1</v>
       </c>
       <c r="H84" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I84" s="11">
+        <v>1</v>
+      </c>
+      <c r="I84" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J84" s="11">
         <v>220.00000000000003</v>
       </c>
-      <c r="J84" s="11" t="s">
+      <c r="K84" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K84" s="10" t="s">
+      <c r="L84" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="85" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C85" s="8">
         <v>10802</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="E85" s="8">
+      <c r="E85" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F85" s="8">
         <v>10803</v>
       </c>
-      <c r="F85" s="10">
+      <c r="G85" s="10">
         <v>2</v>
       </c>
-      <c r="G85" s="10">
+      <c r="H85" s="10">
         <v>1</v>
       </c>
-      <c r="H85" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I85" s="11">
+      <c r="I85" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J85" s="11">
         <v>375</v>
       </c>
-      <c r="J85" s="11" t="s">
+      <c r="K85" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K85" s="10" t="s">
+      <c r="L85" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="IB85"/>
-    </row>
-    <row r="86" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC85"/>
+    </row>
+    <row r="86" spans="3:237" ht="19.5" customHeight="1">
       <c r="C86" s="8">
         <v>10803</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E86" s="8">
+      <c r="E86" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F86" s="8">
         <v>10804</v>
       </c>
-      <c r="F86" s="10">
+      <c r="G86" s="10">
         <v>3</v>
       </c>
-      <c r="G86" s="10">
+      <c r="H86" s="10">
         <v>2</v>
       </c>
-      <c r="H86" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I86" s="11">
+      <c r="I86" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J86" s="11">
         <v>560</v>
       </c>
-      <c r="J86" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K86" s="10" t="s">
+      <c r="K86" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L86" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="IB86"/>
-    </row>
-    <row r="87" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC86"/>
+    </row>
+    <row r="87" spans="3:237" ht="19.5" customHeight="1">
       <c r="C87" s="8">
         <v>10804</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="E87" s="8">
+      <c r="E87" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F87" s="8">
         <v>10805</v>
       </c>
-      <c r="F87" s="10">
+      <c r="G87" s="10">
         <v>4</v>
       </c>
-      <c r="G87" s="10">
+      <c r="H87" s="10">
         <v>2</v>
       </c>
-      <c r="H87" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I87" s="11">
+      <c r="I87" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J87" s="11">
         <v>775</v>
       </c>
-      <c r="J87" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K87" s="10" t="s">
+      <c r="K87" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L87" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="IB87"/>
-    </row>
-    <row r="88" spans="3:236" ht="22.5" customHeight="1">
+      <c r="IC87"/>
+    </row>
+    <row r="88" spans="3:237" ht="22.5" customHeight="1">
       <c r="C88" s="8">
         <v>10805</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="E88" s="8">
+      <c r="E88" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F88" s="8">
         <v>10806</v>
       </c>
-      <c r="F88" s="10">
+      <c r="G88" s="10">
         <v>5</v>
       </c>
-      <c r="G88" s="10">
+      <c r="H88" s="10">
         <v>2</v>
       </c>
-      <c r="H88" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I88" s="11">
+      <c r="I88" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J88" s="11">
         <v>1020</v>
       </c>
-      <c r="J88" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K88" s="10" t="s">
+      <c r="K88" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L88" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="89" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C89" s="8">
         <v>10806</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="E89" s="8">
+      <c r="E89" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F89" s="8">
         <v>10807</v>
       </c>
-      <c r="F89" s="10">
+      <c r="G89" s="10">
         <v>6</v>
       </c>
-      <c r="G89" s="10">
+      <c r="H89" s="10">
         <v>3</v>
       </c>
-      <c r="H89" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I89" s="11">
+      <c r="I89" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J89" s="11">
         <v>1330</v>
       </c>
-      <c r="J89" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K89" s="10" t="s">
+      <c r="K89" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L89" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="90" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C90" s="8">
         <v>10807</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="E90" s="8">
+      <c r="E90" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F90" s="8">
         <v>10808</v>
       </c>
-      <c r="F90" s="10">
+      <c r="G90" s="10">
         <v>7</v>
       </c>
-      <c r="G90" s="10">
+      <c r="H90" s="10">
         <v>3</v>
       </c>
-      <c r="H90" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I90" s="11">
+      <c r="I90" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J90" s="11">
         <v>1680</v>
       </c>
-      <c r="J90" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K90" s="10" t="s">
+      <c r="K90" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L90" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="IB90"/>
-    </row>
-    <row r="91" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC90"/>
+    </row>
+    <row r="91" spans="3:237" ht="19.5" customHeight="1">
       <c r="C91" s="8">
         <v>10808</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E91" s="8">
+      <c r="E91" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F91" s="8">
         <v>10809</v>
       </c>
-      <c r="F91" s="10">
+      <c r="G91" s="10">
         <v>8</v>
       </c>
-      <c r="G91" s="10">
+      <c r="H91" s="10">
         <v>3</v>
       </c>
-      <c r="H91" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I91" s="11">
+      <c r="I91" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J91" s="11">
         <v>2070</v>
       </c>
-      <c r="J91" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K91" s="10" t="s">
+      <c r="K91" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L91" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="IB91"/>
-    </row>
-    <row r="92" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC91"/>
+    </row>
+    <row r="92" spans="3:237" ht="19.5" customHeight="1">
       <c r="C92" s="8">
         <v>10809</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="E92" s="8">
+      <c r="E92" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F92" s="8">
         <v>10810</v>
       </c>
-      <c r="F92" s="10">
+      <c r="G92" s="10">
         <v>9</v>
       </c>
-      <c r="G92" s="10">
+      <c r="H92" s="10">
         <v>3</v>
       </c>
-      <c r="H92" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I92" s="11">
+      <c r="I92" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J92" s="11">
         <v>2500</v>
       </c>
-      <c r="J92" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K92" s="10" t="s">
+      <c r="K92" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L92" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="IB92"/>
-    </row>
-    <row r="93" spans="3:236" ht="19.5" customHeight="1">
+      <c r="IC92"/>
+    </row>
+    <row r="93" spans="3:237" ht="19.5" customHeight="1">
       <c r="C93" s="8">
         <v>10810</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="E93" s="8">
+      <c r="E93" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F93" s="8">
         <v>0</v>
       </c>
-      <c r="F93" s="10">
+      <c r="G93" s="10">
         <v>10</v>
       </c>
-      <c r="G93" s="10">
+      <c r="H93" s="10">
         <v>3</v>
       </c>
-      <c r="H93" s="10">
-        <v>86400</v>
-      </c>
-      <c r="I93" s="11" t="s">
+      <c r="I93" s="10">
+        <v>86400</v>
+      </c>
+      <c r="J93" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J93" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K93" s="10" t="s">
+      <c r="K93" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L93" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="IB93"/>
+      <c r="IC93"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/Excel/UnionKeJiConfig.xlsx
+++ b/Excel/UnionKeJiConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDFFBD1-04F6-446B-9BA7-DB15567F16D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB0E374-8EA6-47ED-9D10-A8AD52533554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnionKeJiProto" sheetId="1" r:id="rId1"/>
@@ -583,7 +583,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="204">
   <si>
     <t>Id</t>
   </si>
@@ -619,10 +619,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>3000</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>等级</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -663,17 +659,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1;100</t>
-  </si>
-  <si>
-    <t>1;100</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;100@1;100</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>经验能力0级</t>
   </si>
   <si>
@@ -1195,12 +1180,45 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Img_464</t>
+    <t>0</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Img_474</t>
+    <t>0</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>keji_1</t>
+  </si>
+  <si>
+    <t>16;500@10000163;10</t>
+  </si>
+  <si>
+    <t>16;750@10000163;15</t>
+  </si>
+  <si>
+    <t>16;1000@10000163;20</t>
+  </si>
+  <si>
+    <t>16;1300@10000163;25</t>
+  </si>
+  <si>
+    <t>16;1600@10000163;30</t>
+  </si>
+  <si>
+    <t>16;2000@10000163;35</t>
+  </si>
+  <si>
+    <t>16;2400@10000163;40</t>
+  </si>
+  <si>
+    <t>16;2800@10000163;45</t>
+  </si>
+  <si>
+    <t>16;3200@10000163;50</t>
+  </si>
+  <si>
+    <t>16;3600@10000163;60</t>
   </si>
 </sst>
 </file>
@@ -2572,8 +2590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:IC93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="K83" sqref="K83:K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2583,7 +2601,8 @@
     <col min="5" max="5" width="16.5" style="3" customWidth="1"/>
     <col min="6" max="8" width="14.125" style="3" customWidth="1"/>
     <col min="9" max="9" width="19.75" style="3" customWidth="1"/>
-    <col min="10" max="11" width="16.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="21.25" style="3" customWidth="1"/>
     <col min="12" max="12" width="24.875" style="3" customWidth="1"/>
     <col min="13" max="237" width="8.875" style="3" customWidth="1"/>
   </cols>
@@ -2600,25 +2619,25 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>3</v>
@@ -2632,7 +2651,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>5</v>
@@ -2641,16 +2660,16 @@
         <v>6</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="K4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>7</v>
@@ -2664,7 +2683,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>8</v>
@@ -2682,7 +2701,7 @@
         <v>10</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>9</v>
@@ -2693,10 +2712,10 @@
         <v>10100</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F6" s="8">
         <v>10101</v>
@@ -2708,13 +2727,13 @@
         <v>1</v>
       </c>
       <c r="I6" s="10">
-        <v>86400</v>
+        <v>28800</v>
       </c>
       <c r="J6" s="11">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="L6" s="10"/>
     </row>
@@ -2723,10 +2742,10 @@
         <v>10101</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F7" s="8">
         <v>10102</v>
@@ -2738,16 +2757,16 @@
         <v>1</v>
       </c>
       <c r="I7" s="10">
-        <v>86400</v>
+        <v>39600</v>
       </c>
       <c r="J7" s="11">
-        <v>220.00000000000003</v>
+        <v>1500000</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -2755,10 +2774,10 @@
         <v>10102</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F8" s="8">
         <v>10103</v>
@@ -2770,16 +2789,16 @@
         <v>1</v>
       </c>
       <c r="I8" s="10">
-        <v>86400</v>
+        <v>50400</v>
       </c>
       <c r="J8" s="11">
-        <v>375</v>
+        <v>2000000</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="IC8"/>
     </row>
@@ -2788,10 +2807,10 @@
         <v>10103</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F9" s="8">
         <v>10104</v>
@@ -2803,16 +2822,16 @@
         <v>2</v>
       </c>
       <c r="I9" s="10">
-        <v>86400</v>
+        <v>61200</v>
       </c>
       <c r="J9" s="11">
-        <v>560</v>
+        <v>2500000</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="IC9"/>
     </row>
@@ -2821,10 +2840,10 @@
         <v>10104</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F10" s="8">
         <v>10105</v>
@@ -2836,16 +2855,16 @@
         <v>2</v>
       </c>
       <c r="I10" s="10">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="J10" s="11">
-        <v>775</v>
+        <v>3000000</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="IC10"/>
     </row>
@@ -2854,10 +2873,10 @@
         <v>10105</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F11" s="8">
         <v>10106</v>
@@ -2869,16 +2888,16 @@
         <v>2</v>
       </c>
       <c r="I11" s="10">
-        <v>86400</v>
+        <v>82800</v>
       </c>
       <c r="J11" s="11">
-        <v>1020</v>
+        <v>4000000</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -2886,10 +2905,10 @@
         <v>10106</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F12" s="8">
         <v>10107</v>
@@ -2901,16 +2920,16 @@
         <v>3</v>
       </c>
       <c r="I12" s="10">
-        <v>86400</v>
+        <v>93600</v>
       </c>
       <c r="J12" s="11">
-        <v>1330</v>
+        <v>5000000</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="IC12"/>
     </row>
@@ -2919,10 +2938,10 @@
         <v>10107</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F13" s="8">
         <v>10108</v>
@@ -2934,16 +2953,16 @@
         <v>3</v>
       </c>
       <c r="I13" s="10">
-        <v>86400</v>
+        <v>104400</v>
       </c>
       <c r="J13" s="11">
-        <v>1680</v>
+        <v>6000000</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="IC13"/>
     </row>
@@ -2952,10 +2971,10 @@
         <v>10108</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F14" s="8">
         <v>10109</v>
@@ -2967,16 +2986,16 @@
         <v>3</v>
       </c>
       <c r="I14" s="10">
-        <v>86400</v>
+        <v>115200</v>
       </c>
       <c r="J14" s="11">
-        <v>2070</v>
+        <v>7000000</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="IC14"/>
     </row>
@@ -2985,10 +3004,10 @@
         <v>10109</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F15" s="8">
         <v>10110</v>
@@ -3000,16 +3019,16 @@
         <v>3</v>
       </c>
       <c r="I15" s="10">
-        <v>86400</v>
+        <v>126000</v>
       </c>
       <c r="J15" s="11">
-        <v>2500</v>
+        <v>8000000</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="IC15"/>
     </row>
@@ -3018,10 +3037,10 @@
         <v>10110</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F16" s="8">
         <v>0</v>
@@ -3033,16 +3052,16 @@
         <v>3</v>
       </c>
       <c r="I16" s="10">
-        <v>86400</v>
+        <v>126000</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>22</v>
+        <v>192</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="IC16"/>
     </row>
@@ -3051,10 +3070,10 @@
         <v>10200</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F17" s="8">
         <v>10201</v>
@@ -3066,13 +3085,13 @@
         <v>1</v>
       </c>
       <c r="I17" s="10">
-        <v>86400</v>
+        <v>28800</v>
       </c>
       <c r="J17" s="11">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="L17" s="10"/>
     </row>
@@ -3081,10 +3100,10 @@
         <v>10201</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F18" s="8">
         <v>10202</v>
@@ -3096,16 +3115,16 @@
         <v>1</v>
       </c>
       <c r="I18" s="10">
-        <v>86400</v>
+        <v>39600</v>
       </c>
       <c r="J18" s="11">
-        <v>220.00000000000003</v>
+        <v>1500000</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -3113,10 +3132,10 @@
         <v>10202</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F19" s="8">
         <v>10203</v>
@@ -3128,16 +3147,16 @@
         <v>1</v>
       </c>
       <c r="I19" s="10">
-        <v>86400</v>
+        <v>50400</v>
       </c>
       <c r="J19" s="11">
-        <v>375</v>
+        <v>2000000</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="IC19"/>
     </row>
@@ -3146,10 +3165,10 @@
         <v>10203</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F20" s="8">
         <v>10204</v>
@@ -3161,16 +3180,16 @@
         <v>2</v>
       </c>
       <c r="I20" s="10">
-        <v>86400</v>
+        <v>61200</v>
       </c>
       <c r="J20" s="11">
-        <v>560</v>
+        <v>2500000</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="IC20"/>
     </row>
@@ -3179,10 +3198,10 @@
         <v>10204</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F21" s="8">
         <v>10205</v>
@@ -3194,16 +3213,16 @@
         <v>2</v>
       </c>
       <c r="I21" s="10">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="J21" s="11">
-        <v>775</v>
+        <v>3000000</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="IC21"/>
     </row>
@@ -3212,10 +3231,10 @@
         <v>10205</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F22" s="8">
         <v>10206</v>
@@ -3227,16 +3246,16 @@
         <v>2</v>
       </c>
       <c r="I22" s="10">
-        <v>86400</v>
+        <v>82800</v>
       </c>
       <c r="J22" s="11">
-        <v>1020</v>
+        <v>4000000</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -3244,10 +3263,10 @@
         <v>10206</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F23" s="8">
         <v>10207</v>
@@ -3259,16 +3278,16 @@
         <v>3</v>
       </c>
       <c r="I23" s="10">
-        <v>86400</v>
+        <v>93600</v>
       </c>
       <c r="J23" s="11">
-        <v>1330</v>
+        <v>5000000</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -3276,10 +3295,10 @@
         <v>10207</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F24" s="8">
         <v>10208</v>
@@ -3291,16 +3310,16 @@
         <v>3</v>
       </c>
       <c r="I24" s="10">
-        <v>86400</v>
+        <v>104400</v>
       </c>
       <c r="J24" s="11">
-        <v>1680</v>
+        <v>6000000</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="IC24"/>
     </row>
@@ -3309,10 +3328,10 @@
         <v>10208</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F25" s="8">
         <v>10209</v>
@@ -3324,16 +3343,16 @@
         <v>3</v>
       </c>
       <c r="I25" s="10">
-        <v>86400</v>
+        <v>115200</v>
       </c>
       <c r="J25" s="11">
-        <v>2070</v>
+        <v>7000000</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="IC25"/>
     </row>
@@ -3342,10 +3361,10 @@
         <v>10209</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F26" s="8">
         <v>10210</v>
@@ -3357,16 +3376,16 @@
         <v>3</v>
       </c>
       <c r="I26" s="10">
-        <v>86400</v>
+        <v>126000</v>
       </c>
       <c r="J26" s="11">
-        <v>2500</v>
+        <v>8000000</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="IC26"/>
     </row>
@@ -3375,10 +3394,10 @@
         <v>10210</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F27" s="8">
         <v>0</v>
@@ -3390,16 +3409,16 @@
         <v>3</v>
       </c>
       <c r="I27" s="10">
-        <v>86400</v>
+        <v>126000</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="IC27"/>
     </row>
@@ -3408,10 +3427,10 @@
         <v>10300</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F28" s="8">
         <v>10301</v>
@@ -3423,13 +3442,13 @@
         <v>1</v>
       </c>
       <c r="I28" s="10">
-        <v>86400</v>
+        <v>28800</v>
       </c>
       <c r="J28" s="11">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="L28" s="10"/>
     </row>
@@ -3438,10 +3457,10 @@
         <v>10301</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F29" s="8">
         <v>10302</v>
@@ -3453,16 +3472,16 @@
         <v>1</v>
       </c>
       <c r="I29" s="10">
-        <v>86400</v>
+        <v>39600</v>
       </c>
       <c r="J29" s="11">
-        <v>220.00000000000003</v>
+        <v>1500000</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -3470,10 +3489,10 @@
         <v>10302</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F30" s="8">
         <v>10303</v>
@@ -3485,16 +3504,16 @@
         <v>1</v>
       </c>
       <c r="I30" s="10">
-        <v>86400</v>
+        <v>50400</v>
       </c>
       <c r="J30" s="11">
-        <v>375</v>
+        <v>2000000</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="IC30"/>
     </row>
@@ -3503,10 +3522,10 @@
         <v>10303</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F31" s="8">
         <v>10304</v>
@@ -3518,16 +3537,16 @@
         <v>2</v>
       </c>
       <c r="I31" s="10">
-        <v>86400</v>
+        <v>61200</v>
       </c>
       <c r="J31" s="11">
-        <v>560</v>
+        <v>2500000</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="IC31"/>
     </row>
@@ -3536,10 +3555,10 @@
         <v>10304</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F32" s="8">
         <v>10305</v>
@@ -3551,16 +3570,16 @@
         <v>2</v>
       </c>
       <c r="I32" s="10">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="J32" s="11">
-        <v>775</v>
+        <v>3000000</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="IC32"/>
     </row>
@@ -3569,10 +3588,10 @@
         <v>10305</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F33" s="8">
         <v>10306</v>
@@ -3584,16 +3603,16 @@
         <v>2</v>
       </c>
       <c r="I33" s="10">
-        <v>86400</v>
+        <v>82800</v>
       </c>
       <c r="J33" s="11">
-        <v>1020</v>
+        <v>4000000</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -3601,10 +3620,10 @@
         <v>10306</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F34" s="8">
         <v>10307</v>
@@ -3616,16 +3635,16 @@
         <v>3</v>
       </c>
       <c r="I34" s="10">
-        <v>86400</v>
+        <v>93600</v>
       </c>
       <c r="J34" s="11">
-        <v>1330</v>
+        <v>5000000</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="IC34"/>
     </row>
@@ -3634,10 +3653,10 @@
         <v>10307</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F35" s="8">
         <v>10308</v>
@@ -3649,16 +3668,16 @@
         <v>3</v>
       </c>
       <c r="I35" s="10">
-        <v>86400</v>
+        <v>104400</v>
       </c>
       <c r="J35" s="11">
-        <v>1680</v>
+        <v>6000000</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="IC35"/>
     </row>
@@ -3667,10 +3686,10 @@
         <v>10308</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F36" s="8">
         <v>10309</v>
@@ -3682,16 +3701,16 @@
         <v>3</v>
       </c>
       <c r="I36" s="10">
-        <v>86400</v>
+        <v>115200</v>
       </c>
       <c r="J36" s="11">
-        <v>2070</v>
+        <v>7000000</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="IC36"/>
     </row>
@@ -3700,10 +3719,10 @@
         <v>10309</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F37" s="8">
         <v>10310</v>
@@ -3715,16 +3734,16 @@
         <v>3</v>
       </c>
       <c r="I37" s="10">
-        <v>86400</v>
+        <v>126000</v>
       </c>
       <c r="J37" s="11">
-        <v>2500</v>
+        <v>8000000</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="IC37"/>
     </row>
@@ -3733,10 +3752,10 @@
         <v>10310</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F38" s="8">
         <v>0</v>
@@ -3748,16 +3767,16 @@
         <v>3</v>
       </c>
       <c r="I38" s="10">
-        <v>86400</v>
+        <v>126000</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="IC38"/>
     </row>
@@ -3766,10 +3785,10 @@
         <v>10400</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F39" s="8">
         <v>10401</v>
@@ -3781,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="I39" s="10">
-        <v>86400</v>
+        <v>28800</v>
       </c>
       <c r="J39" s="11">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="L39" s="10"/>
     </row>
@@ -3796,10 +3815,10 @@
         <v>10401</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F40" s="8">
         <v>10402</v>
@@ -3811,16 +3830,16 @@
         <v>1</v>
       </c>
       <c r="I40" s="10">
-        <v>86400</v>
+        <v>39600</v>
       </c>
       <c r="J40" s="11">
-        <v>220.00000000000003</v>
+        <v>1500000</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -3828,10 +3847,10 @@
         <v>10402</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F41" s="8">
         <v>10403</v>
@@ -3843,16 +3862,16 @@
         <v>1</v>
       </c>
       <c r="I41" s="10">
-        <v>86400</v>
+        <v>50400</v>
       </c>
       <c r="J41" s="11">
-        <v>375</v>
+        <v>2000000</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="IC41"/>
     </row>
@@ -3861,10 +3880,10 @@
         <v>10403</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F42" s="8">
         <v>10404</v>
@@ -3876,16 +3895,16 @@
         <v>2</v>
       </c>
       <c r="I42" s="10">
-        <v>86400</v>
+        <v>61200</v>
       </c>
       <c r="J42" s="11">
-        <v>560</v>
+        <v>2500000</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="IC42"/>
     </row>
@@ -3894,10 +3913,10 @@
         <v>10404</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F43" s="8">
         <v>10405</v>
@@ -3909,16 +3928,16 @@
         <v>2</v>
       </c>
       <c r="I43" s="10">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="J43" s="11">
-        <v>775</v>
+        <v>3000000</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="IC43"/>
     </row>
@@ -3927,10 +3946,10 @@
         <v>10405</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F44" s="8">
         <v>10406</v>
@@ -3942,16 +3961,16 @@
         <v>2</v>
       </c>
       <c r="I44" s="10">
-        <v>86400</v>
+        <v>82800</v>
       </c>
       <c r="J44" s="11">
-        <v>1020</v>
+        <v>4000000</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -3959,10 +3978,10 @@
         <v>10406</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F45" s="8">
         <v>10407</v>
@@ -3974,16 +3993,16 @@
         <v>3</v>
       </c>
       <c r="I45" s="10">
-        <v>86400</v>
+        <v>93600</v>
       </c>
       <c r="J45" s="11">
-        <v>1330</v>
+        <v>5000000</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -3991,10 +4010,10 @@
         <v>10407</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F46" s="8">
         <v>10408</v>
@@ -4006,16 +4025,16 @@
         <v>3</v>
       </c>
       <c r="I46" s="10">
-        <v>86400</v>
+        <v>104400</v>
       </c>
       <c r="J46" s="11">
-        <v>1680</v>
+        <v>6000000</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="IC46"/>
     </row>
@@ -4024,10 +4043,10 @@
         <v>10408</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F47" s="8">
         <v>10409</v>
@@ -4039,16 +4058,16 @@
         <v>3</v>
       </c>
       <c r="I47" s="10">
-        <v>86400</v>
+        <v>115200</v>
       </c>
       <c r="J47" s="11">
-        <v>2070</v>
+        <v>7000000</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="IC47"/>
     </row>
@@ -4057,10 +4076,10 @@
         <v>10409</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F48" s="8">
         <v>10410</v>
@@ -4072,16 +4091,16 @@
         <v>3</v>
       </c>
       <c r="I48" s="10">
-        <v>86400</v>
+        <v>126000</v>
       </c>
       <c r="J48" s="11">
-        <v>2500</v>
+        <v>8000000</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="IC48"/>
     </row>
@@ -4090,10 +4109,10 @@
         <v>10410</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F49" s="8">
         <v>0</v>
@@ -4105,16 +4124,16 @@
         <v>3</v>
       </c>
       <c r="I49" s="10">
-        <v>86400</v>
+        <v>126000</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="IC49"/>
     </row>
@@ -4123,10 +4142,10 @@
         <v>10500</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F50" s="8">
         <v>10501</v>
@@ -4138,13 +4157,13 @@
         <v>1</v>
       </c>
       <c r="I50" s="10">
-        <v>86400</v>
+        <v>28800</v>
       </c>
       <c r="J50" s="11">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="L50" s="10"/>
     </row>
@@ -4153,10 +4172,10 @@
         <v>10501</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F51" s="8">
         <v>10502</v>
@@ -4168,16 +4187,16 @@
         <v>1</v>
       </c>
       <c r="I51" s="10">
-        <v>86400</v>
+        <v>39600</v>
       </c>
       <c r="J51" s="11">
-        <v>220.00000000000003</v>
+        <v>1500000</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -4185,10 +4204,10 @@
         <v>10502</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F52" s="8">
         <v>10503</v>
@@ -4200,16 +4219,16 @@
         <v>1</v>
       </c>
       <c r="I52" s="10">
-        <v>86400</v>
+        <v>50400</v>
       </c>
       <c r="J52" s="11">
-        <v>375</v>
+        <v>2000000</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="IC52"/>
     </row>
@@ -4218,10 +4237,10 @@
         <v>10503</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F53" s="8">
         <v>10504</v>
@@ -4233,16 +4252,16 @@
         <v>2</v>
       </c>
       <c r="I53" s="10">
-        <v>86400</v>
+        <v>61200</v>
       </c>
       <c r="J53" s="11">
-        <v>560</v>
+        <v>2500000</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="IC53"/>
     </row>
@@ -4251,10 +4270,10 @@
         <v>10504</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F54" s="8">
         <v>10505</v>
@@ -4266,16 +4285,16 @@
         <v>2</v>
       </c>
       <c r="I54" s="10">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="J54" s="11">
-        <v>775</v>
+        <v>3000000</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="IC54"/>
     </row>
@@ -4284,10 +4303,10 @@
         <v>10505</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F55" s="8">
         <v>10506</v>
@@ -4299,16 +4318,16 @@
         <v>2</v>
       </c>
       <c r="I55" s="10">
-        <v>86400</v>
+        <v>82800</v>
       </c>
       <c r="J55" s="11">
-        <v>1020</v>
+        <v>4000000</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -4316,10 +4335,10 @@
         <v>10506</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F56" s="8">
         <v>10507</v>
@@ -4331,16 +4350,16 @@
         <v>3</v>
       </c>
       <c r="I56" s="10">
-        <v>86400</v>
+        <v>93600</v>
       </c>
       <c r="J56" s="11">
-        <v>1330</v>
+        <v>5000000</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -4348,10 +4367,10 @@
         <v>10507</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F57" s="8">
         <v>10508</v>
@@ -4363,16 +4382,16 @@
         <v>3</v>
       </c>
       <c r="I57" s="10">
-        <v>86400</v>
+        <v>104400</v>
       </c>
       <c r="J57" s="11">
-        <v>1680</v>
+        <v>6000000</v>
       </c>
       <c r="K57" s="11" t="s">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="IC57"/>
     </row>
@@ -4381,10 +4400,10 @@
         <v>10508</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F58" s="8">
         <v>10509</v>
@@ -4396,16 +4415,16 @@
         <v>3</v>
       </c>
       <c r="I58" s="10">
-        <v>86400</v>
+        <v>115200</v>
       </c>
       <c r="J58" s="11">
-        <v>2070</v>
+        <v>7000000</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="IC58"/>
     </row>
@@ -4414,10 +4433,10 @@
         <v>10509</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F59" s="8">
         <v>10510</v>
@@ -4429,16 +4448,16 @@
         <v>3</v>
       </c>
       <c r="I59" s="10">
-        <v>86400</v>
+        <v>126000</v>
       </c>
       <c r="J59" s="11">
-        <v>2500</v>
+        <v>8000000</v>
       </c>
       <c r="K59" s="11" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="IC59"/>
     </row>
@@ -4447,10 +4466,10 @@
         <v>10510</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F60" s="8">
         <v>0</v>
@@ -4462,16 +4481,16 @@
         <v>3</v>
       </c>
       <c r="I60" s="10">
-        <v>86400</v>
+        <v>126000</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="IC60"/>
     </row>
@@ -4480,10 +4499,10 @@
         <v>10600</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F61" s="8">
         <v>10601</v>
@@ -4495,13 +4514,13 @@
         <v>1</v>
       </c>
       <c r="I61" s="10">
-        <v>86400</v>
+        <v>28800</v>
       </c>
       <c r="J61" s="11">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="K61" s="11" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="L61" s="10"/>
     </row>
@@ -4510,10 +4529,10 @@
         <v>10601</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F62" s="8">
         <v>10602</v>
@@ -4525,16 +4544,16 @@
         <v>1</v>
       </c>
       <c r="I62" s="10">
-        <v>86400</v>
+        <v>39600</v>
       </c>
       <c r="J62" s="11">
-        <v>220.00000000000003</v>
+        <v>1500000</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -4542,10 +4561,10 @@
         <v>10602</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F63" s="8">
         <v>10603</v>
@@ -4557,16 +4576,16 @@
         <v>1</v>
       </c>
       <c r="I63" s="10">
-        <v>86400</v>
+        <v>50400</v>
       </c>
       <c r="J63" s="11">
-        <v>375</v>
+        <v>2000000</v>
       </c>
       <c r="K63" s="11" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="L63" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="IC63"/>
     </row>
@@ -4575,10 +4594,10 @@
         <v>10603</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F64" s="8">
         <v>10604</v>
@@ -4590,16 +4609,16 @@
         <v>2</v>
       </c>
       <c r="I64" s="10">
-        <v>86400</v>
+        <v>61200</v>
       </c>
       <c r="J64" s="11">
-        <v>560</v>
+        <v>2500000</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="L64" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="IC64"/>
     </row>
@@ -4608,10 +4627,10 @@
         <v>10604</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F65" s="8">
         <v>10605</v>
@@ -4623,16 +4642,16 @@
         <v>2</v>
       </c>
       <c r="I65" s="10">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="J65" s="11">
-        <v>775</v>
+        <v>3000000</v>
       </c>
       <c r="K65" s="11" t="s">
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="L65" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="IC65"/>
     </row>
@@ -4641,10 +4660,10 @@
         <v>10605</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F66" s="8">
         <v>10606</v>
@@ -4656,16 +4675,16 @@
         <v>2</v>
       </c>
       <c r="I66" s="10">
-        <v>86400</v>
+        <v>82800</v>
       </c>
       <c r="J66" s="11">
-        <v>1020</v>
+        <v>4000000</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="L66" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -4673,10 +4692,10 @@
         <v>10606</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F67" s="8">
         <v>10607</v>
@@ -4688,16 +4707,16 @@
         <v>3</v>
       </c>
       <c r="I67" s="10">
-        <v>86400</v>
+        <v>93600</v>
       </c>
       <c r="J67" s="11">
-        <v>1330</v>
+        <v>5000000</v>
       </c>
       <c r="K67" s="11" t="s">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="L67" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -4705,10 +4724,10 @@
         <v>10607</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F68" s="8">
         <v>10608</v>
@@ -4720,16 +4739,16 @@
         <v>3</v>
       </c>
       <c r="I68" s="10">
-        <v>86400</v>
+        <v>104400</v>
       </c>
       <c r="J68" s="11">
-        <v>1680</v>
+        <v>6000000</v>
       </c>
       <c r="K68" s="11" t="s">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="L68" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="IC68"/>
     </row>
@@ -4738,10 +4757,10 @@
         <v>10608</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F69" s="8">
         <v>10609</v>
@@ -4753,16 +4772,16 @@
         <v>3</v>
       </c>
       <c r="I69" s="10">
-        <v>86400</v>
+        <v>115200</v>
       </c>
       <c r="J69" s="11">
-        <v>2070</v>
+        <v>7000000</v>
       </c>
       <c r="K69" s="11" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="L69" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="IC69"/>
     </row>
@@ -4771,10 +4790,10 @@
         <v>10609</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F70" s="8">
         <v>10610</v>
@@ -4786,16 +4805,16 @@
         <v>3</v>
       </c>
       <c r="I70" s="10">
-        <v>86400</v>
+        <v>126000</v>
       </c>
       <c r="J70" s="11">
-        <v>2500</v>
+        <v>8000000</v>
       </c>
       <c r="K70" s="11" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="L70" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="IC70"/>
     </row>
@@ -4804,10 +4823,10 @@
         <v>10610</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F71" s="8">
         <v>0</v>
@@ -4819,16 +4838,16 @@
         <v>3</v>
       </c>
       <c r="I71" s="10">
-        <v>86400</v>
+        <v>126000</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="K71" s="11" t="s">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="L71" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="IC71"/>
     </row>
@@ -4837,10 +4856,10 @@
         <v>10700</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F72" s="8">
         <v>10701</v>
@@ -4852,13 +4871,13 @@
         <v>1</v>
       </c>
       <c r="I72" s="10">
-        <v>86400</v>
+        <v>28800</v>
       </c>
       <c r="J72" s="11">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="K72" s="11" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="L72" s="10"/>
     </row>
@@ -4867,10 +4886,10 @@
         <v>10701</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F73" s="8">
         <v>10702</v>
@@ -4882,16 +4901,16 @@
         <v>1</v>
       </c>
       <c r="I73" s="10">
-        <v>86400</v>
+        <v>39600</v>
       </c>
       <c r="J73" s="11">
-        <v>220.00000000000003</v>
+        <v>1500000</v>
       </c>
       <c r="K73" s="11" t="s">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="L73" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -4899,10 +4918,10 @@
         <v>10702</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F74" s="8">
         <v>10703</v>
@@ -4914,16 +4933,16 @@
         <v>1</v>
       </c>
       <c r="I74" s="10">
-        <v>86400</v>
+        <v>50400</v>
       </c>
       <c r="J74" s="11">
-        <v>375</v>
+        <v>2000000</v>
       </c>
       <c r="K74" s="11" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="L74" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="IC74"/>
     </row>
@@ -4932,10 +4951,10 @@
         <v>10703</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F75" s="8">
         <v>10704</v>
@@ -4947,16 +4966,16 @@
         <v>2</v>
       </c>
       <c r="I75" s="10">
-        <v>86400</v>
+        <v>61200</v>
       </c>
       <c r="J75" s="11">
-        <v>560</v>
+        <v>2500000</v>
       </c>
       <c r="K75" s="11" t="s">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="L75" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="IC75"/>
     </row>
@@ -4965,10 +4984,10 @@
         <v>10704</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F76" s="8">
         <v>10705</v>
@@ -4980,16 +4999,16 @@
         <v>2</v>
       </c>
       <c r="I76" s="10">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="J76" s="11">
-        <v>775</v>
+        <v>3000000</v>
       </c>
       <c r="K76" s="11" t="s">
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="L76" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="IC76"/>
     </row>
@@ -4998,10 +5017,10 @@
         <v>10705</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F77" s="8">
         <v>10706</v>
@@ -5013,16 +5032,16 @@
         <v>2</v>
       </c>
       <c r="I77" s="10">
-        <v>86400</v>
+        <v>82800</v>
       </c>
       <c r="J77" s="11">
-        <v>1020</v>
+        <v>4000000</v>
       </c>
       <c r="K77" s="11" t="s">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="L77" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -5030,10 +5049,10 @@
         <v>10706</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F78" s="8">
         <v>10707</v>
@@ -5045,16 +5064,16 @@
         <v>3</v>
       </c>
       <c r="I78" s="10">
-        <v>86400</v>
+        <v>93600</v>
       </c>
       <c r="J78" s="11">
-        <v>1330</v>
+        <v>5000000</v>
       </c>
       <c r="K78" s="11" t="s">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="L78" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -5062,10 +5081,10 @@
         <v>10707</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F79" s="8">
         <v>10708</v>
@@ -5077,16 +5096,16 @@
         <v>3</v>
       </c>
       <c r="I79" s="10">
-        <v>86400</v>
+        <v>104400</v>
       </c>
       <c r="J79" s="11">
-        <v>1680</v>
+        <v>6000000</v>
       </c>
       <c r="K79" s="11" t="s">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="L79" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="IC79"/>
     </row>
@@ -5095,10 +5114,10 @@
         <v>10708</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F80" s="8">
         <v>10709</v>
@@ -5110,16 +5129,16 @@
         <v>3</v>
       </c>
       <c r="I80" s="10">
-        <v>86400</v>
+        <v>115200</v>
       </c>
       <c r="J80" s="11">
-        <v>2070</v>
+        <v>7000000</v>
       </c>
       <c r="K80" s="11" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="L80" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="IC80"/>
     </row>
@@ -5128,10 +5147,10 @@
         <v>10709</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F81" s="8">
         <v>10710</v>
@@ -5143,16 +5162,16 @@
         <v>3</v>
       </c>
       <c r="I81" s="10">
-        <v>86400</v>
+        <v>126000</v>
       </c>
       <c r="J81" s="11">
-        <v>2500</v>
+        <v>8000000</v>
       </c>
       <c r="K81" s="11" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="L81" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="IC81"/>
     </row>
@@ -5161,10 +5180,10 @@
         <v>10710</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F82" s="8">
         <v>0</v>
@@ -5176,16 +5195,16 @@
         <v>3</v>
       </c>
       <c r="I82" s="10">
-        <v>86400</v>
+        <v>126000</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="K82" s="11" t="s">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="L82" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="IC82"/>
     </row>
@@ -5194,10 +5213,10 @@
         <v>10800</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F83" s="8">
         <v>10801</v>
@@ -5209,13 +5228,13 @@
         <v>1</v>
       </c>
       <c r="I83" s="10">
-        <v>86400</v>
+        <v>28800</v>
       </c>
       <c r="J83" s="11">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="K83" s="11" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="L83" s="10"/>
     </row>
@@ -5224,10 +5243,10 @@
         <v>10801</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F84" s="8">
         <v>10802</v>
@@ -5239,16 +5258,16 @@
         <v>1</v>
       </c>
       <c r="I84" s="10">
-        <v>86400</v>
+        <v>39600</v>
       </c>
       <c r="J84" s="11">
-        <v>220.00000000000003</v>
+        <v>1500000</v>
       </c>
       <c r="K84" s="11" t="s">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="L84" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -5256,10 +5275,10 @@
         <v>10802</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F85" s="8">
         <v>10803</v>
@@ -5271,16 +5290,16 @@
         <v>1</v>
       </c>
       <c r="I85" s="10">
-        <v>86400</v>
+        <v>50400</v>
       </c>
       <c r="J85" s="11">
-        <v>375</v>
+        <v>2000000</v>
       </c>
       <c r="K85" s="11" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="L85" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="IC85"/>
     </row>
@@ -5289,10 +5308,10 @@
         <v>10803</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F86" s="8">
         <v>10804</v>
@@ -5304,16 +5323,16 @@
         <v>2</v>
       </c>
       <c r="I86" s="10">
-        <v>86400</v>
+        <v>61200</v>
       </c>
       <c r="J86" s="11">
-        <v>560</v>
+        <v>2500000</v>
       </c>
       <c r="K86" s="11" t="s">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="L86" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="IC86"/>
     </row>
@@ -5322,10 +5341,10 @@
         <v>10804</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F87" s="8">
         <v>10805</v>
@@ -5337,16 +5356,16 @@
         <v>2</v>
       </c>
       <c r="I87" s="10">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="J87" s="11">
-        <v>775</v>
+        <v>3000000</v>
       </c>
       <c r="K87" s="11" t="s">
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="L87" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="IC87"/>
     </row>
@@ -5355,10 +5374,10 @@
         <v>10805</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F88" s="8">
         <v>10806</v>
@@ -5370,16 +5389,16 @@
         <v>2</v>
       </c>
       <c r="I88" s="10">
-        <v>86400</v>
+        <v>82800</v>
       </c>
       <c r="J88" s="11">
-        <v>1020</v>
+        <v>4000000</v>
       </c>
       <c r="K88" s="11" t="s">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="L88" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -5387,10 +5406,10 @@
         <v>10806</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F89" s="8">
         <v>10807</v>
@@ -5402,16 +5421,16 @@
         <v>3</v>
       </c>
       <c r="I89" s="10">
-        <v>86400</v>
+        <v>93600</v>
       </c>
       <c r="J89" s="11">
-        <v>1330</v>
+        <v>5000000</v>
       </c>
       <c r="K89" s="11" t="s">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="L89" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="90" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -5419,10 +5438,10 @@
         <v>10807</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F90" s="8">
         <v>10808</v>
@@ -5434,16 +5453,16 @@
         <v>3</v>
       </c>
       <c r="I90" s="10">
-        <v>86400</v>
+        <v>104400</v>
       </c>
       <c r="J90" s="11">
-        <v>1680</v>
+        <v>6000000</v>
       </c>
       <c r="K90" s="11" t="s">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="L90" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="IC90"/>
     </row>
@@ -5452,10 +5471,10 @@
         <v>10808</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F91" s="8">
         <v>10809</v>
@@ -5467,16 +5486,16 @@
         <v>3</v>
       </c>
       <c r="I91" s="10">
-        <v>86400</v>
+        <v>115200</v>
       </c>
       <c r="J91" s="11">
-        <v>2070</v>
+        <v>7000000</v>
       </c>
       <c r="K91" s="11" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="L91" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="IC91"/>
     </row>
@@ -5485,10 +5504,10 @@
         <v>10809</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F92" s="8">
         <v>10810</v>
@@ -5500,16 +5519,16 @@
         <v>3</v>
       </c>
       <c r="I92" s="10">
-        <v>86400</v>
+        <v>126000</v>
       </c>
       <c r="J92" s="11">
-        <v>2500</v>
+        <v>8000000</v>
       </c>
       <c r="K92" s="11" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="L92" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="IC92"/>
     </row>
@@ -5518,10 +5537,10 @@
         <v>10810</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F93" s="8">
         <v>0</v>
@@ -5533,16 +5552,16 @@
         <v>3</v>
       </c>
       <c r="I93" s="10">
-        <v>86400</v>
+        <v>126000</v>
       </c>
       <c r="J93" s="11" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="K93" s="11" t="s">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="L93" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="IC93"/>
     </row>

--- a/Excel/UnionKeJiConfig.xlsx
+++ b/Excel/UnionKeJiConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB0E374-8EA6-47ED-9D10-A8AD52533554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3083A4F-8180-4661-8097-31750AFF5A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -583,7 +583,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="211">
   <si>
     <t>Id</t>
   </si>
@@ -1219,6 +1219,33 @@
   </si>
   <si>
     <t>16;3600@10000163;60</t>
+  </si>
+  <si>
+    <t>keji_2</t>
+  </si>
+  <si>
+    <t>keji_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>keji_4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>keji_5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>keji_6</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>keji_7</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>keji_8</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2590,8 +2617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:IC93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="K83" sqref="K83:K93"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3073,7 +3100,7 @@
         <v>112</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="F17" s="8">
         <v>10201</v>
@@ -3103,7 +3130,7 @@
         <v>113</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="F18" s="8">
         <v>10202</v>
@@ -3135,7 +3162,7 @@
         <v>114</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="F19" s="8">
         <v>10203</v>
@@ -3168,7 +3195,7 @@
         <v>115</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="F20" s="8">
         <v>10204</v>
@@ -3201,7 +3228,7 @@
         <v>116</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="F21" s="8">
         <v>10205</v>
@@ -3234,7 +3261,7 @@
         <v>117</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="F22" s="8">
         <v>10206</v>
@@ -3266,7 +3293,7 @@
         <v>118</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="F23" s="8">
         <v>10207</v>
@@ -3298,7 +3325,7 @@
         <v>119</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="F24" s="8">
         <v>10208</v>
@@ -3331,7 +3358,7 @@
         <v>120</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="F25" s="8">
         <v>10209</v>
@@ -3364,7 +3391,7 @@
         <v>121</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="F26" s="8">
         <v>10210</v>
@@ -3397,7 +3424,7 @@
         <v>122</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="F27" s="8">
         <v>0</v>
@@ -3430,7 +3457,7 @@
         <v>144</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="F28" s="8">
         <v>10301</v>
@@ -3460,7 +3487,7 @@
         <v>123</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="F29" s="8">
         <v>10302</v>
@@ -3492,7 +3519,7 @@
         <v>124</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="F30" s="8">
         <v>10303</v>
@@ -3525,7 +3552,7 @@
         <v>125</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="F31" s="8">
         <v>10304</v>
@@ -3558,7 +3585,7 @@
         <v>126</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="F32" s="8">
         <v>10305</v>
@@ -3591,7 +3618,7 @@
         <v>127</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="F33" s="8">
         <v>10306</v>
@@ -3623,7 +3650,7 @@
         <v>128</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="F34" s="8">
         <v>10307</v>
@@ -3656,7 +3683,7 @@
         <v>129</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="F35" s="8">
         <v>10308</v>
@@ -3689,7 +3716,7 @@
         <v>130</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="F36" s="8">
         <v>10309</v>
@@ -3722,7 +3749,7 @@
         <v>131</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="F37" s="8">
         <v>10310</v>
@@ -3755,7 +3782,7 @@
         <v>132</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="F38" s="8">
         <v>0</v>
@@ -3788,7 +3815,7 @@
         <v>133</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="F39" s="8">
         <v>10401</v>
@@ -3818,7 +3845,7 @@
         <v>134</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="F40" s="8">
         <v>10402</v>
@@ -3850,7 +3877,7 @@
         <v>135</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="F41" s="8">
         <v>10403</v>
@@ -3883,7 +3910,7 @@
         <v>136</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="F42" s="8">
         <v>10404</v>
@@ -3916,7 +3943,7 @@
         <v>137</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="F43" s="8">
         <v>10405</v>
@@ -3949,7 +3976,7 @@
         <v>138</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="F44" s="8">
         <v>10406</v>
@@ -3981,7 +4008,7 @@
         <v>139</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="F45" s="8">
         <v>10407</v>
@@ -4013,7 +4040,7 @@
         <v>140</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="F46" s="8">
         <v>10408</v>
@@ -4046,7 +4073,7 @@
         <v>141</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="F47" s="8">
         <v>10409</v>
@@ -4079,7 +4106,7 @@
         <v>142</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="F48" s="8">
         <v>10410</v>
@@ -4112,7 +4139,7 @@
         <v>143</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="F49" s="8">
         <v>0</v>
@@ -4145,7 +4172,7 @@
         <v>145</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="F50" s="8">
         <v>10501</v>
@@ -4175,7 +4202,7 @@
         <v>146</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="F51" s="8">
         <v>10502</v>
@@ -4207,7 +4234,7 @@
         <v>147</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="F52" s="8">
         <v>10503</v>
@@ -4240,7 +4267,7 @@
         <v>148</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="F53" s="8">
         <v>10504</v>
@@ -4273,7 +4300,7 @@
         <v>149</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="F54" s="8">
         <v>10505</v>
@@ -4306,7 +4333,7 @@
         <v>150</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="F55" s="8">
         <v>10506</v>
@@ -4338,7 +4365,7 @@
         <v>151</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="F56" s="8">
         <v>10507</v>
@@ -4370,7 +4397,7 @@
         <v>152</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="F57" s="8">
         <v>10508</v>
@@ -4403,7 +4430,7 @@
         <v>153</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="F58" s="8">
         <v>10509</v>
@@ -4436,7 +4463,7 @@
         <v>154</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="F59" s="8">
         <v>10510</v>
@@ -4469,7 +4496,7 @@
         <v>155</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="F60" s="8">
         <v>0</v>
@@ -4502,7 +4529,7 @@
         <v>156</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="F61" s="8">
         <v>10601</v>
@@ -4532,7 +4559,7 @@
         <v>157</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="F62" s="8">
         <v>10602</v>
@@ -4564,7 +4591,7 @@
         <v>158</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="F63" s="8">
         <v>10603</v>
@@ -4597,7 +4624,7 @@
         <v>159</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="F64" s="8">
         <v>10604</v>
@@ -4630,7 +4657,7 @@
         <v>160</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="F65" s="8">
         <v>10605</v>
@@ -4663,7 +4690,7 @@
         <v>161</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="F66" s="8">
         <v>10606</v>
@@ -4695,7 +4722,7 @@
         <v>162</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="F67" s="8">
         <v>10607</v>
@@ -4727,7 +4754,7 @@
         <v>163</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="F68" s="8">
         <v>10608</v>
@@ -4760,7 +4787,7 @@
         <v>164</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="F69" s="8">
         <v>10609</v>
@@ -4793,7 +4820,7 @@
         <v>165</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="F70" s="8">
         <v>10610</v>
@@ -4826,7 +4853,7 @@
         <v>166</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="F71" s="8">
         <v>0</v>
@@ -4859,7 +4886,7 @@
         <v>167</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="F72" s="8">
         <v>10701</v>
@@ -4889,7 +4916,7 @@
         <v>168</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="F73" s="8">
         <v>10702</v>
@@ -4921,7 +4948,7 @@
         <v>169</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="F74" s="8">
         <v>10703</v>
@@ -4954,7 +4981,7 @@
         <v>170</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="F75" s="8">
         <v>10704</v>
@@ -4987,7 +5014,7 @@
         <v>171</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="F76" s="8">
         <v>10705</v>
@@ -5020,7 +5047,7 @@
         <v>172</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="F77" s="8">
         <v>10706</v>
@@ -5052,7 +5079,7 @@
         <v>173</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="F78" s="8">
         <v>10707</v>
@@ -5084,7 +5111,7 @@
         <v>174</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="F79" s="8">
         <v>10708</v>
@@ -5117,7 +5144,7 @@
         <v>175</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="F80" s="8">
         <v>10709</v>
@@ -5150,7 +5177,7 @@
         <v>176</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="F81" s="8">
         <v>10710</v>
@@ -5183,7 +5210,7 @@
         <v>177</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="F82" s="8">
         <v>0</v>
@@ -5216,7 +5243,7 @@
         <v>178</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="F83" s="8">
         <v>10801</v>
@@ -5246,7 +5273,7 @@
         <v>179</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="F84" s="8">
         <v>10802</v>
@@ -5278,7 +5305,7 @@
         <v>180</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="F85" s="8">
         <v>10803</v>
@@ -5311,7 +5338,7 @@
         <v>181</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="F86" s="8">
         <v>10804</v>
@@ -5344,7 +5371,7 @@
         <v>182</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="F87" s="8">
         <v>10805</v>
@@ -5377,7 +5404,7 @@
         <v>183</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="F88" s="8">
         <v>10806</v>
@@ -5409,7 +5436,7 @@
         <v>184</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="F89" s="8">
         <v>10807</v>
@@ -5441,7 +5468,7 @@
         <v>185</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="F90" s="8">
         <v>10808</v>
@@ -5474,7 +5501,7 @@
         <v>186</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="F91" s="8">
         <v>10809</v>
@@ -5507,7 +5534,7 @@
         <v>187</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="F92" s="8">
         <v>10810</v>
@@ -5540,7 +5567,7 @@
         <v>188</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="F93" s="8">
         <v>0</v>

--- a/Excel/UnionKeJiConfig.xlsx
+++ b/Excel/UnionKeJiConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3083A4F-8180-4661-8097-31750AFF5A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEDE8F2-B0D4-4DEF-BA18-434379D7996F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnionKeJiProto" sheetId="1" r:id="rId1"/>
@@ -659,39 +659,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>经验能力0级</t>
-  </si>
-  <si>
-    <t>经验能力1级</t>
-  </si>
-  <si>
-    <t>经验能力2级</t>
-  </si>
-  <si>
-    <t>经验能力3级</t>
-  </si>
-  <si>
-    <t>经验能力4级</t>
-  </si>
-  <si>
-    <t>经验能力5级</t>
-  </si>
-  <si>
-    <t>经验能力6级</t>
-  </si>
-  <si>
-    <t>经验能力7级</t>
-  </si>
-  <si>
-    <t>经验能力8级</t>
-  </si>
-  <si>
-    <t>经验能力9级</t>
-  </si>
-  <si>
-    <t>经验能力10级</t>
-  </si>
-  <si>
     <t>220103;0.01</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -967,211 +934,6 @@
     <t>金币科技10级</t>
   </si>
   <si>
-    <t>怪攻增伤科技1级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪攻增伤科技2级</t>
-  </si>
-  <si>
-    <t>怪攻增伤科技3级</t>
-  </si>
-  <si>
-    <t>怪攻增伤科技4级</t>
-  </si>
-  <si>
-    <t>怪攻增伤科技5级</t>
-  </si>
-  <si>
-    <t>怪攻增伤科技6级</t>
-  </si>
-  <si>
-    <t>怪攻增伤科技7级</t>
-  </si>
-  <si>
-    <t>怪攻增伤科技8级</t>
-  </si>
-  <si>
-    <t>怪攻增伤科技9级</t>
-  </si>
-  <si>
-    <t>怪攻增伤科技10级</t>
-  </si>
-  <si>
-    <t>怪技增伤科技0级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪技增伤科技1级</t>
-  </si>
-  <si>
-    <t>怪技增伤科技2级</t>
-  </si>
-  <si>
-    <t>怪技增伤科技3级</t>
-  </si>
-  <si>
-    <t>怪技增伤科技4级</t>
-  </si>
-  <si>
-    <t>怪技增伤科技5级</t>
-  </si>
-  <si>
-    <t>怪技增伤科技6级</t>
-  </si>
-  <si>
-    <t>怪技增伤科技7级</t>
-  </si>
-  <si>
-    <t>怪技增伤科技8级</t>
-  </si>
-  <si>
-    <t>怪技增伤科技9级</t>
-  </si>
-  <si>
-    <t>怪技增伤科技10级</t>
-  </si>
-  <si>
-    <t>怪攻增伤科技0级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪攻减伤科技0级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪攻减伤科技1级</t>
-  </si>
-  <si>
-    <t>怪攻减伤科技2级</t>
-  </si>
-  <si>
-    <t>怪攻减伤科技3级</t>
-  </si>
-  <si>
-    <t>怪攻减伤科技4级</t>
-  </si>
-  <si>
-    <t>怪攻减伤科技5级</t>
-  </si>
-  <si>
-    <t>怪攻减伤科技6级</t>
-  </si>
-  <si>
-    <t>怪攻减伤科技7级</t>
-  </si>
-  <si>
-    <t>怪攻减伤科技8级</t>
-  </si>
-  <si>
-    <t>怪攻减伤科技9级</t>
-  </si>
-  <si>
-    <t>怪攻减伤科技10级</t>
-  </si>
-  <si>
-    <t>怪技减伤科技0级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪技减伤科技1级</t>
-  </si>
-  <si>
-    <t>怪技减伤科技2级</t>
-  </si>
-  <si>
-    <t>怪技减伤科技3级</t>
-  </si>
-  <si>
-    <t>怪技减伤科技4级</t>
-  </si>
-  <si>
-    <t>怪技减伤科技5级</t>
-  </si>
-  <si>
-    <t>怪技减伤科技6级</t>
-  </si>
-  <si>
-    <t>怪技减伤科技7级</t>
-  </si>
-  <si>
-    <t>怪技减伤科技8级</t>
-  </si>
-  <si>
-    <t>怪技减伤科技9级</t>
-  </si>
-  <si>
-    <t>怪技减伤科技10级</t>
-  </si>
-  <si>
-    <t>玩家普攻减伤能力0级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家普攻减伤能力1级</t>
-  </si>
-  <si>
-    <t>玩家普攻减伤能力2级</t>
-  </si>
-  <si>
-    <t>玩家普攻减伤能力3级</t>
-  </si>
-  <si>
-    <t>玩家普攻减伤能力4级</t>
-  </si>
-  <si>
-    <t>玩家普攻减伤能力5级</t>
-  </si>
-  <si>
-    <t>玩家普攻减伤能力6级</t>
-  </si>
-  <si>
-    <t>玩家普攻减伤能力7级</t>
-  </si>
-  <si>
-    <t>玩家普攻减伤能力8级</t>
-  </si>
-  <si>
-    <t>玩家普攻减伤能力9级</t>
-  </si>
-  <si>
-    <t>玩家普攻减伤能力10级</t>
-  </si>
-  <si>
-    <t>玩家技能减伤能力0级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家技能减伤能力1级</t>
-  </si>
-  <si>
-    <t>玩家技能减伤能力2级</t>
-  </si>
-  <si>
-    <t>玩家技能减伤能力3级</t>
-  </si>
-  <si>
-    <t>玩家技能减伤能力4级</t>
-  </si>
-  <si>
-    <t>玩家技能减伤能力5级</t>
-  </si>
-  <si>
-    <t>玩家技能减伤能力6级</t>
-  </si>
-  <si>
-    <t>玩家技能减伤能力7级</t>
-  </si>
-  <si>
-    <t>玩家技能减伤能力8级</t>
-  </si>
-  <si>
-    <t>玩家技能减伤能力9级</t>
-  </si>
-  <si>
-    <t>玩家技能减伤能力10级</t>
-  </si>
-  <si>
     <t>图标</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1246,6 +1008,243 @@
   <si>
     <t>keji_8</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验科技0级</t>
+  </si>
+  <si>
+    <t>经验科技1级</t>
+  </si>
+  <si>
+    <t>经验科技2级</t>
+  </si>
+  <si>
+    <t>经验科技3级</t>
+  </si>
+  <si>
+    <t>经验科技4级</t>
+  </si>
+  <si>
+    <t>经验科技5级</t>
+  </si>
+  <si>
+    <t>经验科技6级</t>
+  </si>
+  <si>
+    <t>经验科技7级</t>
+  </si>
+  <si>
+    <t>经验科技8级</t>
+  </si>
+  <si>
+    <t>经验科技9级</t>
+  </si>
+  <si>
+    <t>经验科技10级</t>
+  </si>
+  <si>
+    <t>怪之攻防2级</t>
+  </si>
+  <si>
+    <t>怪之攻伤0级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪之攻伤1级</t>
+  </si>
+  <si>
+    <t>怪之攻伤2级</t>
+  </si>
+  <si>
+    <t>怪之攻伤3级</t>
+  </si>
+  <si>
+    <t>怪之攻伤4级</t>
+  </si>
+  <si>
+    <t>怪之攻伤5级</t>
+  </si>
+  <si>
+    <t>怪之攻伤6级</t>
+  </si>
+  <si>
+    <t>怪之攻伤7级</t>
+  </si>
+  <si>
+    <t>怪之攻伤8级</t>
+  </si>
+  <si>
+    <t>怪之攻伤9级</t>
+  </si>
+  <si>
+    <t>怪之攻伤10级</t>
+  </si>
+  <si>
+    <t>怪之攻防0级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪之攻防1级</t>
+  </si>
+  <si>
+    <t>怪之攻防3级</t>
+  </si>
+  <si>
+    <t>怪之攻防4级</t>
+  </si>
+  <si>
+    <t>怪之攻防5级</t>
+  </si>
+  <si>
+    <t>怪之攻防6级</t>
+  </si>
+  <si>
+    <t>怪之攻防7级</t>
+  </si>
+  <si>
+    <t>怪之攻防8级</t>
+  </si>
+  <si>
+    <t>怪之攻防9级</t>
+  </si>
+  <si>
+    <t>怪之攻防10级</t>
+  </si>
+  <si>
+    <t>怪之技伤0级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪之技伤1级</t>
+  </si>
+  <si>
+    <t>怪之技伤2级</t>
+  </si>
+  <si>
+    <t>怪之技伤3级</t>
+  </si>
+  <si>
+    <t>怪之技伤4级</t>
+  </si>
+  <si>
+    <t>怪之技伤5级</t>
+  </si>
+  <si>
+    <t>怪之技伤6级</t>
+  </si>
+  <si>
+    <t>怪之技伤7级</t>
+  </si>
+  <si>
+    <t>怪之技伤8级</t>
+  </si>
+  <si>
+    <t>怪之技伤9级</t>
+  </si>
+  <si>
+    <t>怪之技伤10级</t>
+  </si>
+  <si>
+    <t>怪之技防0级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪之技防1级</t>
+  </si>
+  <si>
+    <t>怪之技防2级</t>
+  </si>
+  <si>
+    <t>怪之技防3级</t>
+  </si>
+  <si>
+    <t>怪之技防4级</t>
+  </si>
+  <si>
+    <t>怪之技防5级</t>
+  </si>
+  <si>
+    <t>怪之技防6级</t>
+  </si>
+  <si>
+    <t>怪之技防7级</t>
+  </si>
+  <si>
+    <t>怪之技防8级</t>
+  </si>
+  <si>
+    <t>怪之技防9级</t>
+  </si>
+  <si>
+    <t>怪之技防10级</t>
+  </si>
+  <si>
+    <t>玩家攻减0级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家攻减1级</t>
+  </si>
+  <si>
+    <t>玩家攻减2级</t>
+  </si>
+  <si>
+    <t>玩家攻减3级</t>
+  </si>
+  <si>
+    <t>玩家攻减4级</t>
+  </si>
+  <si>
+    <t>玩家攻减5级</t>
+  </si>
+  <si>
+    <t>玩家攻减6级</t>
+  </si>
+  <si>
+    <t>玩家攻减7级</t>
+  </si>
+  <si>
+    <t>玩家攻减8级</t>
+  </si>
+  <si>
+    <t>玩家攻减9级</t>
+  </si>
+  <si>
+    <t>玩家攻减10级</t>
+  </si>
+  <si>
+    <t>玩家技减0级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家技减1级</t>
+  </si>
+  <si>
+    <t>玩家技减2级</t>
+  </si>
+  <si>
+    <t>玩家技减3级</t>
+  </si>
+  <si>
+    <t>玩家技减4级</t>
+  </si>
+  <si>
+    <t>玩家技减5级</t>
+  </si>
+  <si>
+    <t>玩家技减6级</t>
+  </si>
+  <si>
+    <t>玩家技减7级</t>
+  </si>
+  <si>
+    <t>玩家技减8级</t>
+  </si>
+  <si>
+    <t>玩家技减9级</t>
+  </si>
+  <si>
+    <t>玩家技减10级</t>
   </si>
 </sst>
 </file>
@@ -2617,8 +2616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:IC93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2646,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>2</v>
@@ -2678,7 +2677,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>190</v>
+        <v>113</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>5</v>
@@ -2739,10 +2738,10 @@
         <v>10100</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="F6" s="8">
         <v>10101</v>
@@ -2760,7 +2759,7 @@
         <v>1000000</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="L6" s="10"/>
     </row>
@@ -2769,10 +2768,10 @@
         <v>10101</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="F7" s="8">
         <v>10102</v>
@@ -2790,10 +2789,10 @@
         <v>1500000</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -2801,10 +2800,10 @@
         <v>10102</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="F8" s="8">
         <v>10103</v>
@@ -2822,10 +2821,10 @@
         <v>2000000</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="IC8"/>
     </row>
@@ -2834,10 +2833,10 @@
         <v>10103</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="F9" s="8">
         <v>10104</v>
@@ -2855,10 +2854,10 @@
         <v>2500000</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="IC9"/>
     </row>
@@ -2867,10 +2866,10 @@
         <v>10104</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="F10" s="8">
         <v>10105</v>
@@ -2888,10 +2887,10 @@
         <v>3000000</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="IC10"/>
     </row>
@@ -2900,10 +2899,10 @@
         <v>10105</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="F11" s="8">
         <v>10106</v>
@@ -2921,10 +2920,10 @@
         <v>4000000</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -2932,10 +2931,10 @@
         <v>10106</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="F12" s="8">
         <v>10107</v>
@@ -2953,10 +2952,10 @@
         <v>5000000</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="IC12"/>
     </row>
@@ -2965,10 +2964,10 @@
         <v>10107</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="F13" s="8">
         <v>10108</v>
@@ -2986,10 +2985,10 @@
         <v>6000000</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="IC13"/>
     </row>
@@ -2998,10 +2997,10 @@
         <v>10108</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="F14" s="8">
         <v>10109</v>
@@ -3019,10 +3018,10 @@
         <v>7000000</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="IC14"/>
     </row>
@@ -3031,10 +3030,10 @@
         <v>10109</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="F15" s="8">
         <v>10110</v>
@@ -3052,10 +3051,10 @@
         <v>8000000</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="IC15"/>
     </row>
@@ -3064,10 +3063,10 @@
         <v>10110</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="F16" s="8">
         <v>0</v>
@@ -3082,13 +3081,13 @@
         <v>126000</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="IC16"/>
     </row>
@@ -3097,10 +3096,10 @@
         <v>10200</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="F17" s="8">
         <v>10201</v>
@@ -3118,7 +3117,7 @@
         <v>1000000</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="L17" s="10"/>
     </row>
@@ -3127,10 +3126,10 @@
         <v>10201</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="F18" s="8">
         <v>10202</v>
@@ -3148,10 +3147,10 @@
         <v>1500000</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -3159,10 +3158,10 @@
         <v>10202</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="F19" s="8">
         <v>10203</v>
@@ -3180,10 +3179,10 @@
         <v>2000000</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="IC19"/>
     </row>
@@ -3192,10 +3191,10 @@
         <v>10203</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="F20" s="8">
         <v>10204</v>
@@ -3213,10 +3212,10 @@
         <v>2500000</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="IC20"/>
     </row>
@@ -3225,10 +3224,10 @@
         <v>10204</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="F21" s="8">
         <v>10205</v>
@@ -3246,10 +3245,10 @@
         <v>3000000</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="IC21"/>
     </row>
@@ -3258,10 +3257,10 @@
         <v>10205</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="F22" s="8">
         <v>10206</v>
@@ -3279,10 +3278,10 @@
         <v>4000000</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -3290,10 +3289,10 @@
         <v>10206</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="F23" s="8">
         <v>10207</v>
@@ -3311,10 +3310,10 @@
         <v>5000000</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -3322,10 +3321,10 @@
         <v>10207</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="F24" s="8">
         <v>10208</v>
@@ -3343,10 +3342,10 @@
         <v>6000000</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="IC24"/>
     </row>
@@ -3355,10 +3354,10 @@
         <v>10208</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="F25" s="8">
         <v>10209</v>
@@ -3376,10 +3375,10 @@
         <v>7000000</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="IC25"/>
     </row>
@@ -3388,10 +3387,10 @@
         <v>10209</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="F26" s="8">
         <v>10210</v>
@@ -3409,10 +3408,10 @@
         <v>8000000</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="IC26"/>
     </row>
@@ -3421,10 +3420,10 @@
         <v>10210</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="F27" s="8">
         <v>0</v>
@@ -3439,13 +3438,13 @@
         <v>126000</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="IC27"/>
     </row>
@@ -3454,10 +3453,10 @@
         <v>10300</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="F28" s="8">
         <v>10301</v>
@@ -3475,7 +3474,7 @@
         <v>1000000</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="L28" s="10"/>
     </row>
@@ -3484,10 +3483,10 @@
         <v>10301</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="F29" s="8">
         <v>10302</v>
@@ -3505,10 +3504,10 @@
         <v>1500000</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -3516,10 +3515,10 @@
         <v>10302</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="F30" s="8">
         <v>10303</v>
@@ -3537,10 +3536,10 @@
         <v>2000000</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="IC30"/>
     </row>
@@ -3549,10 +3548,10 @@
         <v>10303</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="F31" s="8">
         <v>10304</v>
@@ -3570,10 +3569,10 @@
         <v>2500000</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="IC31"/>
     </row>
@@ -3582,10 +3581,10 @@
         <v>10304</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="F32" s="8">
         <v>10305</v>
@@ -3603,10 +3602,10 @@
         <v>3000000</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="IC32"/>
     </row>
@@ -3615,10 +3614,10 @@
         <v>10305</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="F33" s="8">
         <v>10306</v>
@@ -3636,10 +3635,10 @@
         <v>4000000</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -3647,10 +3646,10 @@
         <v>10306</v>
       </c>
       <c r="D34" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>205</v>
       </c>
       <c r="F34" s="8">
         <v>10307</v>
@@ -3668,10 +3667,10 @@
         <v>5000000</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="IC34"/>
     </row>
@@ -3680,10 +3679,10 @@
         <v>10307</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="F35" s="8">
         <v>10308</v>
@@ -3701,10 +3700,10 @@
         <v>6000000</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="IC35"/>
     </row>
@@ -3713,10 +3712,10 @@
         <v>10308</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="F36" s="8">
         <v>10309</v>
@@ -3734,10 +3733,10 @@
         <v>7000000</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="IC36"/>
     </row>
@@ -3746,10 +3745,10 @@
         <v>10309</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="F37" s="8">
         <v>10310</v>
@@ -3767,10 +3766,10 @@
         <v>8000000</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="IC37"/>
     </row>
@@ -3779,10 +3778,10 @@
         <v>10310</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="F38" s="8">
         <v>0</v>
@@ -3797,13 +3796,13 @@
         <v>126000</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="IC38"/>
     </row>
@@ -3812,10 +3811,10 @@
         <v>10400</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="F39" s="8">
         <v>10401</v>
@@ -3833,7 +3832,7 @@
         <v>1000000</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="L39" s="10"/>
     </row>
@@ -3842,10 +3841,10 @@
         <v>10401</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="F40" s="8">
         <v>10402</v>
@@ -3863,10 +3862,10 @@
         <v>1500000</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -3874,10 +3873,10 @@
         <v>10402</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="F41" s="8">
         <v>10403</v>
@@ -3895,10 +3894,10 @@
         <v>2000000</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="IC41"/>
     </row>
@@ -3907,10 +3906,10 @@
         <v>10403</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="F42" s="8">
         <v>10404</v>
@@ -3928,10 +3927,10 @@
         <v>2500000</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="IC42"/>
     </row>
@@ -3940,10 +3939,10 @@
         <v>10404</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="F43" s="8">
         <v>10405</v>
@@ -3961,10 +3960,10 @@
         <v>3000000</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="IC43"/>
     </row>
@@ -3973,10 +3972,10 @@
         <v>10405</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="F44" s="8">
         <v>10406</v>
@@ -3994,10 +3993,10 @@
         <v>4000000</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -4005,10 +4004,10 @@
         <v>10406</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="F45" s="8">
         <v>10407</v>
@@ -4026,10 +4025,10 @@
         <v>5000000</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -4037,10 +4036,10 @@
         <v>10407</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="F46" s="8">
         <v>10408</v>
@@ -4058,10 +4057,10 @@
         <v>6000000</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="IC46"/>
     </row>
@@ -4070,10 +4069,10 @@
         <v>10408</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="F47" s="8">
         <v>10409</v>
@@ -4091,10 +4090,10 @@
         <v>7000000</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="IC47"/>
     </row>
@@ -4103,10 +4102,10 @@
         <v>10409</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="F48" s="8">
         <v>10410</v>
@@ -4124,10 +4123,10 @@
         <v>8000000</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="IC48"/>
     </row>
@@ -4136,10 +4135,10 @@
         <v>10410</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="F49" s="8">
         <v>0</v>
@@ -4154,13 +4153,13 @@
         <v>126000</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="IC49"/>
     </row>
@@ -4169,10 +4168,10 @@
         <v>10500</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="F50" s="8">
         <v>10501</v>
@@ -4190,7 +4189,7 @@
         <v>1000000</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="L50" s="10"/>
     </row>
@@ -4199,10 +4198,10 @@
         <v>10501</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="F51" s="8">
         <v>10502</v>
@@ -4220,10 +4219,10 @@
         <v>1500000</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -4231,10 +4230,10 @@
         <v>10502</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="F52" s="8">
         <v>10503</v>
@@ -4252,10 +4251,10 @@
         <v>2000000</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="IC52"/>
     </row>
@@ -4264,10 +4263,10 @@
         <v>10503</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="F53" s="8">
         <v>10504</v>
@@ -4285,10 +4284,10 @@
         <v>2500000</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="IC53"/>
     </row>
@@ -4297,10 +4296,10 @@
         <v>10504</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="F54" s="8">
         <v>10505</v>
@@ -4318,10 +4317,10 @@
         <v>3000000</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="IC54"/>
     </row>
@@ -4330,10 +4329,10 @@
         <v>10505</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="F55" s="8">
         <v>10506</v>
@@ -4351,10 +4350,10 @@
         <v>4000000</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -4362,10 +4361,10 @@
         <v>10506</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="F56" s="8">
         <v>10507</v>
@@ -4383,10 +4382,10 @@
         <v>5000000</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -4394,10 +4393,10 @@
         <v>10507</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="F57" s="8">
         <v>10508</v>
@@ -4415,10 +4414,10 @@
         <v>6000000</v>
       </c>
       <c r="K57" s="11" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="IC57"/>
     </row>
@@ -4427,10 +4426,10 @@
         <v>10508</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="F58" s="8">
         <v>10509</v>
@@ -4448,10 +4447,10 @@
         <v>7000000</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="IC58"/>
     </row>
@@ -4460,10 +4459,10 @@
         <v>10509</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="F59" s="8">
         <v>10510</v>
@@ -4481,10 +4480,10 @@
         <v>8000000</v>
       </c>
       <c r="K59" s="11" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="IC59"/>
     </row>
@@ -4493,10 +4492,10 @@
         <v>10510</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="F60" s="8">
         <v>0</v>
@@ -4511,13 +4510,13 @@
         <v>126000</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="IC60"/>
     </row>
@@ -4526,10 +4525,10 @@
         <v>10600</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="F61" s="8">
         <v>10601</v>
@@ -4547,7 +4546,7 @@
         <v>1000000</v>
       </c>
       <c r="K61" s="11" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="L61" s="10"/>
     </row>
@@ -4556,10 +4555,10 @@
         <v>10601</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="F62" s="8">
         <v>10602</v>
@@ -4577,10 +4576,10 @@
         <v>1500000</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -4588,10 +4587,10 @@
         <v>10602</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="F63" s="8">
         <v>10603</v>
@@ -4609,10 +4608,10 @@
         <v>2000000</v>
       </c>
       <c r="K63" s="11" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="L63" s="10" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="IC63"/>
     </row>
@@ -4621,10 +4620,10 @@
         <v>10603</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="F64" s="8">
         <v>10604</v>
@@ -4642,10 +4641,10 @@
         <v>2500000</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="L64" s="10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="IC64"/>
     </row>
@@ -4654,10 +4653,10 @@
         <v>10604</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="F65" s="8">
         <v>10605</v>
@@ -4675,10 +4674,10 @@
         <v>3000000</v>
       </c>
       <c r="K65" s="11" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="L65" s="10" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="IC65"/>
     </row>
@@ -4687,10 +4686,10 @@
         <v>10605</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="F66" s="8">
         <v>10606</v>
@@ -4708,10 +4707,10 @@
         <v>4000000</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="L66" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -4719,10 +4718,10 @@
         <v>10606</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="F67" s="8">
         <v>10607</v>
@@ -4740,10 +4739,10 @@
         <v>5000000</v>
       </c>
       <c r="K67" s="11" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="L67" s="10" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -4751,10 +4750,10 @@
         <v>10607</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="F68" s="8">
         <v>10608</v>
@@ -4772,10 +4771,10 @@
         <v>6000000</v>
       </c>
       <c r="K68" s="11" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="L68" s="10" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="IC68"/>
     </row>
@@ -4784,10 +4783,10 @@
         <v>10608</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="F69" s="8">
         <v>10609</v>
@@ -4805,10 +4804,10 @@
         <v>7000000</v>
       </c>
       <c r="K69" s="11" t="s">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="L69" s="10" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="IC69"/>
     </row>
@@ -4817,10 +4816,10 @@
         <v>10609</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="F70" s="8">
         <v>10610</v>
@@ -4838,10 +4837,10 @@
         <v>8000000</v>
       </c>
       <c r="K70" s="11" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="L70" s="10" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="IC70"/>
     </row>
@@ -4850,10 +4849,10 @@
         <v>10610</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="F71" s="8">
         <v>0</v>
@@ -4868,13 +4867,13 @@
         <v>126000</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="K71" s="11" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="L71" s="10" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="IC71"/>
     </row>
@@ -4883,10 +4882,10 @@
         <v>10700</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="F72" s="8">
         <v>10701</v>
@@ -4904,7 +4903,7 @@
         <v>1000000</v>
       </c>
       <c r="K72" s="11" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="L72" s="10"/>
     </row>
@@ -4913,10 +4912,10 @@
         <v>10701</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="F73" s="8">
         <v>10702</v>
@@ -4934,10 +4933,10 @@
         <v>1500000</v>
       </c>
       <c r="K73" s="11" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="L73" s="10" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -4945,10 +4944,10 @@
         <v>10702</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="F74" s="8">
         <v>10703</v>
@@ -4966,10 +4965,10 @@
         <v>2000000</v>
       </c>
       <c r="K74" s="11" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="L74" s="10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="IC74"/>
     </row>
@@ -4978,10 +4977,10 @@
         <v>10703</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="F75" s="8">
         <v>10704</v>
@@ -4999,10 +4998,10 @@
         <v>2500000</v>
       </c>
       <c r="K75" s="11" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="L75" s="10" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="IC75"/>
     </row>
@@ -5011,10 +5010,10 @@
         <v>10704</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="F76" s="8">
         <v>10705</v>
@@ -5032,10 +5031,10 @@
         <v>3000000</v>
       </c>
       <c r="K76" s="11" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="L76" s="10" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="IC76"/>
     </row>
@@ -5044,10 +5043,10 @@
         <v>10705</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="F77" s="8">
         <v>10706</v>
@@ -5065,10 +5064,10 @@
         <v>4000000</v>
       </c>
       <c r="K77" s="11" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="L77" s="10" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -5076,10 +5075,10 @@
         <v>10706</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="F78" s="8">
         <v>10707</v>
@@ -5097,10 +5096,10 @@
         <v>5000000</v>
       </c>
       <c r="K78" s="11" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="L78" s="10" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -5108,10 +5107,10 @@
         <v>10707</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="F79" s="8">
         <v>10708</v>
@@ -5129,10 +5128,10 @@
         <v>6000000</v>
       </c>
       <c r="K79" s="11" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="L79" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="IC79"/>
     </row>
@@ -5141,10 +5140,10 @@
         <v>10708</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="F80" s="8">
         <v>10709</v>
@@ -5162,10 +5161,10 @@
         <v>7000000</v>
       </c>
       <c r="K80" s="11" t="s">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="L80" s="10" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="IC80"/>
     </row>
@@ -5174,10 +5173,10 @@
         <v>10709</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="F81" s="8">
         <v>10710</v>
@@ -5195,10 +5194,10 @@
         <v>8000000</v>
       </c>
       <c r="K81" s="11" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="L81" s="10" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="IC81"/>
     </row>
@@ -5207,10 +5206,10 @@
         <v>10710</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="F82" s="8">
         <v>0</v>
@@ -5225,13 +5224,13 @@
         <v>126000</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="K82" s="11" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="L82" s="10" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="IC82"/>
     </row>
@@ -5240,10 +5239,10 @@
         <v>10800</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="F83" s="8">
         <v>10801</v>
@@ -5261,7 +5260,7 @@
         <v>1000000</v>
       </c>
       <c r="K83" s="11" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="L83" s="10"/>
     </row>
@@ -5270,10 +5269,10 @@
         <v>10801</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="F84" s="8">
         <v>10802</v>
@@ -5291,10 +5290,10 @@
         <v>1500000</v>
       </c>
       <c r="K84" s="11" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="L84" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -5302,10 +5301,10 @@
         <v>10802</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="F85" s="8">
         <v>10803</v>
@@ -5323,10 +5322,10 @@
         <v>2000000</v>
       </c>
       <c r="K85" s="11" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="L85" s="10" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="IC85"/>
     </row>
@@ -5335,10 +5334,10 @@
         <v>10803</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="F86" s="8">
         <v>10804</v>
@@ -5356,10 +5355,10 @@
         <v>2500000</v>
       </c>
       <c r="K86" s="11" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="L86" s="10" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="IC86"/>
     </row>
@@ -5368,10 +5367,10 @@
         <v>10804</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="F87" s="8">
         <v>10805</v>
@@ -5389,10 +5388,10 @@
         <v>3000000</v>
       </c>
       <c r="K87" s="11" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="L87" s="10" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="IC87"/>
     </row>
@@ -5401,10 +5400,10 @@
         <v>10805</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="F88" s="8">
         <v>10806</v>
@@ -5422,10 +5421,10 @@
         <v>4000000</v>
       </c>
       <c r="K88" s="11" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="L88" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -5433,10 +5432,10 @@
         <v>10806</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="F89" s="8">
         <v>10807</v>
@@ -5454,10 +5453,10 @@
         <v>5000000</v>
       </c>
       <c r="K89" s="11" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="L89" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -5465,10 +5464,10 @@
         <v>10807</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="F90" s="8">
         <v>10808</v>
@@ -5486,10 +5485,10 @@
         <v>6000000</v>
       </c>
       <c r="K90" s="11" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="L90" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="IC90"/>
     </row>
@@ -5498,10 +5497,10 @@
         <v>10808</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="F91" s="8">
         <v>10809</v>
@@ -5519,10 +5518,10 @@
         <v>7000000</v>
       </c>
       <c r="K91" s="11" t="s">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="L91" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="IC91"/>
     </row>
@@ -5531,10 +5530,10 @@
         <v>10809</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="F92" s="8">
         <v>10810</v>
@@ -5552,10 +5551,10 @@
         <v>8000000</v>
       </c>
       <c r="K92" s="11" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="L92" s="10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="IC92"/>
     </row>
@@ -5564,10 +5563,10 @@
         <v>10810</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="F93" s="8">
         <v>0</v>
@@ -5582,13 +5581,13 @@
         <v>126000</v>
       </c>
       <c r="J93" s="11" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="K93" s="11" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="L93" s="10" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="IC93"/>
     </row>

--- a/Excel/UnionKeJiConfig.xlsx
+++ b/Excel/UnionKeJiConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEDE8F2-B0D4-4DEF-BA18-434379D7996F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5444887D-44CE-476F-B8DF-D785122515C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnionKeJiProto" sheetId="1" r:id="rId1"/>
@@ -2616,8 +2616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:IC93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2812,7 +2812,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="10">
         <v>50400</v>
@@ -2845,7 +2845,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" s="10">
         <v>61200</v>
@@ -2878,7 +2878,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10" s="10">
         <v>72000</v>
@@ -2911,7 +2911,7 @@
         <v>5</v>
       </c>
       <c r="H11" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I11" s="10">
         <v>82800</v>
@@ -2943,7 +2943,7 @@
         <v>6</v>
       </c>
       <c r="H12" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I12" s="10">
         <v>93600</v>
@@ -2976,7 +2976,7 @@
         <v>7</v>
       </c>
       <c r="H13" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I13" s="10">
         <v>104400</v>
@@ -3009,7 +3009,7 @@
         <v>8</v>
       </c>
       <c r="H14" s="10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I14" s="10">
         <v>115200</v>
@@ -3042,7 +3042,7 @@
         <v>9</v>
       </c>
       <c r="H15" s="10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I15" s="10">
         <v>126000</v>
@@ -3075,7 +3075,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I16" s="10">
         <v>126000</v>
@@ -3170,7 +3170,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="10">
         <v>50400</v>
@@ -3203,7 +3203,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20" s="10">
         <v>61200</v>
@@ -3236,7 +3236,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I21" s="10">
         <v>72000</v>
@@ -3269,7 +3269,7 @@
         <v>5</v>
       </c>
       <c r="H22" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I22" s="10">
         <v>82800</v>
@@ -3301,7 +3301,7 @@
         <v>6</v>
       </c>
       <c r="H23" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I23" s="10">
         <v>93600</v>
@@ -3333,7 +3333,7 @@
         <v>7</v>
       </c>
       <c r="H24" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I24" s="10">
         <v>104400</v>
@@ -3366,7 +3366,7 @@
         <v>8</v>
       </c>
       <c r="H25" s="10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I25" s="10">
         <v>115200</v>
@@ -3399,7 +3399,7 @@
         <v>9</v>
       </c>
       <c r="H26" s="10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I26" s="10">
         <v>126000</v>
@@ -3432,7 +3432,7 @@
         <v>10</v>
       </c>
       <c r="H27" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I27" s="10">
         <v>126000</v>
@@ -3527,7 +3527,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" s="10">
         <v>50400</v>
@@ -3560,7 +3560,7 @@
         <v>3</v>
       </c>
       <c r="H31" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31" s="10">
         <v>61200</v>
@@ -3593,7 +3593,7 @@
         <v>4</v>
       </c>
       <c r="H32" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I32" s="10">
         <v>72000</v>
@@ -3626,7 +3626,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I33" s="10">
         <v>82800</v>
@@ -3658,7 +3658,7 @@
         <v>6</v>
       </c>
       <c r="H34" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I34" s="10">
         <v>93600</v>
@@ -3691,7 +3691,7 @@
         <v>7</v>
       </c>
       <c r="H35" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I35" s="10">
         <v>104400</v>
@@ -3724,7 +3724,7 @@
         <v>8</v>
       </c>
       <c r="H36" s="10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I36" s="10">
         <v>115200</v>
@@ -3757,7 +3757,7 @@
         <v>9</v>
       </c>
       <c r="H37" s="10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I37" s="10">
         <v>126000</v>
@@ -3790,7 +3790,7 @@
         <v>10</v>
       </c>
       <c r="H38" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I38" s="10">
         <v>126000</v>
@@ -3885,7 +3885,7 @@
         <v>2</v>
       </c>
       <c r="H41" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" s="10">
         <v>50400</v>
@@ -3918,7 +3918,7 @@
         <v>3</v>
       </c>
       <c r="H42" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42" s="10">
         <v>61200</v>
@@ -3951,7 +3951,7 @@
         <v>4</v>
       </c>
       <c r="H43" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I43" s="10">
         <v>72000</v>
@@ -3984,7 +3984,7 @@
         <v>5</v>
       </c>
       <c r="H44" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I44" s="10">
         <v>82800</v>
@@ -4016,7 +4016,7 @@
         <v>6</v>
       </c>
       <c r="H45" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I45" s="10">
         <v>93600</v>
@@ -4048,7 +4048,7 @@
         <v>7</v>
       </c>
       <c r="H46" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I46" s="10">
         <v>104400</v>
@@ -4081,7 +4081,7 @@
         <v>8</v>
       </c>
       <c r="H47" s="10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I47" s="10">
         <v>115200</v>
@@ -4114,7 +4114,7 @@
         <v>9</v>
       </c>
       <c r="H48" s="10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I48" s="10">
         <v>126000</v>
@@ -4147,7 +4147,7 @@
         <v>10</v>
       </c>
       <c r="H49" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I49" s="10">
         <v>126000</v>
@@ -4242,7 +4242,7 @@
         <v>2</v>
       </c>
       <c r="H52" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" s="10">
         <v>50400</v>
@@ -4275,7 +4275,7 @@
         <v>3</v>
       </c>
       <c r="H53" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I53" s="10">
         <v>61200</v>
@@ -4308,7 +4308,7 @@
         <v>4</v>
       </c>
       <c r="H54" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I54" s="10">
         <v>72000</v>
@@ -4341,7 +4341,7 @@
         <v>5</v>
       </c>
       <c r="H55" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I55" s="10">
         <v>82800</v>
@@ -4373,7 +4373,7 @@
         <v>6</v>
       </c>
       <c r="H56" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I56" s="10">
         <v>93600</v>
@@ -4405,7 +4405,7 @@
         <v>7</v>
       </c>
       <c r="H57" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I57" s="10">
         <v>104400</v>
@@ -4438,7 +4438,7 @@
         <v>8</v>
       </c>
       <c r="H58" s="10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I58" s="10">
         <v>115200</v>
@@ -4471,7 +4471,7 @@
         <v>9</v>
       </c>
       <c r="H59" s="10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I59" s="10">
         <v>126000</v>
@@ -4504,7 +4504,7 @@
         <v>10</v>
       </c>
       <c r="H60" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I60" s="10">
         <v>126000</v>
@@ -4599,7 +4599,7 @@
         <v>2</v>
       </c>
       <c r="H63" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" s="10">
         <v>50400</v>
@@ -4632,7 +4632,7 @@
         <v>3</v>
       </c>
       <c r="H64" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I64" s="10">
         <v>61200</v>
@@ -4665,7 +4665,7 @@
         <v>4</v>
       </c>
       <c r="H65" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I65" s="10">
         <v>72000</v>
@@ -4698,7 +4698,7 @@
         <v>5</v>
       </c>
       <c r="H66" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I66" s="10">
         <v>82800</v>
@@ -4730,7 +4730,7 @@
         <v>6</v>
       </c>
       <c r="H67" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I67" s="10">
         <v>93600</v>
@@ -4762,7 +4762,7 @@
         <v>7</v>
       </c>
       <c r="H68" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I68" s="10">
         <v>104400</v>
@@ -4795,7 +4795,7 @@
         <v>8</v>
       </c>
       <c r="H69" s="10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I69" s="10">
         <v>115200</v>
@@ -4828,7 +4828,7 @@
         <v>9</v>
       </c>
       <c r="H70" s="10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I70" s="10">
         <v>126000</v>
@@ -4861,7 +4861,7 @@
         <v>10</v>
       </c>
       <c r="H71" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I71" s="10">
         <v>126000</v>
@@ -4956,7 +4956,7 @@
         <v>2</v>
       </c>
       <c r="H74" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" s="10">
         <v>50400</v>
@@ -4989,7 +4989,7 @@
         <v>3</v>
       </c>
       <c r="H75" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I75" s="10">
         <v>61200</v>
@@ -5022,7 +5022,7 @@
         <v>4</v>
       </c>
       <c r="H76" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I76" s="10">
         <v>72000</v>
@@ -5055,7 +5055,7 @@
         <v>5</v>
       </c>
       <c r="H77" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I77" s="10">
         <v>82800</v>
@@ -5087,7 +5087,7 @@
         <v>6</v>
       </c>
       <c r="H78" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I78" s="10">
         <v>93600</v>
@@ -5119,7 +5119,7 @@
         <v>7</v>
       </c>
       <c r="H79" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I79" s="10">
         <v>104400</v>
@@ -5152,7 +5152,7 @@
         <v>8</v>
       </c>
       <c r="H80" s="10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I80" s="10">
         <v>115200</v>
@@ -5185,7 +5185,7 @@
         <v>9</v>
       </c>
       <c r="H81" s="10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I81" s="10">
         <v>126000</v>
@@ -5218,7 +5218,7 @@
         <v>10</v>
       </c>
       <c r="H82" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I82" s="10">
         <v>126000</v>
@@ -5313,7 +5313,7 @@
         <v>2</v>
       </c>
       <c r="H85" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" s="10">
         <v>50400</v>
@@ -5346,7 +5346,7 @@
         <v>3</v>
       </c>
       <c r="H86" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I86" s="10">
         <v>61200</v>
@@ -5379,7 +5379,7 @@
         <v>4</v>
       </c>
       <c r="H87" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I87" s="10">
         <v>72000</v>
@@ -5412,7 +5412,7 @@
         <v>5</v>
       </c>
       <c r="H88" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I88" s="10">
         <v>82800</v>
@@ -5444,7 +5444,7 @@
         <v>6</v>
       </c>
       <c r="H89" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I89" s="10">
         <v>93600</v>
@@ -5476,7 +5476,7 @@
         <v>7</v>
       </c>
       <c r="H90" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I90" s="10">
         <v>104400</v>
@@ -5509,7 +5509,7 @@
         <v>8</v>
       </c>
       <c r="H91" s="10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I91" s="10">
         <v>115200</v>
@@ -5542,7 +5542,7 @@
         <v>9</v>
       </c>
       <c r="H92" s="10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I92" s="10">
         <v>126000</v>
@@ -5575,7 +5575,7 @@
         <v>10</v>
       </c>
       <c r="H93" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I93" s="10">
         <v>126000</v>
